--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mae &amp; peaarson" sheetId="1" r:id="rId1"/>
-    <sheet name="performa" sheetId="2" r:id="rId2"/>
+    <sheet name="round score" sheetId="3" r:id="rId2"/>
+    <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
+    <sheet name="Contigency" sheetId="4" r:id="rId4"/>
+    <sheet name="performa" sheetId="2" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
   <si>
     <t>pearson</t>
   </si>
@@ -36,6 +39,63 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>round_type = 2</t>
+  </si>
+  <si>
+    <t>round_type = 3</t>
+  </si>
+  <si>
+    <t>round_type = 6</t>
+  </si>
+  <si>
+    <t>round_type = 11</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>tn</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>f_measure</t>
+  </si>
+  <si>
+    <t>sum tp</t>
+  </si>
+  <si>
+    <t>sum tn</t>
+  </si>
+  <si>
+    <t>sum fp</t>
+  </si>
+  <si>
+    <t>sum fn</t>
   </si>
 </sst>
 </file>
@@ -71,8 +131,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,14 +172,13 @@
       <sheetName val="v"/>
       <sheetName val="vk"/>
       <sheetName val="score"/>
-      <sheetName val="evaluation"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
@@ -466,7 +537,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1187,14 +1257,5979 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2.5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>3.5</v>
+      </c>
+      <c r="Q3">
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <v>1.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>4.5</v>
+      </c>
+      <c r="S5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>4.5</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>2.5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3.5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>4.5</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>2.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2.5</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>4.5</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>3.5</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>4.5</v>
+      </c>
+      <c r="R15">
+        <v>4.5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.5</v>
+      </c>
+      <c r="Q16">
+        <v>4.5</v>
+      </c>
+      <c r="R16">
+        <v>3.5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.5</v>
+      </c>
+      <c r="Q18">
+        <v>4.5</v>
+      </c>
+      <c r="R18">
+        <v>3.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20">
+        <v>2.5</v>
+      </c>
+      <c r="H20">
+        <v>2.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>2.5</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>3.5</v>
+      </c>
+      <c r="R21">
+        <v>3.5</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2.5</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.5</v>
+      </c>
+      <c r="Q25">
+        <v>4.5</v>
+      </c>
+      <c r="R25">
+        <v>4.5</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2.5</v>
+      </c>
+      <c r="Q26">
+        <v>4.5</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>4.5</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30">
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <v>2.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>2.5</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="P1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <f>IF($A3='round score'!B3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <f>IF($A3='round score'!C3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <f>IF($A3='round score'!D3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="b">
+        <f>IF($F3='round score'!G3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF($F3='round score'!H3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IF($F3='round score'!I3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="b">
+        <f>IF($K3='round score'!L3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f>IF($K3='round score'!M3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <f>IF($K3='round score'!N3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>3.5</v>
+      </c>
+      <c r="Q3" t="b">
+        <f>IF($P3='round score'!Q3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <f>IF($P3='round score'!R3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <f>IF($P3='round score'!S3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <f>IF($A4='round score'!B4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <f>IF($A4='round score'!C4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <f>IF($A4='round score'!D4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="b">
+        <f>IF($F4='round score'!G4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <f>IF($F4='round score'!H4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IF($F4='round score'!I4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="b">
+        <f>IF($K4='round score'!L4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <f>IF($K4='round score'!M4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <f>IF($K4='round score'!N4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="b">
+        <f>IF($P4='round score'!Q4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <f>IF($P4='round score'!R4,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <f>IF($P4='round score'!S4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="b">
+        <f>IF($A5='round score'!B5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <f>IF($A5='round score'!C5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f>IF($A5='round score'!D5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="b">
+        <f>IF($F5='round score'!G5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <f>IF($F5='round score'!H5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IF($F5='round score'!I5,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="b">
+        <f>IF($K5='round score'!L5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <f>IF($K5='round score'!M5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <f>IF($K5='round score'!N5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="b">
+        <f>IF($P5='round score'!Q5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <f>IF($P5='round score'!R5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <f>IF($P5='round score'!S5,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="b">
+        <f>IF($A6='round score'!B6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <f>IF($A6='round score'!C6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f>IF($A6='round score'!D6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="b">
+        <f>IF($F6='round score'!G6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <f>IF($F6='round score'!H6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IF($F6='round score'!I6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" t="b">
+        <f>IF($K6='round score'!L6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <f>IF($K6='round score'!M6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N6" t="b">
+        <f>IF($K6='round score'!N6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="b">
+        <f>IF($P6='round score'!Q6,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <f>IF($P6='round score'!R6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <f>IF($P6='round score'!S6,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <f>IF($A7='round score'!B7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <f>IF($A7='round score'!C7,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <f>IF($A7='round score'!D7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7" t="b">
+        <f>IF($F7='round score'!G7,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <f>IF($F7='round score'!H7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IF($F7='round score'!I7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="b">
+        <f>IF($K7='round score'!L7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f>IF($K7='round score'!M7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <f>IF($K7='round score'!N7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="b">
+        <f>IF($P7='round score'!Q7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <f>IF($P7='round score'!R7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <f>IF($P7='round score'!S7,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="b">
+        <f>IF($A8='round score'!B8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <f>IF($A8='round score'!C8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <f>IF($A8='round score'!D8,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2.5</v>
+      </c>
+      <c r="G8" t="b">
+        <f>IF($F8='round score'!G8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <f>IF($F8='round score'!H8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IF($F8='round score'!I8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="b">
+        <f>IF($K8='round score'!L8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <f>IF($K8='round score'!M8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <f>IF($K8='round score'!N8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="b">
+        <f>IF($P8='round score'!Q8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <f>IF($P8='round score'!R8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <f>IF($P8='round score'!S8,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="b">
+        <f>IF($A9='round score'!B9,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <f>IF($A9='round score'!C9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <f>IF($A9='round score'!D9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="b">
+        <f>IF($F9='round score'!G9,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <f>IF($F9='round score'!H9,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IF($F9='round score'!I9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" t="b">
+        <f>IF($K9='round score'!L9,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <f>IF($K9='round score'!M9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <f>IF($K9='round score'!N9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="b">
+        <f>IF($P9='round score'!Q9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <f>IF($P9='round score'!R9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <f>IF($P9='round score'!S9,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="b">
+        <f>IF($A10='round score'!B10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <f>IF($A10='round score'!C10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <f>IF($A10='round score'!D10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="b">
+        <f>IF($F10='round score'!G10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <f>IF($F10='round score'!H10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <f>IF($F10='round score'!I10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="b">
+        <f>IF($K10='round score'!L10,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <f>IF($K10='round score'!M10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <f>IF($K10='round score'!N10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="b">
+        <f>IF($P10='round score'!Q10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <f>IF($P10='round score'!R10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <f>IF($P10='round score'!S10,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="b">
+        <f>IF($A11='round score'!B11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <f>IF($A11='round score'!C11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <f>IF($A11='round score'!D11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="b">
+        <f>IF($F11='round score'!G11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <f>IF($F11='round score'!H11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <f>IF($F11='round score'!I11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="b">
+        <f>IF($K11='round score'!L11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <f>IF($K11='round score'!M11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <f>IF($K11='round score'!N11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="b">
+        <f>IF($P11='round score'!Q11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <f>IF($P11='round score'!R11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <f>IF($P11='round score'!S11,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="b">
+        <f>IF($A12='round score'!B12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <f>IF($A12='round score'!C12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <f>IF($A12='round score'!D12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="b">
+        <f>IF($F12='round score'!G12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <f>IF($F12='round score'!H12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <f>IF($F12='round score'!I12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" t="b">
+        <f>IF($K12='round score'!L12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <f>IF($K12='round score'!M12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <f>IF($K12='round score'!N12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="b">
+        <f>IF($P12='round score'!Q12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <f>IF($P12='round score'!R12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" t="b">
+        <f>IF($P12='round score'!S12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="b">
+        <f>IF($A13='round score'!B13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <f>IF($A13='round score'!C13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <f>IF($A13='round score'!D13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="b">
+        <f>IF($F13='round score'!G13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <f>IF($F13='round score'!H13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <f>IF($F13='round score'!I13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="b">
+        <f>IF($K13='round score'!L13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <f>IF($K13='round score'!M13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <f>IF($K13='round score'!N13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="b">
+        <f>IF($P13='round score'!Q13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" t="b">
+        <f>IF($P13='round score'!R13,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <f>IF($P13='round score'!S13,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="b">
+        <f>IF($A14='round score'!B14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <f>IF($A14='round score'!C14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <f>IF($A14='round score'!D14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="b">
+        <f>IF($F14='round score'!G14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <f>IF($F14='round score'!H14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <f>IF($F14='round score'!I14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" t="b">
+        <f>IF($K14='round score'!L14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <f>IF($K14='round score'!M14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <f>IF($K14='round score'!N14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="b">
+        <f>IF($P14='round score'!Q14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <f>IF($P14='round score'!R14,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <f>IF($P14='round score'!S14,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" t="b">
+        <f>IF($A15='round score'!B15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <f>IF($A15='round score'!C15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <f>IF($A15='round score'!D15,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15" t="b">
+        <f>IF($F15='round score'!G15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <f>IF($F15='round score'!H15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <f>IF($F15='round score'!I15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="b">
+        <f>IF($K15='round score'!L15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <f>IF($K15='round score'!M15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <f>IF($K15='round score'!N15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="b">
+        <f>IF($P15='round score'!Q15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <f>IF($P15='round score'!R15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <f>IF($P15='round score'!S15,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="b">
+        <f>IF($A16='round score'!B16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <f>IF($A16='round score'!C16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <f>IF($A16='round score'!D16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16" t="b">
+        <f>IF($F16='round score'!G16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f>IF($F16='round score'!H16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <f>IF($F16='round score'!I16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" t="b">
+        <f>IF($K16='round score'!L16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <f>IF($K16='round score'!M16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <f>IF($K16='round score'!N16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="b">
+        <f>IF($P16='round score'!Q16,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <f>IF($P16='round score'!R16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <f>IF($P16='round score'!S16,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" t="b">
+        <f>IF($A17='round score'!B17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <f>IF($A17='round score'!C17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <f>IF($A17='round score'!D17,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17" t="b">
+        <f>IF($F17='round score'!G17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <f>IF($F17='round score'!H17,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <f>IF($F17='round score'!I17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="b">
+        <f>IF($K17='round score'!L17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <f>IF($K17='round score'!M17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <f>IF($K17='round score'!N17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="b">
+        <f>IF($P17='round score'!Q17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <f>IF($P17='round score'!R17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <f>IF($P17='round score'!S17,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="b">
+        <f>IF($A18='round score'!B18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <f>IF($A18='round score'!C18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <f>IF($A18='round score'!D18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18" t="b">
+        <f>IF($F18='round score'!G18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <f>IF($F18='round score'!H18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <f>IF($F18='round score'!I18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" t="b">
+        <f>IF($K18='round score'!L18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <f>IF($K18='round score'!M18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <f>IF($K18='round score'!N18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" t="b">
+        <f>IF($P18='round score'!Q18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <f>IF($P18='round score'!R18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <f>IF($P18='round score'!S18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="b">
+        <f>IF($A19='round score'!B19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <f>IF($A19='round score'!C19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f>IF($A19='round score'!D19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="b">
+        <f>IF($F19='round score'!G19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <f>IF($F19='round score'!H19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f>IF($F19='round score'!I19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" t="b">
+        <f>IF($K19='round score'!L19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <f>IF($K19='round score'!M19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <f>IF($K19='round score'!N19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="b">
+        <f>IF($P19='round score'!Q19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <f>IF($P19='round score'!R19,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <f>IF($P19='round score'!S19,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" t="b">
+        <f>IF($A20='round score'!B20,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <f>IF($A20='round score'!C20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f>IF($A20='round score'!D20,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2.5</v>
+      </c>
+      <c r="G20" t="b">
+        <f>IF($F20='round score'!G20,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <f>IF($F20='round score'!H20,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f>IF($F20='round score'!I20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" t="b">
+        <f>IF($K20='round score'!L20,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <f>IF($K20='round score'!M20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <f>IF($K20='round score'!N20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="b">
+        <f>IF($P20='round score'!Q20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <f>IF($P20='round score'!R20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <f>IF($P20='round score'!S20,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="b">
+        <f>IF($A21='round score'!B21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <f>IF($A21='round score'!C21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" t="b">
+        <f>IF($A21='round score'!D21,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21" t="b">
+        <f>IF($F21='round score'!G21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <f>IF($F21='round score'!H21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <f>IF($F21='round score'!I21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" t="b">
+        <f>IF($K21='round score'!L21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <f>IF($K21='round score'!M21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <f>IF($K21='round score'!N21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="b">
+        <f>IF($P21='round score'!Q21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <f>IF($P21='round score'!R21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <f>IF($P21='round score'!S21,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="b">
+        <f>IF($A22='round score'!B22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <f>IF($A22='round score'!C22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f>IF($A22='round score'!D22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2.5</v>
+      </c>
+      <c r="G22" t="b">
+        <f>IF($F22='round score'!G22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <f>IF($F22='round score'!H22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <f>IF($F22='round score'!I22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="b">
+        <f>IF($K22='round score'!L22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <f>IF($K22='round score'!M22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <f>IF($K22='round score'!N22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="b">
+        <f>IF($P22='round score'!Q22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <f>IF($P22='round score'!R22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <f>IF($P22='round score'!S22,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="b">
+        <f>IF($A23='round score'!B23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <f>IF($A23='round score'!C23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <f>IF($A23='round score'!D23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="b">
+        <f>IF($F23='round score'!G23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <f>IF($F23='round score'!H23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f>IF($F23='round score'!I23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23" t="b">
+        <f>IF($K23='round score'!L23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <f>IF($K23='round score'!M23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <f>IF($K23='round score'!N23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="b">
+        <f>IF($P23='round score'!Q23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <f>IF($P23='round score'!R23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S23" t="b">
+        <f>IF($P23='round score'!S23,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="b">
+        <f>IF($A24='round score'!B24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <f>IF($A24='round score'!C24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <f>IF($A24='round score'!D24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="b">
+        <f>IF($F24='round score'!G24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <f>IF($F24='round score'!H24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f>IF($F24='round score'!I24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24" t="b">
+        <f>IF($K24='round score'!L24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <f>IF($K24='round score'!M24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <f>IF($K24='round score'!N24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="b">
+        <f>IF($P24='round score'!Q24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <f>IF($P24='round score'!R24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <f>IF($P24='round score'!S24,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25" t="b">
+        <f>IF($A25='round score'!B25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <f>IF($A25='round score'!C25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <f>IF($A25='round score'!D25,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <f>IF($F25='round score'!G25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <f>IF($F25='round score'!H25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <f>IF($F25='round score'!I25,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="b">
+        <f>IF($K25='round score'!L25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <f>IF($K25='round score'!M25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <f>IF($K25='round score'!N25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="b">
+        <f>IF($P25='round score'!Q25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <f>IF($P25='round score'!R25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <f>IF($P25='round score'!S25,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="b">
+        <f>IF($A26='round score'!B26,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <f>IF($A26='round score'!C26,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <f>IF($A26='round score'!D26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2.5</v>
+      </c>
+      <c r="G26" t="b">
+        <f>IF($F26='round score'!G26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <f>IF($F26='round score'!H26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <f>IF($F26='round score'!I26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="b">
+        <f>IF($K26='round score'!L26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <f>IF($K26='round score'!M26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <f>IF($K26='round score'!N26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>2.5</v>
+      </c>
+      <c r="Q26" t="b">
+        <f>IF($P26='round score'!Q26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <f>IF($P26='round score'!R26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <f>IF($P26='round score'!S26,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="b">
+        <f>IF($A27='round score'!B27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <f>IF($A27='round score'!C27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <f>IF($A27='round score'!D27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="b">
+        <f>IF($F27='round score'!G27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <f>IF($F27='round score'!H27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <f>IF($F27='round score'!I27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27" t="b">
+        <f>IF($K27='round score'!L27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M27" t="b">
+        <f>IF($K27='round score'!M27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N27" t="b">
+        <f>IF($K27='round score'!N27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="b">
+        <f>IF($P27='round score'!Q27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <f>IF($P27='round score'!R27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S27" t="b">
+        <f>IF($P27='round score'!S27,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="b">
+        <f>IF($A28='round score'!B28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <f>IF($A28='round score'!C28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <f>IF($A28='round score'!D28,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2.5</v>
+      </c>
+      <c r="G28" t="b">
+        <f>IF($F28='round score'!G28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <f>IF($F28='round score'!H28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <f>IF($F28='round score'!I28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="b">
+        <f>IF($K28='round score'!L28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <f>IF($K28='round score'!M28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <f>IF($K28='round score'!N28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="b">
+        <f>IF($P28='round score'!Q28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <f>IF($P28='round score'!R28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <f>IF($P28='round score'!S28,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="b">
+        <f>IF($A29='round score'!B29,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <f>IF($A29='round score'!C29,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <f>IF($A29='round score'!D29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2.5</v>
+      </c>
+      <c r="G29" t="b">
+        <f>IF($F29='round score'!G29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <f>IF($F29='round score'!H29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" t="b">
+        <f>IF($F29='round score'!I29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="b">
+        <f>IF($K29='round score'!L29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <f>IF($K29='round score'!M29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <f>IF($K29='round score'!N29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="b">
+        <f>IF($P29='round score'!Q29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <f>IF($P29='round score'!R29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <f>IF($P29='round score'!S29,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="b">
+        <f>IF($A30='round score'!B30,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <f>IF($A30='round score'!C30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <f>IF($A30='round score'!D30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.5</v>
+      </c>
+      <c r="G30" t="b">
+        <f>IF($F30='round score'!G30,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <f>IF($F30='round score'!H30,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <f>IF($F30='round score'!I30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="b">
+        <f>IF($K30='round score'!L30,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <f>IF($K30='round score'!M30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <f>IF($K30='round score'!N30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="b">
+        <f>IF($P30='round score'!Q30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <f>IF($P30='round score'!R30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <f>IF($P30='round score'!S30,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="b">
+        <f>IF($A31='round score'!B31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <f>IF($A31='round score'!C31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <f>IF($A31='round score'!D31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2.5</v>
+      </c>
+      <c r="G31" t="b">
+        <f>IF($F31='round score'!G31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <f>IF($F31='round score'!H31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <f>IF($F31='round score'!I31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="b">
+        <f>IF($K31='round score'!L31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <f>IF($K31='round score'!M31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <f>IF($K31='round score'!N31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>2.5</v>
+      </c>
+      <c r="Q31" t="b">
+        <f>IF($P31='round score'!Q31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <f>IF($P31='round score'!R31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <f>IF($P31='round score'!S31,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:X46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="16" max="16" width="9.140625" style="2"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="V1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="V2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <v>7</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <v>17</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <v>8</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <v>7</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <v>8</v>
+      </c>
+      <c r="X4">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
+        <v>13</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
+        <v>20</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
+        <v>22</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <v>9</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <v>7</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V8">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
+        <v>13</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
+        <v>13</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
+        <v>7</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
+        <v>22</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
+        <v>17</v>
+      </c>
+      <c r="W10">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
+        <v>21</v>
+      </c>
+      <c r="X10">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <v>8</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <v>7</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <v>8</v>
+      </c>
+      <c r="X12">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
+        <v>7</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
+        <v>7</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
+        <v>13</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
+        <v>15</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <v>17</v>
+      </c>
+      <c r="W14">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <v>21</v>
+      </c>
+      <c r="X14">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V15">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <v>13</v>
+      </c>
+      <c r="R16">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <v>9</v>
+      </c>
+      <c r="S16">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <v>7</v>
+      </c>
+      <c r="U16" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V16">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <v>8</v>
+      </c>
+      <c r="X16">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
+        <v>7</v>
+      </c>
+      <c r="S17">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
+        <v>7</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V17">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
+        <v>13</v>
+      </c>
+      <c r="S18">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
+        <v>15</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="V18">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
+        <v>20</v>
+      </c>
+      <c r="X18">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <v>15</v>
+      </c>
+      <c r="R20">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <v>9</v>
+      </c>
+      <c r="S20">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <v>7</v>
+      </c>
+      <c r="U20" s="2">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <v>12</v>
+      </c>
+      <c r="W20">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
+        <v>3</v>
+      </c>
+      <c r="U21" s="2">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
+        <v>6</v>
+      </c>
+      <c r="W21">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
+        <v>11</v>
+      </c>
+      <c r="R22">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
+        <v>17</v>
+      </c>
+      <c r="S22">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
+        <v>19</v>
+      </c>
+      <c r="U22" s="2">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
+        <v>11</v>
+      </c>
+      <c r="W22">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
+        <v>15</v>
+      </c>
+      <c r="X22">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <v>12</v>
+      </c>
+      <c r="R23">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <v>9</v>
+      </c>
+      <c r="S23">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <v>7</v>
+      </c>
+      <c r="U23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="V23">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <v>12</v>
+      </c>
+      <c r="W24">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <v>8</v>
+      </c>
+      <c r="X24">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q25">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
+        <v>5</v>
+      </c>
+      <c r="U25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="V25">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
+        <v>4</v>
+      </c>
+      <c r="W25">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
+        <v>17</v>
+      </c>
+      <c r="S26">
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
+        <v>17</v>
+      </c>
+      <c r="U26" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="V26">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
+        <v>13</v>
+      </c>
+      <c r="W26">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
+        <v>17</v>
+      </c>
+      <c r="X26">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U27" s="2">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U28" s="2">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <v>12</v>
+      </c>
+      <c r="W28">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <v>8</v>
+      </c>
+      <c r="X28">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U29" s="2">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
+        <v>3</v>
+      </c>
+      <c r="X29">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U30" s="2">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
+        <v>14</v>
+      </c>
+      <c r="W30">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
+        <v>18</v>
+      </c>
+      <c r="X30">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V31">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V32">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <v>11</v>
+      </c>
+      <c r="W32">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <v>8</v>
+      </c>
+      <c r="X32">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U33" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V33">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
+        <v>2</v>
+      </c>
+      <c r="X33">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U34" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V34">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
+        <v>16</v>
+      </c>
+      <c r="W34">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
+        <v>19</v>
+      </c>
+      <c r="X34">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U35" s="2">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U36" s="2">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <v>12</v>
+      </c>
+      <c r="W36">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <v>8</v>
+      </c>
+      <c r="X36">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U37" s="2">
+        <v>4</v>
+      </c>
+      <c r="V37">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U38" s="2">
+        <v>4</v>
+      </c>
+      <c r="V38">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
+        <v>16</v>
+      </c>
+      <c r="W38">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
+        <v>20</v>
+      </c>
+      <c r="X38">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U39" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V39">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U40" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V40">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <v>10</v>
+      </c>
+      <c r="W40">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <v>8</v>
+      </c>
+      <c r="X40">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U41" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V41">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V42">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
+        <v>17</v>
+      </c>
+      <c r="W42">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
+        <v>19</v>
+      </c>
+      <c r="X42">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43" s="2">
+        <v>5</v>
+      </c>
+      <c r="V43">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <v>9</v>
+      </c>
+      <c r="W43">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <v>8</v>
+      </c>
+      <c r="X43">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="2">
+        <v>5</v>
+      </c>
+      <c r="V44">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U45" s="2">
+        <v>5</v>
+      </c>
+      <c r="V45">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="2">
+        <v>5</v>
+      </c>
+      <c r="V46">
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
+        <v>16</v>
+      </c>
+      <c r="W46">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
+        <v>19</v>
+      </c>
+      <c r="X46">
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" ref="E48:T49" si="0">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)</f>
+        <v>19</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="L48" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="Q48" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="V48" s="2">
+        <f t="shared" ref="V48:X48" si="1">SUM(V3,V7,V11,V15,V19,V23,V27,V31,V35,V39,V43)</f>
+        <v>12</v>
+      </c>
+      <c r="W48" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X48" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="L49" s="2">
+        <f t="shared" ref="J49:X49" si="2">SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)</f>
+        <v>34</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="Q49" s="2">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="T49" s="2"/>
+      <c r="V49" s="2">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="W49" s="2">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="X49" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:I50" si="3">SUM(G5,G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)</f>
+        <v>10</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="L50" s="2">
+        <f t="shared" ref="J50:X50" si="4">SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
+        <v>12</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="Q50" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="T50" s="2"/>
+      <c r="V50" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" ref="G51:I51" si="5">SUM(G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46)</f>
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="L51" s="2">
+        <f t="shared" ref="J51:X51" si="6">SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)</f>
+        <v>24</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="Q51" s="2">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+      <c r="T51" s="2"/>
+      <c r="V51" s="2">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="W51" s="2">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="X51" s="2">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>Contigency!G48/(Contigency!G48+Contigency!G50)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="C3">
+        <f>Contigency!H48/(Contigency!H48+Contigency!H50)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="D3">
+        <f>Contigency!I48/(Contigency!I48+Contigency!I50)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E3">
+        <f>Contigency!L48/(Contigency!L48+Contigency!L50)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="F3">
+        <f>Contigency!M48/(Contigency!M48+Contigency!M50)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G3">
+        <f>Contigency!N48/(Contigency!N48+Contigency!N50)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="H3">
+        <f>Contigency!Q48/(Contigency!Q48+Contigency!Q50)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="I3">
+        <f>Contigency!R48/(Contigency!R48+Contigency!R50)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="J3">
+        <f>Contigency!S48/(Contigency!S48+Contigency!S50)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K3">
+        <f>Contigency!V48/(Contigency!V48+Contigency!V50)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="L3">
+        <f>Contigency!W48/(Contigency!W48+Contigency!W50)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="M3">
+        <f>Contigency!X48/(Contigency!X48+Contigency!X50)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>Contigency!G48/(Contigency!G48+Contigency!G51)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="C4">
+        <f>Contigency!H48/(Contigency!H48+Contigency!H51)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="D4">
+        <f>Contigency!I48/(Contigency!I48+Contigency!I51)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E4">
+        <f>Contigency!L48/(Contigency!L48+Contigency!L51)</f>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="F4">
+        <f>Contigency!M48/(Contigency!M48+Contigency!M51)</f>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="G4">
+        <f>Contigency!N48/(Contigency!N48+Contigency!N51)</f>
+        <v>0.18367346938775511</v>
+      </c>
+      <c r="H4">
+        <f>Contigency!Q48/(Contigency!Q48+Contigency!Q51)</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="I4">
+        <f>Contigency!R48/(Contigency!R48+Contigency!R51)</f>
+        <v>8.2568807339449546E-2</v>
+      </c>
+      <c r="J4">
+        <f>Contigency!S48/(Contigency!S48+Contigency!S51)</f>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="K4">
+        <f>Contigency!V48/(Contigency!V48+Contigency!V51)</f>
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="L4">
+        <f>Contigency!W48/(Contigency!W48+Contigency!W51)</f>
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="M4">
+        <f>Contigency!X48/(Contigency!X48+Contigency!X51)</f>
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>(Contigency!G48+Contigency!G49)/(Contigency!G48+Contigency!G49+Contigency!G50+Contigency!G51)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="C5">
+        <f>(Contigency!H48+Contigency!H49)/(Contigency!H48+Contigency!H49+Contigency!H50+Contigency!H51)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="D5">
+        <f>(Contigency!I48+Contigency!I49)/(Contigency!I48+Contigency!I49+Contigency!I50+Contigency!I51)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E5">
+        <f>(Contigency!L48+Contigency!L49)/(Contigency!L48+Contigency!L49+Contigency!L50+Contigency!L51)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="F5">
+        <f>(Contigency!M48+Contigency!M49)/(Contigency!M48+Contigency!M49+Contigency!M50+Contigency!M51)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G5">
+        <f>(Contigency!N48+Contigency!N49)/(Contigency!N48+Contigency!N49+Contigency!N50+Contigency!N51)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="H5">
+        <f>(Contigency!Q48+Contigency!Q49)/(Contigency!Q48+Contigency!Q49+Contigency!Q50+Contigency!Q51)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="I5">
+        <f>(Contigency!R48+Contigency!R49)/(Contigency!R48+Contigency!R49+Contigency!R50+Contigency!R51)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="J5">
+        <f>(Contigency!S48+Contigency!S49)/(Contigency!S48+Contigency!S49+Contigency!S50+Contigency!S51)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K5">
+        <f>(Contigency!V48+Contigency!V49)/(Contigency!V48+Contigency!V49+Contigency!V50+Contigency!V51)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="L5">
+        <f>(Contigency!W48+Contigency!W49)/(Contigency!W48+Contigency!W49+Contigency!W50+Contigency!W51)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="M5">
+        <f>(Contigency!X48+Contigency!X49)/(Contigency!X48+Contigency!X49+Contigency!X50+Contigency!X51)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>2*B3*B4/(B3+B4)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="0">2*C3*C4/(C3+C4)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E6">
+        <f>2*E3*E4/(E3+E4)</f>
+        <v>0.48571428571428565</v>
+      </c>
+      <c r="F6">
+        <f>2*F3*F4/(F3+F4)</f>
+        <v>0.48571428571428565</v>
+      </c>
+      <c r="G6">
+        <f>2*G3*G4/(G3+G4)</f>
+        <v>0.23076923076923075</v>
+      </c>
+      <c r="H6">
+        <f>2*H3*H4/(H3+H4)</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I6">
+        <f>2*I3*I4/(I3+I4)</f>
+        <v>0.13043478260869568</v>
+      </c>
+      <c r="J6">
+        <f>2*J3*J4/(J3+J4)</f>
+        <v>9.5890410958904118E-2</v>
+      </c>
+      <c r="K6">
+        <f>2*K3*K4/(K3+K4)</f>
+        <v>0.11374407582938389</v>
+      </c>
+      <c r="L6">
+        <f>2*L3*L4/(L3+L4)</f>
+        <v>6.4777327935222673E-2</v>
+      </c>
+      <c r="M6">
+        <f>2*M3*M4/(M3+M4)</f>
+        <v>2.8268551236749116E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="mae &amp; peaarson" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="55">
   <si>
     <t>pearson</t>
   </si>
@@ -97,6 +97,96 @@
   <si>
     <t>sum fn</t>
   </si>
+  <si>
+    <t>cosine_similarity</t>
+  </si>
+  <si>
+    <t>answer_1</t>
+  </si>
+  <si>
+    <t>answer_2</t>
+  </si>
+  <si>
+    <t>answer_3</t>
+  </si>
+  <si>
+    <t>answer_4</t>
+  </si>
+  <si>
+    <t>answer_5</t>
+  </si>
+  <si>
+    <t>answer_6</t>
+  </si>
+  <si>
+    <t>answer_7</t>
+  </si>
+  <si>
+    <t>answer_8</t>
+  </si>
+  <si>
+    <t>answer_9</t>
+  </si>
+  <si>
+    <t>answer_10</t>
+  </si>
+  <si>
+    <t>answer_11</t>
+  </si>
+  <si>
+    <t>answer_12</t>
+  </si>
+  <si>
+    <t>answer_13</t>
+  </si>
+  <si>
+    <t>answer_14</t>
+  </si>
+  <si>
+    <t>answer_15</t>
+  </si>
+  <si>
+    <t>answer_16</t>
+  </si>
+  <si>
+    <t>answer_17</t>
+  </si>
+  <si>
+    <t>answer_18</t>
+  </si>
+  <si>
+    <t>answer_19</t>
+  </si>
+  <si>
+    <t>answer_20</t>
+  </si>
+  <si>
+    <t>answer_21</t>
+  </si>
+  <si>
+    <t>answer_22</t>
+  </si>
+  <si>
+    <t>answer_23</t>
+  </si>
+  <si>
+    <t>answer_24</t>
+  </si>
+  <si>
+    <t>answer_25</t>
+  </si>
+  <si>
+    <t>answer_26</t>
+  </si>
+  <si>
+    <t>answer_27</t>
+  </si>
+  <si>
+    <t>answer_28</t>
+  </si>
+  <si>
+    <t>answer_29</t>
+  </si>
 </sst>
 </file>
 
@@ -162,11 +252,2304 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mae &amp; peaarson'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'mae &amp; peaarson'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>tf_idf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>widf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>midf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mae &amp; peaarson'!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0145539219046125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0797503216816564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0542790252189906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mae &amp; peaarson'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pearson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'mae &amp; peaarson'!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>tf_idf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>widf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>midf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mae &amp; peaarson'!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44368813562740628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45822152253047965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74952560700115645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="316726640"/>
+        <c:axId val="316730992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316726640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316730992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316730992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316726640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performa!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>performa!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>performa!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performa!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>performa!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>performa!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18367346938775511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2568807339449546E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9829059829059832E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5934065934065936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.669724770642202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performa!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>performa!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>performa!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>performa!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f_measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>performa!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>performa!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48571428571428565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48571428571428565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13043478260869568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5890410958904118E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11374407582938389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4777327935222673E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8268551236749116E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="316727728"/>
+        <c:axId val="316724464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316727728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316724464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316724464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316727728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="example"/>
       <sheetName val="s_invers"/>
       <sheetName val="u_transpose"/>
       <sheetName val="v"/>
@@ -177,363 +2560,1392 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="A3">
+            <v>-2.8199722151526635E-3</v>
+          </cell>
+          <cell r="B3">
+            <v>-3.9552816477016667E-2</v>
+          </cell>
+          <cell r="C3">
+            <v>-2.9385523908542519E-2</v>
+          </cell>
+          <cell r="D3">
+            <v>-3.0471993043635112E-2</v>
+          </cell>
+          <cell r="E3">
+            <v>-6.2162733459459371E-2</v>
+          </cell>
+          <cell r="F3">
+            <v>-2.1213391406131935E-2</v>
+          </cell>
+          <cell r="G3">
+            <v>-2.6289281144939343E-2</v>
+          </cell>
+          <cell r="H3">
+            <v>-1.656891036044697E-2</v>
+          </cell>
+          <cell r="I3">
+            <v>-2.416398305005454E-2</v>
+          </cell>
+          <cell r="J3">
+            <v>-3.2856386133223232E-2</v>
+          </cell>
+          <cell r="K3">
+            <v>-3.3318650861360517E-3</v>
+          </cell>
+          <cell r="L3">
+            <v>-8.4408497710709712E-3</v>
+          </cell>
+          <cell r="M3">
+            <v>-8.1495390386940314E-3</v>
+          </cell>
+          <cell r="N3">
+            <v>-1.7705493492644601E-2</v>
+          </cell>
+          <cell r="O3">
+            <v>-2.3558870708919103E-2</v>
+          </cell>
+          <cell r="P3">
+            <v>-3.5897035234560337E-2</v>
+          </cell>
+          <cell r="Q3">
+            <v>-6.0054111548148735E-2</v>
+          </cell>
+          <cell r="R3">
+            <v>-8.1495390386940314E-3</v>
+          </cell>
+          <cell r="S3">
+            <v>-6.434837376619657E-3</v>
+          </cell>
+          <cell r="T3">
+            <v>-4.8734547865348157E-3</v>
+          </cell>
+          <cell r="U3">
+            <v>-4.8981282477429326E-2</v>
+          </cell>
+          <cell r="V3">
+            <v>-3.3318650861360517E-3</v>
+          </cell>
+          <cell r="W3">
+            <v>-3.3318650861360517E-3</v>
+          </cell>
+          <cell r="X3">
+            <v>-3.6801611233237365E-2</v>
+          </cell>
+          <cell r="Y3">
+            <v>-1.2167247549291185E-2</v>
+          </cell>
+          <cell r="Z3">
+            <v>-3.3318650861360517E-3</v>
+          </cell>
+          <cell r="AA3">
+            <v>-2.7183806106010653E-2</v>
+          </cell>
+          <cell r="AB3">
+            <v>-2.0265702454363824E-2</v>
+          </cell>
+          <cell r="AC3">
+            <v>-6.3725568405232419E-3</v>
+          </cell>
+          <cell r="AD3">
+            <v>-0.72564374437281298</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>2.2949576524654233E-2</v>
+          </cell>
+          <cell r="B4">
+            <v>0.20150546994702584</v>
+          </cell>
+          <cell r="C4">
+            <v>0.1362184920980532</v>
+          </cell>
+          <cell r="D4">
+            <v>6.116177284114703E-2</v>
+          </cell>
+          <cell r="E4">
+            <v>0.12034056354400254</v>
+          </cell>
+          <cell r="F4">
+            <v>0.46397280254264833</v>
+          </cell>
+          <cell r="G4">
+            <v>2.4217762081822924E-2</v>
+          </cell>
+          <cell r="H4">
+            <v>7.3453921784603832E-2</v>
+          </cell>
+          <cell r="I4">
+            <v>5.5963089939140967E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>2.3093932007907637E-2</v>
+          </cell>
+          <cell r="K4">
+            <v>2.5362260713455816E-2</v>
+          </cell>
+          <cell r="L4">
+            <v>3.6417437114979412E-2</v>
+          </cell>
+          <cell r="M4">
+            <v>3.6510362761074805E-2</v>
+          </cell>
+          <cell r="N4">
+            <v>1.7009014107391102E-2</v>
+          </cell>
+          <cell r="O4">
+            <v>2.2657373993587009E-2</v>
+          </cell>
+          <cell r="P4">
+            <v>2.9894690880015493E-2</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.12162709524618084</v>
+          </cell>
+          <cell r="R4">
+            <v>3.6510362761074805E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>3.4212842744675641E-2</v>
+          </cell>
+          <cell r="T4">
+            <v>1.1402609873555587E-2</v>
+          </cell>
+          <cell r="U4">
+            <v>0.64694632786746931</v>
+          </cell>
+          <cell r="V4">
+            <v>2.5362260713455816E-2</v>
+          </cell>
+          <cell r="W4">
+            <v>2.5362260713455816E-2</v>
+          </cell>
+          <cell r="X4">
+            <v>5.5373353904769038E-2</v>
+          </cell>
+          <cell r="Y4">
+            <v>1.9638883269896774E-2</v>
+          </cell>
+          <cell r="Z4">
+            <v>2.5362260713455816E-2</v>
+          </cell>
+          <cell r="AA4">
+            <v>5.9762383890167588E-2</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.10508338291706301</v>
+          </cell>
+          <cell r="AC4">
+            <v>4.0320969047546569E-2</v>
+          </cell>
+          <cell r="AD4">
+            <v>8.4834313531150698E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>-8.8390715353000499E-2</v>
+          </cell>
+          <cell r="B5">
+            <v>-0.20105730120509682</v>
+          </cell>
+          <cell r="C5">
+            <v>-0.45693077268926818</v>
+          </cell>
+          <cell r="D5">
+            <v>-0.16512368685654522</v>
+          </cell>
+          <cell r="E5">
+            <v>-0.45288702143316273</v>
+          </cell>
+          <cell r="F5">
+            <v>-0.34379622456263376</v>
+          </cell>
+          <cell r="G5">
+            <v>-8.2321407516592546E-2</v>
+          </cell>
+          <cell r="H5">
+            <v>-0.14073081631607673</v>
+          </cell>
+          <cell r="I5">
+            <v>-0.12921426152436444</v>
+          </cell>
+          <cell r="J5">
+            <v>-3.7236613040411773E-2</v>
+          </cell>
+          <cell r="K5">
+            <v>-0.10122189675161022</v>
+          </cell>
+          <cell r="L5">
+            <v>-0.11388377399377761</v>
+          </cell>
+          <cell r="M5">
+            <v>-0.11171251488578282</v>
+          </cell>
+          <cell r="N5">
+            <v>-9.0008467326645164E-2</v>
+          </cell>
+          <cell r="O5">
+            <v>-0.12689971161181132</v>
+          </cell>
+          <cell r="P5">
+            <v>-0.10437638915052137</v>
+          </cell>
+          <cell r="Q5">
+            <v>-0.48170980245546202</v>
+          </cell>
+          <cell r="R5">
+            <v>-0.11171251488578282</v>
+          </cell>
+          <cell r="S5">
+            <v>-5.3592849213109459E-2</v>
+          </cell>
+          <cell r="T5">
+            <v>-1.0864656028949938E-2</v>
+          </cell>
+          <cell r="U5">
+            <v>0.3213415954317298</v>
+          </cell>
+          <cell r="V5">
+            <v>-0.10122189675161022</v>
+          </cell>
+          <cell r="W5">
+            <v>-0.10122189675161022</v>
+          </cell>
+          <cell r="X5">
+            <v>-0.17203317295672149</v>
+          </cell>
+          <cell r="Y5">
+            <v>-6.099003772639202E-2</v>
+          </cell>
+          <cell r="Z5">
+            <v>-0.10122189675161022</v>
+          </cell>
+          <cell r="AA5">
+            <v>-0.19181477371880032</v>
+          </cell>
+          <cell r="AB5">
+            <v>-0.11165218999331807</v>
+          </cell>
+          <cell r="AC5">
+            <v>-1.5857882155627785E-2</v>
+          </cell>
+          <cell r="AD5">
+            <v>-6.8702392843631985E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>2.1480568708874957E-2</v>
+          </cell>
+          <cell r="B6">
+            <v>0.42415397695215362</v>
+          </cell>
+          <cell r="C6">
+            <v>7.8224821697997854E-2</v>
+          </cell>
+          <cell r="D6">
+            <v>3.6320119200954168E-2</v>
+          </cell>
+          <cell r="E6">
+            <v>0.21821425537492592</v>
+          </cell>
+          <cell r="F6">
+            <v>-0.46643491092994516</v>
+          </cell>
+          <cell r="G6">
+            <v>4.2453337694457936E-2</v>
+          </cell>
+          <cell r="H6">
+            <v>0.37683847244041457</v>
+          </cell>
+          <cell r="I6">
+            <v>8.361856027934654E-2</v>
+          </cell>
+          <cell r="J6">
+            <v>3.1479327133542997E-2</v>
+          </cell>
+          <cell r="K6">
+            <v>2.6320605206653323E-2</v>
+          </cell>
+          <cell r="L6">
+            <v>4.2718960814964214E-2</v>
+          </cell>
+          <cell r="M6">
+            <v>3.7539168027577709E-2</v>
+          </cell>
+          <cell r="N6">
+            <v>4.9854259882481759E-2</v>
+          </cell>
+          <cell r="O6">
+            <v>8.2501814765889789E-2</v>
+          </cell>
+          <cell r="P6">
+            <v>8.3446817390011835E-2</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.32623523781254438</v>
+          </cell>
+          <cell r="R6">
+            <v>3.7539168027577709E-2</v>
+          </cell>
+          <cell r="S6">
+            <v>-2.2815942440625004E-2</v>
+          </cell>
+          <cell r="T6">
+            <v>1.1717585981090078E-2</v>
+          </cell>
+          <cell r="U6">
+            <v>0.19889818494798961</v>
+          </cell>
+          <cell r="V6">
+            <v>2.6320605206653323E-2</v>
+          </cell>
+          <cell r="W6">
+            <v>2.6320605206653323E-2</v>
+          </cell>
+          <cell r="X6">
+            <v>0.11124556684128181</v>
+          </cell>
+          <cell r="Y6">
+            <v>5.6405142394732495E-2</v>
+          </cell>
+          <cell r="Z6">
+            <v>2.6320605206653323E-2</v>
+          </cell>
+          <cell r="AA6">
+            <v>0.14697237997979493</v>
+          </cell>
+          <cell r="AB6">
+            <v>-1.8196771220168606E-2</v>
+          </cell>
+          <cell r="AC6">
+            <v>5.8162606353810278E-2</v>
+          </cell>
+          <cell r="AD6">
+            <v>5.8630692875440912E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>-5.3425412477715577E-3</v>
+          </cell>
+          <cell r="B7">
+            <v>2.9708925495207815E-3</v>
+          </cell>
+          <cell r="C7">
+            <v>-1.8777101329477006E-2</v>
+          </cell>
+          <cell r="D7">
+            <v>-1.71398562063255E-3</v>
+          </cell>
+          <cell r="E7">
+            <v>-1.6259735734702036E-2</v>
+          </cell>
+          <cell r="F7">
+            <v>1.0274963253852847E-2</v>
+          </cell>
+          <cell r="G7">
+            <v>2.3446984851381043E-3</v>
+          </cell>
+          <cell r="H7">
+            <v>1.7158781955476245E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>2.1683378499794719E-2</v>
+          </cell>
+          <cell r="J7">
+            <v>0.71588992025220777</v>
+          </cell>
+          <cell r="K7">
+            <v>-6.1672345422975582E-3</v>
+          </cell>
+          <cell r="L7">
+            <v>9.5494068154090123E-4</v>
+          </cell>
+          <cell r="M7">
+            <v>1.1756951949368826E-3</v>
+          </cell>
+          <cell r="N7">
+            <v>4.0928816033027806E-3</v>
+          </cell>
+          <cell r="O7">
+            <v>-7.0199379371797821E-3</v>
+          </cell>
+          <cell r="P7">
+            <v>6.1845883959984603E-2</v>
+          </cell>
+          <cell r="Q7">
+            <v>-3.9904885084564171E-3</v>
+          </cell>
+          <cell r="R7">
+            <v>1.1756951949368826E-3</v>
+          </cell>
+          <cell r="S7">
+            <v>7.967668787526816E-2</v>
+          </cell>
+          <cell r="T7">
+            <v>7.6964217694515764E-3</v>
+          </cell>
+          <cell r="U7">
+            <v>2.1571905632306026E-2</v>
+          </cell>
+          <cell r="V7">
+            <v>-6.1672345422975582E-3</v>
+          </cell>
+          <cell r="W7">
+            <v>-6.1672345422975582E-3</v>
+          </cell>
+          <cell r="X7">
+            <v>-6.1835464846185973E-4</v>
+          </cell>
+          <cell r="Y7">
+            <v>6.0722600696214053E-3</v>
+          </cell>
+          <cell r="Z7">
+            <v>-6.1672345422975582E-3</v>
+          </cell>
+          <cell r="AA7">
+            <v>1.0711610654526194E-2</v>
+          </cell>
+          <cell r="AB7">
+            <v>1.4039496810243664E-2</v>
+          </cell>
+          <cell r="AC7">
+            <v>6.2292871374041298E-3</v>
+          </cell>
+          <cell r="AD7">
+            <v>5.8215701409360301E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>-3.9761188682659412E-4</v>
+          </cell>
+          <cell r="B11">
+            <v>-2.1213208610000311E-2</v>
+          </cell>
+          <cell r="C11">
+            <v>-1.5027788093567912E-2</v>
+          </cell>
+          <cell r="D11">
+            <v>-2.4253741408396687E-2</v>
+          </cell>
+          <cell r="E11">
+            <v>-4.0998509738944484E-2</v>
+          </cell>
+          <cell r="F11">
+            <v>-1.1523153643402048E-2</v>
+          </cell>
+          <cell r="G11">
+            <v>-2.269586605524531E-2</v>
+          </cell>
+          <cell r="H11">
+            <v>-1.1906745984648923E-2</v>
+          </cell>
+          <cell r="I11">
+            <v>-1.5777371520680684E-2</v>
+          </cell>
+          <cell r="J11">
+            <v>-3.9301351171534139E-2</v>
+          </cell>
+          <cell r="K11">
+            <v>-4.8267703841559789E-4</v>
+          </cell>
+          <cell r="L11">
+            <v>-4.4934587706109905E-3</v>
+          </cell>
+          <cell r="M11">
+            <v>-4.308174191351738E-3</v>
+          </cell>
+          <cell r="N11">
+            <v>-1.0202465788570139E-2</v>
+          </cell>
+          <cell r="O11">
+            <v>-1.2827017457065295E-2</v>
+          </cell>
+          <cell r="P11">
+            <v>-2.7958832071933302E-2</v>
+          </cell>
+          <cell r="Q11">
+            <v>-3.3418437031187631E-2</v>
+          </cell>
+          <cell r="R11">
+            <v>-4.308174191351738E-3</v>
+          </cell>
+          <cell r="S11">
+            <v>-4.4218488089923938E-3</v>
+          </cell>
+          <cell r="T11">
+            <v>-3.8555046868669813E-3</v>
+          </cell>
+          <cell r="U11">
+            <v>-4.8377463730503195E-2</v>
+          </cell>
+          <cell r="V11">
+            <v>-4.8267703841559789E-4</v>
+          </cell>
+          <cell r="W11">
+            <v>-4.8267703841559789E-4</v>
+          </cell>
+          <cell r="X11">
+            <v>-2.0907747019446723E-2</v>
+          </cell>
+          <cell r="Y11">
+            <v>-6.9097160431890008E-3</v>
+          </cell>
+          <cell r="Z11">
+            <v>-4.8267703841559789E-4</v>
+          </cell>
+          <cell r="AA11">
+            <v>-1.5325488011291176E-2</v>
+          </cell>
+          <cell r="AB11">
+            <v>-1.2528535830781576E-2</v>
+          </cell>
+          <cell r="AC11">
+            <v>-4.3133171904404782E-3</v>
+          </cell>
+          <cell r="AD11">
+            <v>-1.2046628194876723</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>9.477534534504152E-3</v>
+          </cell>
+          <cell r="B12">
+            <v>0.25879533426568641</v>
+          </cell>
+          <cell r="C12">
+            <v>0.10116460141390674</v>
+          </cell>
+          <cell r="D12">
+            <v>5.0580239999669874E-2</v>
+          </cell>
+          <cell r="E12">
+            <v>7.753631975587727E-2</v>
+          </cell>
+          <cell r="F12">
+            <v>0.78943009204029901</v>
+          </cell>
+          <cell r="G12">
+            <v>1.4509024106715519E-2</v>
+          </cell>
+          <cell r="H12">
+            <v>7.6752714490910756E-2</v>
+          </cell>
+          <cell r="I12">
+            <v>4.0873711048464378E-2</v>
+          </cell>
+          <cell r="J12">
+            <v>2.2591942739719317E-2</v>
+          </cell>
+          <cell r="K12">
+            <v>9.9706030305815249E-3</v>
+          </cell>
+          <cell r="L12">
+            <v>2.1189907044020153E-2</v>
+          </cell>
+          <cell r="M12">
+            <v>2.0615839246428586E-2</v>
+          </cell>
+          <cell r="N12">
+            <v>9.1322182984464734E-3</v>
+          </cell>
+          <cell r="O12">
+            <v>6.8522425345614816E-3</v>
+          </cell>
+          <cell r="P12">
+            <v>1.7631833728119505E-2</v>
+          </cell>
+          <cell r="Q12">
+            <v>9.551361486559358E-2</v>
+          </cell>
+          <cell r="R12">
+            <v>2.0615839246428586E-2</v>
+          </cell>
+          <cell r="S12">
+            <v>4.8065876247733924E-2</v>
+          </cell>
+          <cell r="T12">
+            <v>1.0898001611417449E-2</v>
+          </cell>
+          <cell r="U12">
+            <v>1.2238322758756603</v>
+          </cell>
+          <cell r="V12">
+            <v>9.9706030305815249E-3</v>
+          </cell>
+          <cell r="W12">
+            <v>9.9706030305815249E-3</v>
+          </cell>
+          <cell r="X12">
+            <v>3.6298926076511182E-2</v>
+          </cell>
+          <cell r="Y12">
+            <v>1.2760305073636104E-2</v>
+          </cell>
+          <cell r="Z12">
+            <v>9.9706030305815249E-3</v>
+          </cell>
+          <cell r="AA12">
+            <v>4.0747033967991321E-2</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.14502523444773643</v>
+          </cell>
+          <cell r="AC12">
+            <v>4.7590444394385568E-2</v>
+          </cell>
+          <cell r="AD12">
+            <v>2.9622559179163562E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>2.4015843317556552E-2</v>
+          </cell>
+          <cell r="B13">
+            <v>4.1411671975829303E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>0.20585332201408485</v>
+          </cell>
+          <cell r="D13">
+            <v>7.0683401345740388E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>0.32023120034367847</v>
+          </cell>
+          <cell r="F13">
+            <v>0.48682221314018015</v>
+          </cell>
+          <cell r="G13">
+            <v>3.6872057182406701E-2</v>
+          </cell>
+          <cell r="H13">
+            <v>5.0940282221721783E-2</v>
+          </cell>
+          <cell r="I13">
+            <v>7.6529313694109383E-2</v>
+          </cell>
+          <cell r="J13">
+            <v>3.9342762917778093E-2</v>
+          </cell>
+          <cell r="K13">
+            <v>2.6333110346957494E-2</v>
+          </cell>
+          <cell r="L13">
+            <v>4.289546459892507E-2</v>
+          </cell>
+          <cell r="M13">
+            <v>3.5779863431742429E-2</v>
+          </cell>
+          <cell r="N13">
+            <v>5.1669197595273879E-2</v>
+          </cell>
+          <cell r="O13">
+            <v>8.8341938939206985E-2</v>
+          </cell>
+          <cell r="P13">
+            <v>5.4584107370678189E-2</v>
+          </cell>
+          <cell r="Q13">
+            <v>1.1153984846031322</v>
+          </cell>
+          <cell r="R13">
+            <v>3.5779863431742429E-2</v>
+          </cell>
+          <cell r="S13">
+            <v>4.8716827252548708E-2</v>
+          </cell>
+          <cell r="T13">
+            <v>9.7722588209289748E-3</v>
+          </cell>
+          <cell r="U13">
+            <v>-0.29119852196517593</v>
+          </cell>
+          <cell r="V13">
+            <v>2.6333110346957494E-2</v>
+          </cell>
+          <cell r="W13">
+            <v>2.6333110346957494E-2</v>
+          </cell>
+          <cell r="X13">
+            <v>9.9012874705923806E-2</v>
+          </cell>
+          <cell r="Y13">
+            <v>3.1957283550476258E-2</v>
+          </cell>
+          <cell r="Z13">
+            <v>2.6333110346957494E-2</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.14435709352560336</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.10015108358103182</v>
+          </cell>
+          <cell r="AC13">
+            <v>2.656665104426496E-2</v>
+          </cell>
+          <cell r="AD13">
+            <v>7.0983385074074937E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>-6.2978453981248229E-3</v>
+          </cell>
+          <cell r="B14">
+            <v>0.1767216018742287</v>
+          </cell>
+          <cell r="C14">
+            <v>-9.3436255936692775E-2</v>
+          </cell>
+          <cell r="D14">
+            <v>-4.758212625841747E-2</v>
+          </cell>
+          <cell r="E14">
+            <v>4.2850632817649531E-2</v>
+          </cell>
+          <cell r="F14">
+            <v>-0.95805068878777144</v>
+          </cell>
+          <cell r="G14">
+            <v>8.9438431716931423E-3</v>
+          </cell>
+          <cell r="H14">
+            <v>8.5617294875593067E-2</v>
+          </cell>
+          <cell r="I14">
+            <v>2.2792767142666138E-2</v>
+          </cell>
+          <cell r="J14">
+            <v>-2.390162969321865E-2</v>
+          </cell>
+          <cell r="K14">
+            <v>-6.355563287422674E-3</v>
+          </cell>
+          <cell r="L14">
+            <v>-4.6070128879742694E-4</v>
+          </cell>
+          <cell r="M14">
+            <v>-2.8375364815907142E-3</v>
+          </cell>
+          <cell r="N14">
+            <v>7.3014356626056685E-3</v>
+          </cell>
+          <cell r="O14">
+            <v>3.9138413986986371E-2</v>
+          </cell>
+          <cell r="P14">
+            <v>1.6955028829503251E-2</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.51001271690507988</v>
+          </cell>
+          <cell r="R14">
+            <v>-2.8375364815907142E-3</v>
+          </cell>
+          <cell r="S14">
+            <v>-7.3112137790862536E-2</v>
+          </cell>
+          <cell r="T14">
+            <v>3.6463517119487915E-3</v>
+          </cell>
+          <cell r="U14">
+            <v>0.54042733188945569</v>
+          </cell>
+          <cell r="V14">
+            <v>-6.355563287422674E-3</v>
+          </cell>
+          <cell r="W14">
+            <v>-6.355563287422674E-3</v>
+          </cell>
+          <cell r="X14">
+            <v>1.6873463788727349E-2</v>
+          </cell>
+          <cell r="Y14">
+            <v>1.4272623059058995E-2</v>
+          </cell>
+          <cell r="Z14">
+            <v>-6.355563287422674E-3</v>
+          </cell>
+          <cell r="AA14">
+            <v>5.5641787526625401E-2</v>
+          </cell>
+          <cell r="AB14">
+            <v>-0.14103512732479986</v>
+          </cell>
+          <cell r="AC14">
+            <v>4.4487853217333985E-2</v>
+          </cell>
+          <cell r="AD14">
+            <v>2.8708548113637447E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>4.3117098788274033E-4</v>
+          </cell>
+          <cell r="B15">
+            <v>-2.3415018080322106E-2</v>
+          </cell>
+          <cell r="C15">
+            <v>-3.3740393905944141E-3</v>
+          </cell>
+          <cell r="D15">
+            <v>-3.3122628663402945E-3</v>
+          </cell>
+          <cell r="E15">
+            <v>-2.476627427607906E-3</v>
+          </cell>
+          <cell r="F15">
+            <v>2.2928747598050893E-2</v>
+          </cell>
+          <cell r="G15">
+            <v>-5.485307619883569E-3</v>
+          </cell>
+          <cell r="H15">
+            <v>-4.0507463974188619E-2</v>
+          </cell>
+          <cell r="I15">
+            <v>-2.1145266327937371E-2</v>
+          </cell>
+          <cell r="J15">
+            <v>-1.1873648656348312</v>
+          </cell>
+          <cell r="K15">
+            <v>4.6418729836318531E-4</v>
+          </cell>
+          <cell r="L15">
+            <v>-5.8215731772408427E-3</v>
+          </cell>
+          <cell r="M15">
+            <v>-5.90439396174225E-3</v>
+          </cell>
+          <cell r="N15">
+            <v>-2.7995295972892483E-3</v>
+          </cell>
+          <cell r="O15">
+            <v>6.6371731285818356E-4</v>
+          </cell>
+          <cell r="P15">
+            <v>-5.823030126488573E-2</v>
+          </cell>
+          <cell r="Q15">
+            <v>-1.0553393116826373E-2</v>
+          </cell>
+          <cell r="R15">
+            <v>-5.90439396174225E-3</v>
+          </cell>
+          <cell r="S15">
+            <v>-6.5844967547030828E-2</v>
+          </cell>
+          <cell r="T15">
+            <v>-6.6176104277557617E-3</v>
+          </cell>
+          <cell r="U15">
+            <v>-3.2450583880545225E-2</v>
+          </cell>
+          <cell r="V15">
+            <v>4.6418729836318531E-4</v>
+          </cell>
+          <cell r="W15">
+            <v>4.6418729836318531E-4</v>
+          </cell>
+          <cell r="X15">
+            <v>-5.2498569754179459E-3</v>
+          </cell>
+          <cell r="Y15">
+            <v>-6.4737198375062711E-3</v>
+          </cell>
+          <cell r="Z15">
+            <v>4.6418729836318531E-4</v>
+          </cell>
+          <cell r="AA15">
+            <v>-1.4277252859335718E-2</v>
+          </cell>
+          <cell r="AB15">
+            <v>-7.9082710733352126E-3</v>
+          </cell>
+          <cell r="AC15">
+            <v>-7.3098860325603119E-3</v>
+          </cell>
+          <cell r="AD15">
+            <v>-2.0506979945786236E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>0.15447154610397118</v>
+          </cell>
+          <cell r="B19">
+            <v>0.30507814304849612</v>
+          </cell>
+          <cell r="C19">
+            <v>0.2985243442915857</v>
+          </cell>
+          <cell r="D19">
+            <v>0.28541264164337982</v>
+          </cell>
+          <cell r="E19">
+            <v>0.41113520741642195</v>
+          </cell>
+          <cell r="F19">
+            <v>0.23986776449540409</v>
+          </cell>
+          <cell r="G19">
+            <v>0.10316969877400115</v>
+          </cell>
+          <cell r="H19">
+            <v>0.19819694152355272</v>
+          </cell>
+          <cell r="I19">
+            <v>0.24604546740703537</v>
+          </cell>
+          <cell r="J19">
+            <v>0.12945967823468341</v>
+          </cell>
+          <cell r="K19">
+            <v>0.18089926532340525</v>
+          </cell>
+          <cell r="L19">
+            <v>0.21811260304428498</v>
+          </cell>
+          <cell r="M19">
+            <v>0.23656559159680854</v>
+          </cell>
+          <cell r="N19">
+            <v>6.1659643440774632E-2</v>
+          </cell>
+          <cell r="O19">
+            <v>0.11673002545170251</v>
+          </cell>
+          <cell r="P19">
+            <v>0.13702283298075085</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.42254356612060734</v>
+          </cell>
+          <cell r="R19">
+            <v>0.23656559159680854</v>
+          </cell>
+          <cell r="S19">
+            <v>7.1002253792829387E-2</v>
+          </cell>
+          <cell r="T19">
+            <v>5.8078011337095579E-2</v>
+          </cell>
+          <cell r="U19">
+            <v>0.23496077848925481</v>
+          </cell>
+          <cell r="V19">
+            <v>0.18089926532340525</v>
+          </cell>
+          <cell r="W19">
+            <v>0.18089926532340525</v>
+          </cell>
+          <cell r="X19">
+            <v>0.18538233836702495</v>
+          </cell>
+          <cell r="Y19">
+            <v>9.0325373930207606E-2</v>
+          </cell>
+          <cell r="Z19">
+            <v>0.18089926532340525</v>
+          </cell>
+          <cell r="AA19">
+            <v>0.208492294889877</v>
+          </cell>
+          <cell r="AB19">
+            <v>0.20082677769689775</v>
+          </cell>
+          <cell r="AC19">
+            <v>7.2508889469337381E-2</v>
+          </cell>
+          <cell r="AD19">
+            <v>0.36737308568533056</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>0.22145038198960809</v>
+          </cell>
+          <cell r="B20">
+            <v>-0.2529446709099385</v>
+          </cell>
+          <cell r="C20">
+            <v>7.321185911833053E-2</v>
+          </cell>
+          <cell r="D20">
+            <v>0.18431344929719345</v>
+          </cell>
+          <cell r="E20">
+            <v>5.8102234464326594E-2</v>
+          </cell>
+          <cell r="F20">
+            <v>-0.16191148786389048</v>
+          </cell>
+          <cell r="G20">
+            <v>-0.10465545070468513</v>
+          </cell>
+          <cell r="H20">
+            <v>-0.23268831621127103</v>
+          </cell>
+          <cell r="I20">
+            <v>-0.18526305127909706</v>
+          </cell>
+          <cell r="J20">
+            <v>-0.16522700769270987</v>
+          </cell>
+          <cell r="K20">
+            <v>0.26882147806000423</v>
+          </cell>
+          <cell r="L20">
+            <v>0.17518871761385257</v>
+          </cell>
+          <cell r="M20">
+            <v>0.20771654720797986</v>
+          </cell>
+          <cell r="N20">
+            <v>-7.0880254325438499E-2</v>
+          </cell>
+          <cell r="O20">
+            <v>-6.0767818652432692E-2</v>
+          </cell>
+          <cell r="P20">
+            <v>-0.1497734725319548</v>
+          </cell>
+          <cell r="Q20">
+            <v>-0.3780581936262557</v>
+          </cell>
+          <cell r="R20">
+            <v>0.20771654720797986</v>
+          </cell>
+          <cell r="S20">
+            <v>-8.8182701875296879E-2</v>
+          </cell>
+          <cell r="T20">
+            <v>-6.5936516566802605E-2</v>
+          </cell>
+          <cell r="U20">
+            <v>-0.32348304994166954</v>
+          </cell>
+          <cell r="V20">
+            <v>0.26882147806000423</v>
+          </cell>
+          <cell r="W20">
+            <v>0.26882147806000423</v>
+          </cell>
+          <cell r="X20">
+            <v>-0.18842180224739166</v>
+          </cell>
+          <cell r="Y20">
+            <v>-0.10487421106187683</v>
+          </cell>
+          <cell r="Z20">
+            <v>0.26882147806000423</v>
+          </cell>
+          <cell r="AA20">
+            <v>-0.21300242507275688</v>
+          </cell>
+          <cell r="AB20">
+            <v>-0.12537719396053879</v>
+          </cell>
+          <cell r="AC20">
+            <v>-8.8181442950557437E-2</v>
+          </cell>
+          <cell r="AD20">
+            <v>-0.5419189136731738</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>-5.367008616617687E-3</v>
+          </cell>
+          <cell r="B21">
+            <v>0.20363571242562106</v>
+          </cell>
+          <cell r="C21">
+            <v>-5.0449367025520837E-2</v>
+          </cell>
+          <cell r="D21">
+            <v>1.610028349117457E-2</v>
+          </cell>
+          <cell r="E21">
+            <v>-0.14246095807393752</v>
+          </cell>
+          <cell r="F21">
+            <v>0.56786517766246236</v>
+          </cell>
+          <cell r="G21">
+            <v>-2.7044985245535794E-2</v>
+          </cell>
+          <cell r="H21">
+            <v>0.23460892732631852</v>
+          </cell>
+          <cell r="I21">
+            <v>0.11904251749543772</v>
+          </cell>
+          <cell r="J21">
+            <v>9.870710825010412E-2</v>
+          </cell>
+          <cell r="K21">
+            <v>-1.0680955806593354E-2</v>
+          </cell>
+          <cell r="L21">
+            <v>3.6501828003914417E-2</v>
+          </cell>
+          <cell r="M21">
+            <v>3.626398241043241E-2</v>
+          </cell>
+          <cell r="N21">
+            <v>-0.11223516949896793</v>
+          </cell>
+          <cell r="O21">
+            <v>-0.15093969436482274</v>
+          </cell>
+          <cell r="P21">
+            <v>-5.8618893078524442E-2</v>
+          </cell>
+          <cell r="Q21">
+            <v>-9.5867470737064669E-2</v>
+          </cell>
+          <cell r="R21">
+            <v>3.626398241043241E-2</v>
+          </cell>
+          <cell r="S21">
+            <v>8.7629966808731155E-2</v>
+          </cell>
+          <cell r="T21">
+            <v>5.4084193923062504E-2</v>
+          </cell>
+          <cell r="U21">
+            <v>0.63189702284015226</v>
+          </cell>
+          <cell r="V21">
+            <v>-1.0680955806593354E-2</v>
+          </cell>
+          <cell r="W21">
+            <v>-1.0680955806593354E-2</v>
+          </cell>
+          <cell r="X21">
+            <v>-0.10132117234999527</v>
+          </cell>
+          <cell r="Y21">
+            <v>-1.4663103085172085E-3</v>
+          </cell>
+          <cell r="Z21">
+            <v>-1.0680955806593354E-2</v>
+          </cell>
+          <cell r="AA21">
+            <v>1.9234856009942135E-2</v>
+          </cell>
+          <cell r="AB21">
+            <v>0.18758031433280944</v>
+          </cell>
+          <cell r="AC21">
+            <v>8.0865726741995575E-2</v>
+          </cell>
+          <cell r="AD21">
+            <v>-0.56242967399759758</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>5.3575430706321189E-2</v>
+          </cell>
+          <cell r="B22">
+            <v>-0.15376073840605986</v>
+          </cell>
+          <cell r="C22">
+            <v>-0.14269604584317694</v>
+          </cell>
+          <cell r="D22">
+            <v>0.11458033993728493</v>
+          </cell>
+          <cell r="E22">
+            <v>-0.21879771042832916</v>
+          </cell>
+          <cell r="F22">
+            <v>0.10751495516619707</v>
+          </cell>
+          <cell r="G22">
+            <v>-3.5810374854550721E-2</v>
+          </cell>
+          <cell r="H22">
+            <v>8.6888134630679348E-2</v>
+          </cell>
+          <cell r="I22">
+            <v>2.1823432106858172E-2</v>
+          </cell>
+          <cell r="J22">
+            <v>0.12607207639645082</v>
+          </cell>
+          <cell r="K22">
+            <v>7.3594806074894784E-2</v>
+          </cell>
+          <cell r="L22">
+            <v>8.1801823330410223E-2</v>
+          </cell>
+          <cell r="M22">
+            <v>9.9653604478078237E-2</v>
+          </cell>
+          <cell r="N22">
+            <v>-0.15690248698890166</v>
+          </cell>
+          <cell r="O22">
+            <v>-0.21497036015523865</v>
+          </cell>
+          <cell r="P22">
+            <v>-8.7974269487271425E-2</v>
+          </cell>
+          <cell r="Q22">
+            <v>-0.53318805077168396</v>
+          </cell>
+          <cell r="R22">
+            <v>9.9653604478078237E-2</v>
+          </cell>
+          <cell r="S22">
+            <v>2.1944767726055116E-2</v>
+          </cell>
+          <cell r="T22">
+            <v>3.050080485385092E-2</v>
+          </cell>
+          <cell r="U22">
+            <v>0.32987169591681903</v>
+          </cell>
+          <cell r="V22">
+            <v>7.3594806074894784E-2</v>
+          </cell>
+          <cell r="W22">
+            <v>7.3594806074894784E-2</v>
+          </cell>
+          <cell r="X22">
+            <v>-0.23923030352178443</v>
+          </cell>
+          <cell r="Y22">
+            <v>-6.8916075390105261E-2</v>
+          </cell>
+          <cell r="Z22">
+            <v>7.3594806074894784E-2</v>
+          </cell>
+          <cell r="AA22">
+            <v>-0.16290086719087157</v>
+          </cell>
+          <cell r="AB22">
+            <v>7.6761972847345261E-2</v>
+          </cell>
+          <cell r="AC22">
+            <v>5.5024767115795454E-5</v>
+          </cell>
+          <cell r="AD22">
+            <v>0.72037251152421233</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>3.0406337056120343E-2</v>
+          </cell>
+          <cell r="B23">
+            <v>0.2570530950568275</v>
+          </cell>
+          <cell r="C23">
+            <v>0.18735908677103386</v>
+          </cell>
+          <cell r="D23">
+            <v>4.4868243978806198E-2</v>
+          </cell>
+          <cell r="E23">
+            <v>-0.29253092686676879</v>
+          </cell>
+          <cell r="F23">
+            <v>-0.63756722286951406</v>
+          </cell>
+          <cell r="G23">
+            <v>8.1309623908131831E-2</v>
+          </cell>
+          <cell r="H23">
+            <v>0.58539689230004022</v>
+          </cell>
+          <cell r="I23">
+            <v>0.31147489805951223</v>
+          </cell>
+          <cell r="J23">
+            <v>0.27138865036642945</v>
+          </cell>
+          <cell r="K23">
+            <v>2.7968526260100789E-2</v>
+          </cell>
+          <cell r="L23">
+            <v>3.2850706952450223E-2</v>
+          </cell>
+          <cell r="M23">
+            <v>9.4169642886988841E-2</v>
+          </cell>
+          <cell r="N23">
+            <v>-4.2853433375732594E-2</v>
+          </cell>
+          <cell r="O23">
+            <v>3.2644906437754445E-3</v>
+          </cell>
+          <cell r="P23">
+            <v>4.0239190907432762E-2</v>
+          </cell>
+          <cell r="Q23">
+            <v>-1.2100189901987482E-2</v>
+          </cell>
+          <cell r="R23">
+            <v>9.4169642886988841E-2</v>
+          </cell>
+          <cell r="S23">
+            <v>9.3366992415864727E-2</v>
+          </cell>
+          <cell r="T23">
+            <v>8.4531938739643833E-2</v>
+          </cell>
+          <cell r="U23">
+            <v>0.15000101991620943</v>
+          </cell>
+          <cell r="V23">
+            <v>2.7968526260100789E-2</v>
+          </cell>
+          <cell r="W23">
+            <v>2.7968526260100789E-2</v>
+          </cell>
+          <cell r="X23">
+            <v>-5.7995436991204886E-2</v>
+          </cell>
+          <cell r="Y23">
+            <v>6.5563976531186202E-2</v>
+          </cell>
+          <cell r="Z23">
+            <v>2.7968526260100789E-2</v>
+          </cell>
+          <cell r="AA23">
+            <v>0.18237685787221064</v>
+          </cell>
+          <cell r="AB23">
+            <v>6.0266839271641615E-2</v>
+          </cell>
+          <cell r="AC23">
+            <v>0.12395863824758767</v>
+          </cell>
+          <cell r="AD23">
+            <v>-9.1708793591999418E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
         <row r="2">
           <cell r="B2">
             <v>3.2806431680969226</v>
-          </cell>
-          <cell r="C2">
-            <v>4.9821467332530727</v>
-          </cell>
-          <cell r="D2">
-            <v>4.9213903025900327</v>
-          </cell>
-          <cell r="E2">
-            <v>4.8747891858297727</v>
-          </cell>
-          <cell r="F2">
-            <v>2.2216174091310918</v>
-          </cell>
-          <cell r="G2">
-            <v>4.7161184738576782</v>
-          </cell>
-          <cell r="H2">
-            <v>2.8793771565571009</v>
-          </cell>
-          <cell r="I2">
-            <v>4.604634418742843</v>
-          </cell>
-          <cell r="J2">
-            <v>5.6655797148043169E-2</v>
-          </cell>
-          <cell r="K2">
-            <v>4.999185059753108</v>
-          </cell>
-          <cell r="L2">
-            <v>4.9480657659901013</v>
-          </cell>
-          <cell r="M2">
-            <v>4.9617522459800876</v>
-          </cell>
-          <cell r="N2">
-            <v>4.7454997118671285</v>
-          </cell>
-          <cell r="O2">
-            <v>4.6708709540347506</v>
-          </cell>
-          <cell r="P2">
-            <v>3.9508205097601667</v>
-          </cell>
-          <cell r="Q2">
-            <v>4.6801804265628695</v>
-          </cell>
-          <cell r="R2">
-            <v>4.9617522459800876</v>
-          </cell>
-          <cell r="S2">
-            <v>2.3502617744032279</v>
-          </cell>
-          <cell r="T2">
-            <v>3.5546161221051302</v>
-          </cell>
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-          <cell r="V2">
-            <v>4.999185059753108</v>
-          </cell>
-          <cell r="W2">
-            <v>4.999185059753108</v>
-          </cell>
-          <cell r="X2">
-            <v>4.6852655542948227</v>
-          </cell>
-          <cell r="Y2">
-            <v>4.341047142087552</v>
-          </cell>
-          <cell r="Z2">
-            <v>4.999185059753108</v>
-          </cell>
-          <cell r="AA2">
-            <v>4.5630090523650848</v>
-          </cell>
-          <cell r="AB2">
-            <v>4.0383751160546257</v>
-          </cell>
-          <cell r="AC2">
-            <v>2.5920059893506164</v>
-          </cell>
-          <cell r="AD2">
-            <v>0.69396536279133736</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1.3811784768854027</v>
-          </cell>
-          <cell r="C3">
-            <v>4.9236559643309024</v>
-          </cell>
-          <cell r="D3">
-            <v>4.5791607018772158</v>
-          </cell>
-          <cell r="E3">
-            <v>4.5907396576358153</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5571500249357211</v>
-          </cell>
-          <cell r="G3">
-            <v>3.9076527645132932</v>
-          </cell>
-          <cell r="H3">
-            <v>1.9834420694904096</v>
-          </cell>
-          <cell r="I3">
-            <v>4.1820787058564228</v>
-          </cell>
-          <cell r="J3">
-            <v>0.12862865023127967</v>
-          </cell>
-          <cell r="K3">
-            <v>4.9987886717787831</v>
-          </cell>
-          <cell r="L3">
-            <v>4.7917567532744973</v>
-          </cell>
-          <cell r="M3">
-            <v>4.7960415856736542</v>
-          </cell>
-          <cell r="N3">
-            <v>4.4718073027132652</v>
-          </cell>
-          <cell r="O3">
-            <v>3.7449688992445713</v>
-          </cell>
-          <cell r="P3">
-            <v>2.8998675078776524</v>
-          </cell>
-          <cell r="Q3">
-            <v>3.7429594840015219</v>
-          </cell>
-          <cell r="R3">
-            <v>4.7960415856736542</v>
-          </cell>
-          <cell r="S3">
-            <v>3.229768634644159</v>
-          </cell>
-          <cell r="T3">
-            <v>3.4877056327033773</v>
-          </cell>
-          <cell r="U3">
-            <v>0.16570419175839682</v>
-          </cell>
-          <cell r="V3">
-            <v>4.9987886717787831</v>
-          </cell>
-          <cell r="W3">
-            <v>4.9987886717787831</v>
-          </cell>
-          <cell r="X3">
-            <v>4.5261674700654542</v>
-          </cell>
-          <cell r="Y3">
-            <v>3.9074777665631717</v>
-          </cell>
-          <cell r="Z3">
-            <v>4.9987886717787831</v>
-          </cell>
-          <cell r="AA3">
-            <v>4.0831944426041398</v>
-          </cell>
-          <cell r="AB3">
-            <v>3.8827051254293177</v>
-          </cell>
-          <cell r="AC3">
-            <v>2.1432251472769512</v>
-          </cell>
-          <cell r="AD3">
-            <v>0.3543221867101175</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0</v>
-          </cell>
-          <cell r="C4">
-            <v>2.8035400363100029</v>
-          </cell>
-          <cell r="D4">
-            <v>4.6072563414918752</v>
-          </cell>
-          <cell r="E4">
-            <v>1.7865594544448817</v>
-          </cell>
-          <cell r="F4">
-            <v>0</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>7.2227178389974202E-3</v>
-          </cell>
-          <cell r="I4">
-            <v>0.27731076002566796</v>
-          </cell>
-          <cell r="J4">
-            <v>0</v>
-          </cell>
-          <cell r="K4">
-            <v>4.9953769821843199</v>
-          </cell>
-          <cell r="L4">
-            <v>4.7434891969761788</v>
-          </cell>
-          <cell r="M4">
-            <v>4.733744626056823</v>
-          </cell>
-          <cell r="N4">
-            <v>0</v>
-          </cell>
-          <cell r="O4">
-            <v>0</v>
-          </cell>
-          <cell r="P4">
-            <v>0</v>
-          </cell>
-          <cell r="Q4">
-            <v>0</v>
-          </cell>
-          <cell r="R4">
-            <v>4.733744626056823</v>
-          </cell>
-          <cell r="S4">
-            <v>0</v>
-          </cell>
-          <cell r="T4">
-            <v>0</v>
-          </cell>
-          <cell r="U4">
-            <v>0</v>
-          </cell>
-          <cell r="V4">
-            <v>4.9953769821843199</v>
-          </cell>
-          <cell r="W4">
-            <v>4.9953769821843199</v>
-          </cell>
-          <cell r="X4">
-            <v>0</v>
-          </cell>
-          <cell r="Y4">
-            <v>0</v>
-          </cell>
-          <cell r="Z4">
-            <v>4.9953769821843199</v>
-          </cell>
-          <cell r="AA4">
-            <v>0</v>
-          </cell>
-          <cell r="AB4">
-            <v>0.46604526369449539</v>
-          </cell>
-          <cell r="AC4">
-            <v>0</v>
-          </cell>
-          <cell r="AD4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3.5</v>
-          </cell>
-          <cell r="C6">
-            <v>5</v>
-          </cell>
-          <cell r="D6">
-            <v>4</v>
-          </cell>
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>3</v>
-          </cell>
-          <cell r="G6">
-            <v>2</v>
-          </cell>
-          <cell r="H6">
-            <v>2.5</v>
-          </cell>
-          <cell r="I6">
-            <v>5</v>
-          </cell>
-          <cell r="J6">
-            <v>3.5</v>
-          </cell>
-          <cell r="K6">
-            <v>5</v>
-          </cell>
-          <cell r="L6">
-            <v>5</v>
-          </cell>
-          <cell r="M6">
-            <v>5</v>
-          </cell>
-          <cell r="N6">
-            <v>2</v>
-          </cell>
-          <cell r="O6">
-            <v>4.5</v>
-          </cell>
-          <cell r="P6">
-            <v>2</v>
-          </cell>
-          <cell r="Q6">
-            <v>4.5</v>
-          </cell>
-          <cell r="R6">
-            <v>5</v>
-          </cell>
-          <cell r="S6">
-            <v>2</v>
-          </cell>
-          <cell r="T6">
-            <v>2</v>
-          </cell>
-          <cell r="U6">
-            <v>2.5</v>
-          </cell>
-          <cell r="V6">
-            <v>5</v>
-          </cell>
-          <cell r="W6">
-            <v>5</v>
-          </cell>
-          <cell r="X6">
-            <v>1.5</v>
-          </cell>
-          <cell r="Y6">
-            <v>2.5</v>
-          </cell>
-          <cell r="Z6">
-            <v>5</v>
-          </cell>
-          <cell r="AA6">
-            <v>2</v>
-          </cell>
-          <cell r="AB6">
-            <v>3</v>
-          </cell>
-          <cell r="AC6">
-            <v>3</v>
-          </cell>
-          <cell r="AD6">
-            <v>2.5</v>
           </cell>
         </row>
       </sheetData>
@@ -829,17 +4241,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -847,120 +4346,120 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>ABS([1]score!B$6-[1]score!B2)</f>
-        <v>0.21935683190307742</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!B3:B7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!B3:B7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!B3:B7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!B3:B7)))*5,0)</f>
+        <v>3.2806431680969226</v>
       </c>
       <c r="C2">
-        <f>ABS([1]score!C$6-[1]score!C2)</f>
-        <v>1.7853266746927332E-2</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!C3:C7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!C3:C7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!C3:C7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!C3:C7)))*5,0)</f>
+        <v>4.9821467332530727</v>
       </c>
       <c r="D2">
-        <f>ABS([1]score!D$6-[1]score!D2)</f>
-        <v>0.92139030259003274</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!D3:D7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!D3:D7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!D3:D7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!D3:D7)))*5,0)</f>
+        <v>4.9213903025900327</v>
       </c>
       <c r="E2">
-        <f>ABS([1]score!E$6-[1]score!E2)</f>
-        <v>0.12521081417022728</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!E3:E7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!E3:E7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!E3:E7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!E3:E7)))*5,0)</f>
+        <v>4.8747891858297727</v>
       </c>
       <c r="F2">
-        <f>ABS([1]score!F$6-[1]score!F2)</f>
-        <v>0.77838259086890815</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!F3:F7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!F3:F7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!F3:F7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!F3:F7)))*5,0)</f>
+        <v>2.2216174091310918</v>
       </c>
       <c r="G2">
-        <f>ABS([1]score!G$6-[1]score!G2)</f>
-        <v>2.7161184738576782</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!G3:G7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!G3:G7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!G3:G7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!G3:G7)))*5,0)</f>
+        <v>4.7161184738576782</v>
       </c>
       <c r="H2">
-        <f>ABS([1]score!H$6-[1]score!H2)</f>
-        <v>0.37937715655710091</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!H3:H7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!H3:H7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!H3:H7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!H3:H7)))*5,0)</f>
+        <v>2.8793771565571009</v>
       </c>
       <c r="I2">
-        <f>ABS([1]score!I$6-[1]score!I2)</f>
-        <v>0.39536558125715704</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!I3:I7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!I3:I7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!I3:I7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!I3:I7)))*5,0)</f>
+        <v>4.604634418742843</v>
       </c>
       <c r="J2">
-        <f>ABS([1]score!J$6-[1]score!J2)</f>
-        <v>3.4433442028519567</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!J3:J7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!J3:J7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!J3:J7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!J3:J7)))*5,0)</f>
+        <v>5.6655797148043169E-2</v>
       </c>
       <c r="K2">
-        <f>ABS([1]score!K$6-[1]score!K2)</f>
-        <v>8.1494024689199307E-4</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!K3:K7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!K3:K7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!K3:K7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!K3:K7)))*5,0)</f>
+        <v>4.999185059753108</v>
       </c>
       <c r="L2">
-        <f>ABS([1]score!L$6-[1]score!L2)</f>
-        <v>5.1934234009898717E-2</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!L3:L7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!L3:L7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!L3:L7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!L3:L7)))*5,0)</f>
+        <v>4.9480657659901013</v>
       </c>
       <c r="M2">
-        <f>ABS([1]score!M$6-[1]score!M2)</f>
-        <v>3.8247754019912428E-2</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!M3:M7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!M3:M7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!M3:M7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!M3:M7)))*5,0)</f>
+        <v>4.9617522459800876</v>
       </c>
       <c r="N2">
-        <f>ABS([1]score!N$6-[1]score!N2)</f>
-        <v>2.7454997118671285</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!N3:N7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!N3:N7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!N3:N7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!N3:N7)))*5,0)</f>
+        <v>4.7454997118671285</v>
       </c>
       <c r="O2">
-        <f>ABS([1]score!O$6-[1]score!O2)</f>
-        <v>0.17087095403475061</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!O3:O7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!O3:O7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!O3:O7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!O3:O7)))*5,0)</f>
+        <v>4.6708709540347506</v>
       </c>
       <c r="P2">
-        <f>ABS([1]score!P$6-[1]score!P2)</f>
-        <v>1.9508205097601667</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!P3:P7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!P3:P7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!P3:P7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!P3:P7)))*5,0)</f>
+        <v>3.9508205097601667</v>
       </c>
       <c r="Q2">
-        <f>ABS([1]score!Q$6-[1]score!Q2)</f>
-        <v>0.18018042656286948</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Q3:Q7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Q3:Q7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Q3:Q7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Q3:Q7)))*5,0)</f>
+        <v>4.6801804265628695</v>
       </c>
       <c r="R2">
-        <f>ABS([1]score!R$6-[1]score!R2)</f>
-        <v>3.8247754019912428E-2</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!R3:R7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!R3:R7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!R3:R7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!R3:R7)))*5,0)</f>
+        <v>4.9617522459800876</v>
       </c>
       <c r="S2">
-        <f>ABS([1]score!S$6-[1]score!S2)</f>
-        <v>0.35026177440322792</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!S3:S7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!S3:S7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!S3:S7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!S3:S7)))*5,0)</f>
+        <v>2.3502617744032279</v>
       </c>
       <c r="T2">
-        <f>ABS([1]score!T$6-[1]score!T2)</f>
-        <v>1.5546161221051302</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!T3:T7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!T3:T7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!T3:T7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!T3:T7)))*5,0)</f>
+        <v>3.5546161221051302</v>
       </c>
       <c r="U2">
-        <f>ABS([1]score!U$6-[1]score!U2)</f>
-        <v>2.5</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!U3:U7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!U3:U7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!U3:U7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!U3:U7)))*5,0)</f>
+        <v>0</v>
       </c>
       <c r="V2">
-        <f>ABS([1]score!V$6-[1]score!V2)</f>
-        <v>8.1494024689199307E-4</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!V3:V7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!V3:V7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!V3:V7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!V3:V7)))*5,0)</f>
+        <v>4.999185059753108</v>
       </c>
       <c r="W2">
-        <f>ABS([1]score!W$6-[1]score!W2)</f>
-        <v>8.1494024689199307E-4</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!W3:W7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!W3:W7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!W3:W7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!W3:W7)))*5,0)</f>
+        <v>4.999185059753108</v>
       </c>
       <c r="X2">
-        <f>ABS([1]score!X$6-[1]score!X2)</f>
-        <v>3.1852655542948227</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!X3:X7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!X3:X7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!X3:X7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!X3:X7)))*5,0)</f>
+        <v>4.6852655542948227</v>
       </c>
       <c r="Y2">
-        <f>ABS([1]score!Y$6-[1]score!Y2)</f>
-        <v>1.841047142087552</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Y3:Y7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Y3:Y7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Y3:Y7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Y3:Y7)))*5,0)</f>
+        <v>4.341047142087552</v>
       </c>
       <c r="Z2">
-        <f>ABS([1]score!Z$6-[1]score!Z2)</f>
-        <v>8.1494024689199307E-4</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Z3:Z7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Z3:Z7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!Z3:Z7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!Z3:Z7)))*5,0)</f>
+        <v>4.999185059753108</v>
       </c>
       <c r="AA2">
-        <f>ABS([1]score!AA$6-[1]score!AA2)</f>
-        <v>2.5630090523650848</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AA3:AA7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AA3:AA7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AA3:AA7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AA3:AA7)))*5,0)</f>
+        <v>4.5630090523650848</v>
       </c>
       <c r="AB2">
-        <f>ABS([1]score!AB$6-[1]score!AB2)</f>
-        <v>1.0383751160546257</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AB3:AB7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AB3:AB7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AB3:AB7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AB3:AB7)))*5,0)</f>
+        <v>4.0383751160546257</v>
       </c>
       <c r="AC2">
-        <f>ABS([1]score!AC$6-[1]score!AC2)</f>
-        <v>0.40799401064938356</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AC3:AC7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AC3:AC7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AC3:AC7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AC3:AC7)))*5,0)</f>
+        <v>2.5920059893506164</v>
       </c>
       <c r="AD2">
-        <f>ABS([1]score!AD$6-[1]score!AD2)</f>
-        <v>1.8060346372086626</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AD3:AD7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AD3:AD7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!AD3:AD7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!AD3:AD7)))*5,0)</f>
+        <v>0.69396536279133736</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -968,120 +4467,120 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>ABS([1]score!B$6-[1]score!B3)</f>
-        <v>2.1188215231145975</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!B11:B15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!B11:B15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!B11:B15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!B11:B15)))*5,0)</f>
+        <v>1.3811784768854027</v>
       </c>
       <c r="C3">
-        <f>ABS([1]score!C$6-[1]score!C3)</f>
-        <v>7.6344035669097643E-2</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!C11:C15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!C11:C15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!C11:C15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!C11:C15)))*5,0)</f>
+        <v>4.9236559643309024</v>
       </c>
       <c r="D3">
-        <f>ABS([1]score!D$6-[1]score!D3)</f>
-        <v>0.5791607018772158</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!D11:D15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!D11:D15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!D11:D15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!D11:D15)))*5,0)</f>
+        <v>4.5791607018772158</v>
       </c>
       <c r="E3">
-        <f>ABS([1]score!E$6-[1]score!E3)</f>
-        <v>0.40926034236418474</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!E11:E15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!E11:E15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!E11:E15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!E11:E15)))*5,0)</f>
+        <v>4.5907396576358153</v>
       </c>
       <c r="F3">
-        <f>ABS([1]score!F$6-[1]score!F3)</f>
-        <v>0.55715002493572108</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!F11:F15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!F11:F15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!F11:F15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!F11:F15)))*5,0)</f>
+        <v>3.5571500249357211</v>
       </c>
       <c r="G3">
-        <f>ABS([1]score!G$6-[1]score!G3)</f>
-        <v>1.9076527645132932</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!G11:G15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!G11:G15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!G11:G15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!G11:G15)))*5,0)</f>
+        <v>3.9076527645132932</v>
       </c>
       <c r="H3">
-        <f>ABS([1]score!H$6-[1]score!H3)</f>
-        <v>0.51655793050959042</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!H11:H15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!H11:H15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!H11:H15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!H11:H15)))*5,0)</f>
+        <v>1.9834420694904096</v>
       </c>
       <c r="I3">
-        <f>ABS([1]score!I$6-[1]score!I3)</f>
-        <v>0.81792129414357717</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!I11:I15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!I11:I15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!I11:I15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!I11:I15)))*5,0)</f>
+        <v>4.1820787058564228</v>
       </c>
       <c r="J3">
-        <f>ABS([1]score!J$6-[1]score!J3)</f>
-        <v>3.3713713497687205</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!J11:J15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!J11:J15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!J11:J15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!J11:J15)))*5,0)</f>
+        <v>0.12862865023127967</v>
       </c>
       <c r="K3">
-        <f>ABS([1]score!K$6-[1]score!K3)</f>
-        <v>1.2113282212169452E-3</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!K11:K15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!K11:K15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!K11:K15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!K11:K15)))*5,0)</f>
+        <v>4.9987886717787831</v>
       </c>
       <c r="L3">
-        <f>ABS([1]score!L$6-[1]score!L3)</f>
-        <v>0.20824324672550265</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!L11:L15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!L11:L15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!L11:L15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!L11:L15)))*5,0)</f>
+        <v>4.7917567532744973</v>
       </c>
       <c r="M3">
-        <f>ABS([1]score!M$6-[1]score!M3)</f>
-        <v>0.20395841432634576</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!M11:M15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!M11:M15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!M11:M15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!M11:M15)))*5,0)</f>
+        <v>4.7960415856736542</v>
       </c>
       <c r="N3">
-        <f>ABS([1]score!N$6-[1]score!N3)</f>
-        <v>2.4718073027132652</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!N11:N15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!N11:N15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!N11:N15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!N11:N15)))*5,0)</f>
+        <v>4.4718073027132652</v>
       </c>
       <c r="O3">
-        <f>ABS([1]score!O$6-[1]score!O3)</f>
-        <v>0.75503110075542867</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!O11:O15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!O11:O15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!O11:O15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!O11:O15)))*5,0)</f>
+        <v>3.7449688992445713</v>
       </c>
       <c r="P3">
-        <f>ABS([1]score!P$6-[1]score!P3)</f>
-        <v>0.89986750787765235</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!P11:P15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!P11:P15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!P11:P15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!P11:P15)))*5,0)</f>
+        <v>2.8998675078776524</v>
       </c>
       <c r="Q3">
-        <f>ABS([1]score!Q$6-[1]score!Q3)</f>
-        <v>0.7570405159984781</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Q11:Q15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Q11:Q15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Q11:Q15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Q11:Q15)))*5,0)</f>
+        <v>3.7429594840015219</v>
       </c>
       <c r="R3">
-        <f>ABS([1]score!R$6-[1]score!R3)</f>
-        <v>0.20395841432634576</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!R11:R15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!R11:R15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!R11:R15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!R11:R15)))*5,0)</f>
+        <v>4.7960415856736542</v>
       </c>
       <c r="S3">
-        <f>ABS([1]score!S$6-[1]score!S3)</f>
-        <v>1.229768634644159</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!S11:S15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!S11:S15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!S11:S15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!S11:S15)))*5,0)</f>
+        <v>3.229768634644159</v>
       </c>
       <c r="T3">
-        <f>ABS([1]score!T$6-[1]score!T3)</f>
-        <v>1.4877056327033773</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!T11:T15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!T11:T15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!T11:T15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!T11:T15)))*5,0)</f>
+        <v>3.4877056327033773</v>
       </c>
       <c r="U3">
-        <f>ABS([1]score!U$6-[1]score!U3)</f>
-        <v>2.334295808241603</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!U11:U15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!U11:U15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!U11:U15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!U11:U15)))*5,0)</f>
+        <v>0.16570419175839682</v>
       </c>
       <c r="V3">
-        <f>ABS([1]score!V$6-[1]score!V3)</f>
-        <v>1.2113282212169452E-3</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!V11:V15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!V11:V15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!V11:V15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!V11:V15)))*5,0)</f>
+        <v>4.9987886717787831</v>
       </c>
       <c r="W3">
-        <f>ABS([1]score!W$6-[1]score!W3)</f>
-        <v>1.2113282212169452E-3</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!W11:W15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!W11:W15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!W11:W15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!W11:W15)))*5,0)</f>
+        <v>4.9987886717787831</v>
       </c>
       <c r="X3">
-        <f>ABS([1]score!X$6-[1]score!X3)</f>
-        <v>3.0261674700654542</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!X11:X15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!X11:X15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!X11:X15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!X11:X15)))*5,0)</f>
+        <v>4.5261674700654542</v>
       </c>
       <c r="Y3">
-        <f>ABS([1]score!Y$6-[1]score!Y3)</f>
-        <v>1.4074777665631717</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Y11:Y15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Y11:Y15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Y11:Y15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Y11:Y15)))*5,0)</f>
+        <v>3.9074777665631717</v>
       </c>
       <c r="Z3">
-        <f>ABS([1]score!Z$6-[1]score!Z3)</f>
-        <v>1.2113282212169452E-3</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Z11:Z15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Z11:Z15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!Z11:Z15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!Z11:Z15)))*5,0)</f>
+        <v>4.9987886717787831</v>
       </c>
       <c r="AA3">
-        <f>ABS([1]score!AA$6-[1]score!AA3)</f>
-        <v>2.0831944426041398</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AA11:AA15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AA11:AA15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AA11:AA15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AA11:AA15)))*5,0)</f>
+        <v>4.0831944426041398</v>
       </c>
       <c r="AB3">
-        <f>ABS([1]score!AB$6-[1]score!AB3)</f>
-        <v>0.88270512542931767</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AB11:AB15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AB11:AB15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AB11:AB15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AB11:AB15)))*5,0)</f>
+        <v>3.8827051254293177</v>
       </c>
       <c r="AC3">
-        <f>ABS([1]score!AC$6-[1]score!AC3)</f>
-        <v>0.85677485272304876</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AC11:AC15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AC11:AC15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AC11:AC15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AC11:AC15)))*5,0)</f>
+        <v>2.1432251472769512</v>
       </c>
       <c r="AD3">
-        <f>ABS([1]score!AD$6-[1]score!AD3)</f>
-        <v>2.1456778132898826</v>
+        <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AD11:AD15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AD11:AD15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!AD11:AD15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!AD11:AD15)))*5,0)</f>
+        <v>0.3543221867101175</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -1089,169 +4588,630 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>ABS([1]score!B$6-[1]score!B4)</f>
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!B19:B23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!B19:B23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!B19:B23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!B19:B23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!C19:C23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!C19:C23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!C19:C23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!C19:C23)))*5,0)</f>
+        <v>2.8035400363100029</v>
+      </c>
+      <c r="D4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!D19:D23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!D19:D23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!D19:D23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!D19:D23)))*5,0)</f>
+        <v>4.6072563414918752</v>
+      </c>
+      <c r="E4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!E19:E23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!E19:E23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!E19:E23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!E19:E23)))*5,0)</f>
+        <v>1.7865594544448817</v>
+      </c>
+      <c r="F4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!F19:F23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!F19:F23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!F19:F23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!F19:F23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!G19:G23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!G19:G23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!G19:G23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!G19:G23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!H19:H23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!H19:H23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!H19:H23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!H19:H23)))*5,0)</f>
+        <v>7.2227178389974202E-3</v>
+      </c>
+      <c r="I4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!I19:I23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!I19:I23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!I19:I23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!I19:I23)))*5,0)</f>
+        <v>0.27731076002566796</v>
+      </c>
+      <c r="J4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!J19:J23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!J19:J23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!J19:J23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!J19:J23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!K19:K23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!K19:K23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!K19:K23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!K19:K23)))*5,0)</f>
+        <v>4.9953769821843199</v>
+      </c>
+      <c r="L4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!L19:L23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!L19:L23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!L19:L23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!L19:L23)))*5,0)</f>
+        <v>4.7434891969761788</v>
+      </c>
+      <c r="M4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!M19:M23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!M19:M23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!M19:M23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!M19:M23)))*5,0)</f>
+        <v>4.733744626056823</v>
+      </c>
+      <c r="N4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!N19:N23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!N19:N23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!N19:N23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!N19:N23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!O19:O23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!O19:O23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!O19:O23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!O19:O23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!P19:P23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!P19:P23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!P19:P23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!P19:P23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Q19:Q23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Q19:Q23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Q19:Q23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Q19:Q23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!R19:R23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!R19:R23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!R19:R23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!R19:R23)))*5,0)</f>
+        <v>4.733744626056823</v>
+      </c>
+      <c r="S4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!S19:S23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!S19:S23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!S19:S23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!S19:S23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!T19:T23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!T19:T23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!T19:T23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!T19:T23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!U19:U23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!U19:U23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!U19:U23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!U19:U23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!V19:V23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!V19:V23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!V19:V23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!V19:V23)))*5,0)</f>
+        <v>4.9953769821843199</v>
+      </c>
+      <c r="W4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!W19:W23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!W19:W23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!W19:W23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!W19:W23)))*5,0)</f>
+        <v>4.9953769821843199</v>
+      </c>
+      <c r="X4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!X19:X23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!X19:X23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!X19:X23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!X19:X23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Y19:Y23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Y19:Y23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Y19:Y23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Y19:Y23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Z19:Z23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Z19:Z23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!Z19:Z23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!Z19:Z23)))*5,0)</f>
+        <v>4.9953769821843199</v>
+      </c>
+      <c r="AA4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AA19:AA23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AA19:AA23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AA19:AA23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AA19:AA23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AB19:AB23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AB19:AB23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AB19:AB23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AB19:AB23)))*5,0)</f>
+        <v>0.46604526369449539</v>
+      </c>
+      <c r="AC4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AC19:AC23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AC19:AC23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AC19:AC23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AC19:AC23)))*5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AD19:AD23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AD19:AD23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!AD19:AD23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!AD19:AD23)))*5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>3.5</v>
       </c>
-      <c r="C4">
-        <f>ABS([1]score!C$6-[1]score!C4)</f>
-        <v>2.1964599636899971</v>
-      </c>
-      <c r="D4">
-        <f>ABS([1]score!D$6-[1]score!D4)</f>
-        <v>0.60725634149187524</v>
-      </c>
-      <c r="E4">
-        <f>ABS([1]score!E$6-[1]score!E4)</f>
-        <v>3.2134405455551183</v>
-      </c>
-      <c r="F4">
-        <f>ABS([1]score!F$6-[1]score!F4)</f>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="G4">
-        <f>ABS([1]score!G$6-[1]score!G4)</f>
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H4">
-        <f>ABS([1]score!H$6-[1]score!H4)</f>
-        <v>2.4927772821610024</v>
-      </c>
-      <c r="I4">
-        <f>ABS([1]score!I$6-[1]score!I4)</f>
-        <v>4.7226892399743319</v>
-      </c>
-      <c r="J4">
-        <f>ABS([1]score!J$6-[1]score!J4)</f>
+      <c r="H6">
+        <v>2.5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>3.5</v>
       </c>
-      <c r="K4">
-        <f>ABS([1]score!K$6-[1]score!K4)</f>
-        <v>4.6230178156800861E-3</v>
-      </c>
-      <c r="L4">
-        <f>ABS([1]score!L$6-[1]score!L4)</f>
-        <v>0.25651080302382123</v>
-      </c>
-      <c r="M4">
-        <f>ABS([1]score!M$6-[1]score!M4)</f>
-        <v>0.266255373943177</v>
-      </c>
-      <c r="N4">
-        <f>ABS([1]score!N$6-[1]score!N4)</f>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="O4">
-        <f>ABS([1]score!O$6-[1]score!O4)</f>
+      <c r="O6">
         <v>4.5</v>
       </c>
-      <c r="P4">
-        <f>ABS([1]score!P$6-[1]score!P4)</f>
+      <c r="P6">
         <v>2</v>
       </c>
-      <c r="Q4">
-        <f>ABS([1]score!Q$6-[1]score!Q4)</f>
+      <c r="Q6">
         <v>4.5</v>
       </c>
-      <c r="R4">
-        <f>ABS([1]score!R$6-[1]score!R4)</f>
-        <v>0.266255373943177</v>
-      </c>
-      <c r="S4">
-        <f>ABS([1]score!S$6-[1]score!S4)</f>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
         <v>2</v>
       </c>
-      <c r="T4">
-        <f>ABS([1]score!T$6-[1]score!T4)</f>
+      <c r="T6">
         <v>2</v>
       </c>
-      <c r="U4">
-        <f>ABS([1]score!U$6-[1]score!U4)</f>
+      <c r="U6">
         <v>2.5</v>
       </c>
-      <c r="V4">
-        <f>ABS([1]score!V$6-[1]score!V4)</f>
-        <v>4.6230178156800861E-3</v>
-      </c>
-      <c r="W4">
-        <f>ABS([1]score!W$6-[1]score!W4)</f>
-        <v>4.6230178156800861E-3</v>
-      </c>
-      <c r="X4">
-        <f>ABS([1]score!X$6-[1]score!X4)</f>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
         <v>1.5</v>
       </c>
-      <c r="Y4">
-        <f>ABS([1]score!Y$6-[1]score!Y4)</f>
+      <c r="Y6">
         <v>2.5</v>
       </c>
-      <c r="Z4">
-        <f>ABS([1]score!Z$6-[1]score!Z4)</f>
-        <v>4.6230178156800861E-3</v>
-      </c>
-      <c r="AA4">
-        <f>ABS([1]score!AA$6-[1]score!AA4)</f>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AB4">
-        <f>ABS([1]score!AB$6-[1]score!AB4)</f>
-        <v>2.5339547363055046</v>
-      </c>
-      <c r="AC4">
-        <f>ABS([1]score!AC$6-[1]score!AC4)</f>
+      <c r="AB6">
         <v>3</v>
       </c>
-      <c r="AD4">
-        <f>ABS([1]score!AD$6-[1]score!AD4)</f>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
         <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE(B2:AD2)</f>
-        <v>1.0145539219046125</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(B3:AD3)</f>
-        <v>1.0797503216816564</v>
-      </c>
-      <c r="D7">
-        <f>AVERAGE(B4:AD4)</f>
-        <v>2.0542790252189906</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <f>PEARSON([1]score!$B$6:$AD$6,[1]score!B2:AD2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <f>ABS(B$6-B2)</f>
+        <v>0.21935683190307742</v>
+      </c>
+      <c r="C9">
+        <f>ABS(C$6-C2)</f>
+        <v>1.7853266746927332E-2</v>
+      </c>
+      <c r="D9">
+        <f>ABS(D$6-D2)</f>
+        <v>0.92139030259003274</v>
+      </c>
+      <c r="E9">
+        <f>ABS(E$6-E2)</f>
+        <v>0.12521081417022728</v>
+      </c>
+      <c r="F9">
+        <f>ABS(F$6-F2)</f>
+        <v>0.77838259086890815</v>
+      </c>
+      <c r="G9">
+        <f>ABS(G$6-G2)</f>
+        <v>2.7161184738576782</v>
+      </c>
+      <c r="H9">
+        <f>ABS(H$6-H2)</f>
+        <v>0.37937715655710091</v>
+      </c>
+      <c r="I9">
+        <f>ABS(I$6-I2)</f>
+        <v>0.39536558125715704</v>
+      </c>
+      <c r="J9">
+        <f>ABS(J$6-J2)</f>
+        <v>3.4433442028519567</v>
+      </c>
+      <c r="K9">
+        <f>ABS(K$6-K2)</f>
+        <v>8.1494024689199307E-4</v>
+      </c>
+      <c r="L9">
+        <f>ABS(L$6-L2)</f>
+        <v>5.1934234009898717E-2</v>
+      </c>
+      <c r="M9">
+        <f>ABS(M$6-M2)</f>
+        <v>3.8247754019912428E-2</v>
+      </c>
+      <c r="N9">
+        <f>ABS(N$6-N2)</f>
+        <v>2.7454997118671285</v>
+      </c>
+      <c r="O9">
+        <f>ABS(O$6-O2)</f>
+        <v>0.17087095403475061</v>
+      </c>
+      <c r="P9">
+        <f>ABS(P$6-P2)</f>
+        <v>1.9508205097601667</v>
+      </c>
+      <c r="Q9">
+        <f>ABS(Q$6-Q2)</f>
+        <v>0.18018042656286948</v>
+      </c>
+      <c r="R9">
+        <f>ABS(R$6-R2)</f>
+        <v>3.8247754019912428E-2</v>
+      </c>
+      <c r="S9">
+        <f>ABS(S$6-S2)</f>
+        <v>0.35026177440322792</v>
+      </c>
+      <c r="T9">
+        <f>ABS(T$6-T2)</f>
+        <v>1.5546161221051302</v>
+      </c>
+      <c r="U9">
+        <f>ABS(U$6-U2)</f>
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <f>ABS(V$6-V2)</f>
+        <v>8.1494024689199307E-4</v>
+      </c>
+      <c r="W9">
+        <f>ABS(W$6-W2)</f>
+        <v>8.1494024689199307E-4</v>
+      </c>
+      <c r="X9">
+        <f>ABS(X$6-X2)</f>
+        <v>3.1852655542948227</v>
+      </c>
+      <c r="Y9">
+        <f>ABS(Y$6-Y2)</f>
+        <v>1.841047142087552</v>
+      </c>
+      <c r="Z9">
+        <f>ABS(Z$6-Z2)</f>
+        <v>8.1494024689199307E-4</v>
+      </c>
+      <c r="AA9">
+        <f>ABS(AA$6-AA2)</f>
+        <v>2.5630090523650848</v>
+      </c>
+      <c r="AB9">
+        <f>ABS(AB$6-AB2)</f>
+        <v>1.0383751160546257</v>
+      </c>
+      <c r="AC9">
+        <f>ABS(AC$6-AC2)</f>
+        <v>0.40799401064938356</v>
+      </c>
+      <c r="AD9">
+        <f>ABS(AD$6-AD2)</f>
+        <v>1.8060346372086626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f>ABS(B$6-B3)</f>
+        <v>2.1188215231145975</v>
+      </c>
+      <c r="C10">
+        <f>ABS(C$6-C3)</f>
+        <v>7.6344035669097643E-2</v>
+      </c>
+      <c r="D10">
+        <f>ABS(D$6-D3)</f>
+        <v>0.5791607018772158</v>
+      </c>
+      <c r="E10">
+        <f>ABS(E$6-E3)</f>
+        <v>0.40926034236418474</v>
+      </c>
+      <c r="F10">
+        <f>ABS(F$6-F3)</f>
+        <v>0.55715002493572108</v>
+      </c>
+      <c r="G10">
+        <f>ABS(G$6-G3)</f>
+        <v>1.9076527645132932</v>
+      </c>
+      <c r="H10">
+        <f>ABS(H$6-H3)</f>
+        <v>0.51655793050959042</v>
+      </c>
+      <c r="I10">
+        <f>ABS(I$6-I3)</f>
+        <v>0.81792129414357717</v>
+      </c>
+      <c r="J10">
+        <f>ABS(J$6-J3)</f>
+        <v>3.3713713497687205</v>
+      </c>
+      <c r="K10">
+        <f>ABS(K$6-K3)</f>
+        <v>1.2113282212169452E-3</v>
+      </c>
+      <c r="L10">
+        <f>ABS(L$6-L3)</f>
+        <v>0.20824324672550265</v>
+      </c>
+      <c r="M10">
+        <f>ABS(M$6-M3)</f>
+        <v>0.20395841432634576</v>
+      </c>
+      <c r="N10">
+        <f>ABS(N$6-N3)</f>
+        <v>2.4718073027132652</v>
+      </c>
+      <c r="O10">
+        <f>ABS(O$6-O3)</f>
+        <v>0.75503110075542867</v>
+      </c>
+      <c r="P10">
+        <f>ABS(P$6-P3)</f>
+        <v>0.89986750787765235</v>
+      </c>
+      <c r="Q10">
+        <f>ABS(Q$6-Q3)</f>
+        <v>0.7570405159984781</v>
+      </c>
+      <c r="R10">
+        <f>ABS(R$6-R3)</f>
+        <v>0.20395841432634576</v>
+      </c>
+      <c r="S10">
+        <f>ABS(S$6-S3)</f>
+        <v>1.229768634644159</v>
+      </c>
+      <c r="T10">
+        <f>ABS(T$6-T3)</f>
+        <v>1.4877056327033773</v>
+      </c>
+      <c r="U10">
+        <f>ABS(U$6-U3)</f>
+        <v>2.334295808241603</v>
+      </c>
+      <c r="V10">
+        <f>ABS(V$6-V3)</f>
+        <v>1.2113282212169452E-3</v>
+      </c>
+      <c r="W10">
+        <f>ABS(W$6-W3)</f>
+        <v>1.2113282212169452E-3</v>
+      </c>
+      <c r="X10">
+        <f>ABS(X$6-X3)</f>
+        <v>3.0261674700654542</v>
+      </c>
+      <c r="Y10">
+        <f>ABS(Y$6-Y3)</f>
+        <v>1.4074777665631717</v>
+      </c>
+      <c r="Z10">
+        <f>ABS(Z$6-Z3)</f>
+        <v>1.2113282212169452E-3</v>
+      </c>
+      <c r="AA10">
+        <f>ABS(AA$6-AA3)</f>
+        <v>2.0831944426041398</v>
+      </c>
+      <c r="AB10">
+        <f>ABS(AB$6-AB3)</f>
+        <v>0.88270512542931767</v>
+      </c>
+      <c r="AC10">
+        <f>ABS(AC$6-AC3)</f>
+        <v>0.85677485272304876</v>
+      </c>
+      <c r="AD10">
+        <f>ABS(AD$6-AD3)</f>
+        <v>2.1456778132898826</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <f>ABS(B$6-B4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <f>ABS(C$6-C4)</f>
+        <v>2.1964599636899971</v>
+      </c>
+      <c r="D11">
+        <f>ABS(D$6-D4)</f>
+        <v>0.60725634149187524</v>
+      </c>
+      <c r="E11">
+        <f>ABS(E$6-E4)</f>
+        <v>3.2134405455551183</v>
+      </c>
+      <c r="F11">
+        <f>ABS(F$6-F4)</f>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f>ABS(G$6-G4)</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>ABS(H$6-H4)</f>
+        <v>2.4927772821610024</v>
+      </c>
+      <c r="I11">
+        <f>ABS(I$6-I4)</f>
+        <v>4.7226892399743319</v>
+      </c>
+      <c r="J11">
+        <f>ABS(J$6-J4)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K11">
+        <f>ABS(K$6-K4)</f>
+        <v>4.6230178156800861E-3</v>
+      </c>
+      <c r="L11">
+        <f>ABS(L$6-L4)</f>
+        <v>0.25651080302382123</v>
+      </c>
+      <c r="M11">
+        <f>ABS(M$6-M4)</f>
+        <v>0.266255373943177</v>
+      </c>
+      <c r="N11">
+        <f>ABS(N$6-N4)</f>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f>ABS(O$6-O4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="P11">
+        <f>ABS(P$6-P4)</f>
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <f>ABS(Q$6-Q4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="R11">
+        <f>ABS(R$6-R4)</f>
+        <v>0.266255373943177</v>
+      </c>
+      <c r="S11">
+        <f>ABS(S$6-S4)</f>
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <f>ABS(T$6-T4)</f>
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <f>ABS(U$6-U4)</f>
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <f>ABS(V$6-V4)</f>
+        <v>4.6230178156800861E-3</v>
+      </c>
+      <c r="W11">
+        <f>ABS(W$6-W4)</f>
+        <v>4.6230178156800861E-3</v>
+      </c>
+      <c r="X11">
+        <f>ABS(X$6-X4)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Y11">
+        <f>ABS(Y$6-Y4)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z11">
+        <f>ABS(Z$6-Z4)</f>
+        <v>4.6230178156800861E-3</v>
+      </c>
+      <c r="AA11">
+        <f>ABS(AA$6-AA4)</f>
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <f>ABS(AB$6-AB4)</f>
+        <v>2.5339547363055046</v>
+      </c>
+      <c r="AC11">
+        <f>ABS(AC$6-AC4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD11">
+        <f>ABS(AD$6-AD4)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B9:AD9)</f>
+        <v>1.0145539219046125</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(B10:AD10)</f>
+        <v>1.0797503216816564</v>
+      </c>
+      <c r="D14">
+        <f>AVERAGE(B11:AD11)</f>
+        <v>2.0542790252189906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>PEARSON(B6:AD6,B2:AD2)</f>
         <v>0.44368813562740628</v>
       </c>
-      <c r="C8">
-        <f>PEARSON([1]score!$B$6:$AD$6,[1]score!B3:AD3)</f>
+      <c r="C15">
+        <f>PEARSON(B6:AD6,B3:AD3)</f>
         <v>0.45822152253047965</v>
       </c>
-      <c r="D8">
-        <f>PEARSON([1]score!$B$6:$AD$6,[1]score!B4:AD4)</f>
+      <c r="D15">
+        <f>PEARSON(B6:AD6,B4:AD4)</f>
         <v>0.74952560700115645</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4701,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V3" sqref="V3:X46"/>
     </sheetView>
   </sheetViews>
@@ -6655,7 +10615,7 @@
         <v>21</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" ref="E48:T49" si="0">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)</f>
+        <f t="shared" ref="G48:S49" si="0">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)</f>
         <v>19</v>
       </c>
       <c r="H48" s="2">
@@ -6724,7 +10684,7 @@
       </c>
       <c r="J49" s="2"/>
       <c r="L49" s="2">
-        <f t="shared" ref="J49:X49" si="2">SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)</f>
+        <f t="shared" ref="L49:X49" si="2">SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)</f>
         <v>34</v>
       </c>
       <c r="M49" s="2">
@@ -6780,7 +10740,7 @@
       </c>
       <c r="J50" s="2"/>
       <c r="L50" s="2">
-        <f t="shared" ref="J50:X50" si="4">SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
+        <f t="shared" ref="L50:X50" si="4">SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
         <v>12</v>
       </c>
       <c r="M50" s="2">
@@ -6836,7 +10796,7 @@
       </c>
       <c r="J51" s="2"/>
       <c r="L51" s="2">
-        <f t="shared" ref="J51:X51" si="6">SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)</f>
+        <f t="shared" ref="L51:X51" si="6">SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)</f>
         <v>24</v>
       </c>
       <c r="M51" s="2">
@@ -6900,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7148,39 +11108,39 @@
         <v>0.55172413793103448</v>
       </c>
       <c r="E6">
-        <f>2*E3*E4/(E3+E4)</f>
+        <f t="shared" ref="E6:M6" si="1">2*E3*E4/(E3+E4)</f>
         <v>0.48571428571428565</v>
       </c>
       <c r="F6">
-        <f>2*F3*F4/(F3+F4)</f>
+        <f t="shared" si="1"/>
         <v>0.48571428571428565</v>
       </c>
       <c r="G6">
-        <f>2*G3*G4/(G3+G4)</f>
+        <f t="shared" si="1"/>
         <v>0.23076923076923075</v>
       </c>
       <c r="H6">
-        <f>2*H3*H4/(H3+H4)</f>
+        <f t="shared" si="1"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="I6">
-        <f>2*I3*I4/(I3+I4)</f>
+        <f t="shared" si="1"/>
         <v>0.13043478260869568</v>
       </c>
       <c r="J6">
-        <f>2*J3*J4/(J3+J4)</f>
+        <f t="shared" si="1"/>
         <v>9.5890410958904118E-2</v>
       </c>
       <c r="K6">
-        <f>2*K3*K4/(K3+K4)</f>
+        <f t="shared" si="1"/>
         <v>0.11374407582938389</v>
       </c>
       <c r="L6">
-        <f>2*L3*L4/(L3+L4)</f>
+        <f t="shared" si="1"/>
         <v>6.4777327935222673E-2</v>
       </c>
       <c r="M6">
-        <f>2*M3*M4/(M3+M4)</f>
+        <f t="shared" si="1"/>
         <v>2.8268551236749116E-2</v>
       </c>
     </row>
@@ -7231,5 +11191,6 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mae &amp; peaarson" sheetId="1" r:id="rId1"/>
+    <sheet name="mae &amp; pearson" sheetId="1" r:id="rId1"/>
     <sheet name="round score" sheetId="3" r:id="rId2"/>
     <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
     <sheet name="Contigency" sheetId="4" r:id="rId4"/>
@@ -309,7 +309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mae &amp; peaarson'!$A$14</c:f>
+              <c:f>'mae &amp; pearson'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -330,7 +330,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'mae &amp; peaarson'!$B$13:$D$13</c:f>
+              <c:f>'mae &amp; pearson'!$B$13:$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -347,7 +347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'mae &amp; peaarson'!$B$14:$D$14</c:f>
+              <c:f>'mae &amp; pearson'!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -369,7 +369,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mae &amp; peaarson'!$A$15</c:f>
+              <c:f>'mae &amp; pearson'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -390,7 +390,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'mae &amp; peaarson'!$B$13:$D$13</c:f>
+              <c:f>'mae &amp; pearson'!$B$13:$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -407,7 +407,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'mae &amp; peaarson'!$B$15:$D$15</c:f>
+              <c:f>'mae &amp; pearson'!$B$15:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4243,8 +4243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mae &amp; pearson" sheetId="1" r:id="rId1"/>
     <sheet name="round score" sheetId="3" r:id="rId2"/>
     <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
     <sheet name="Contigency" sheetId="4" r:id="rId4"/>
-    <sheet name="performa" sheetId="2" r:id="rId5"/>
+    <sheet name="performa macro" sheetId="7" r:id="rId5"/>
+    <sheet name="performa micro" sheetId="2" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
   <si>
     <t>pearson</t>
   </si>
@@ -187,15 +188,24 @@
   <si>
     <t>answer_29</t>
   </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,6 +290,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>mae &amp; pearson</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -434,11 +483,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316726640"/>
-        <c:axId val="316730992"/>
+        <c:axId val="-1671350160"/>
+        <c:axId val="-1671342000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316726640"/>
+        <c:axId val="-1671350160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +530,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316730992"/>
+        <c:crossAx val="-1671342000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -489,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316730992"/>
+        <c:axId val="-1671342000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +589,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316726640"/>
+        <c:crossAx val="-1671350160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -636,6 +685,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performa</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -678,7 +753,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>performa!$A$3</c:f>
+              <c:f>'performa macro'!$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -699,7 +774,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>performa!$B$1:$M$2</c:f>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -759,45 +834,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>performa!$B$3:$M$3</c:f>
+              <c:f>'performa macro'!$C$50:$N$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.65517241379310343</c:v>
+                  <c:v>0.48051948051948057</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.70454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58620689655172409</c:v>
+                  <c:v>0.39145299145299145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58620689655172409</c:v>
+                  <c:v>0.39145299145299145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31034482758620691</c:v>
+                  <c:v>0.51111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51724137931034486</c:v>
+                  <c:v>0.23809523809523811</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31034482758620691</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2413793103448276</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41379310344827586</c:v>
+                  <c:v>0.21818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27586206896551724</c:v>
+                  <c:v>7.2727272727272738E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>3.6363636363636369E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +883,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>performa!$A$4</c:f>
+              <c:f>'performa macro'!$B$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -829,7 +904,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>performa!$B$1:$M$2</c:f>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -889,45 +964,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>performa!$B$4:$M$4</c:f>
+              <c:f>'performa macro'!$C$51:$N$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.65517241379310343</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.34782608695652173</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41463414634146339</c:v>
+                  <c:v>0.37888198757763975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41463414634146339</c:v>
+                  <c:v>0.37888198757763975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18367346938775511</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.12574462574462575</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2568807339449546E-2</c:v>
+                  <c:v>5.7692307692307689E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9829059829059832E-2</c:v>
+                  <c:v>4.8611111111111112E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5934065934065936E-2</c:v>
+                  <c:v>4.7644244300591047E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.669724770642202E-2</c:v>
+                  <c:v>2.6936026936026935E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5748031496062992E-2</c:v>
+                  <c:v>1.5810276679841896E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +1013,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>performa!$A$5</c:f>
+              <c:f>'performa macro'!$B$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -959,7 +1034,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>performa!$B$1:$M$2</c:f>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1019,7 +1094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>performa!$B$5:$M$5</c:f>
+              <c:f>'performa macro'!$C$52:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1054,10 +1129,10 @@
                   <c:v>0.41379310344827586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27586206896551724</c:v>
+                  <c:v>0.27586206896551729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>0.13793103448275865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,7 +1143,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>performa!$A$6</c:f>
+              <c:f>'performa macro'!$B$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1089,7 +1164,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>performa!$B$1:$M$2</c:f>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1149,7 +1224,802 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>performa!$B$6:$M$6</c:f>
+              <c:f>'performa macro'!$C$53:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47463768115942023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35555555555555551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54958183990442055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36140350877192984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36140350877192984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17845117845117844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16313352826510721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8947368421052613E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4814814814814825E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3638642059694698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9312039312039311E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2038567493112948E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1755998464"/>
+        <c:axId val="-1756000096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1755998464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1756000096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1756000096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1755998464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performa</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa micro'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa micro'!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa micro'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa micro'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa micro'!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa micro'!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18367346938775511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2568807339449546E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9829059829059832E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5934065934065936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.669724770642202E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5748031496062992E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa micro'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa micro'!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa micro'!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27586206896551724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13793103448275862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa micro'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f_measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa micro'!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa micro'!$B$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1203,11 +2073,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="316727728"/>
-        <c:axId val="316724464"/>
+        <c:axId val="-1671345808"/>
+        <c:axId val="-1671340368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="316727728"/>
+        <c:axId val="-1671345808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +2120,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316724464"/>
+        <c:crossAx val="-1671340368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1258,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316724464"/>
+        <c:axId val="-1671340368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +2179,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316727728"/>
+        <c:crossAx val="-1671345808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1431,6 +2301,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2476,6 +3386,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2512,6 +3925,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2557,9 +4007,9 @@
       <sheetName val="score"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="3">
           <cell r="A3">
@@ -3942,13 +5392,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>3.2806431680969226</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4243,8 +5687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,119 +6250,119 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f>ABS(B$6-B2)</f>
+        <f t="shared" ref="B9:AD9" si="0">ABS(B$6-B2)</f>
         <v>0.21935683190307742</v>
       </c>
       <c r="C9">
-        <f>ABS(C$6-C2)</f>
+        <f t="shared" si="0"/>
         <v>1.7853266746927332E-2</v>
       </c>
       <c r="D9">
-        <f>ABS(D$6-D2)</f>
+        <f t="shared" si="0"/>
         <v>0.92139030259003274</v>
       </c>
       <c r="E9">
-        <f>ABS(E$6-E2)</f>
+        <f t="shared" si="0"/>
         <v>0.12521081417022728</v>
       </c>
       <c r="F9">
-        <f>ABS(F$6-F2)</f>
+        <f t="shared" si="0"/>
         <v>0.77838259086890815</v>
       </c>
       <c r="G9">
-        <f>ABS(G$6-G2)</f>
+        <f t="shared" si="0"/>
         <v>2.7161184738576782</v>
       </c>
       <c r="H9">
-        <f>ABS(H$6-H2)</f>
+        <f t="shared" si="0"/>
         <v>0.37937715655710091</v>
       </c>
       <c r="I9">
-        <f>ABS(I$6-I2)</f>
+        <f t="shared" si="0"/>
         <v>0.39536558125715704</v>
       </c>
       <c r="J9">
-        <f>ABS(J$6-J2)</f>
+        <f t="shared" si="0"/>
         <v>3.4433442028519567</v>
       </c>
       <c r="K9">
-        <f>ABS(K$6-K2)</f>
+        <f t="shared" si="0"/>
         <v>8.1494024689199307E-4</v>
       </c>
       <c r="L9">
-        <f>ABS(L$6-L2)</f>
+        <f t="shared" si="0"/>
         <v>5.1934234009898717E-2</v>
       </c>
       <c r="M9">
-        <f>ABS(M$6-M2)</f>
+        <f t="shared" si="0"/>
         <v>3.8247754019912428E-2</v>
       </c>
       <c r="N9">
-        <f>ABS(N$6-N2)</f>
+        <f t="shared" si="0"/>
         <v>2.7454997118671285</v>
       </c>
       <c r="O9">
-        <f>ABS(O$6-O2)</f>
+        <f t="shared" si="0"/>
         <v>0.17087095403475061</v>
       </c>
       <c r="P9">
-        <f>ABS(P$6-P2)</f>
+        <f t="shared" si="0"/>
         <v>1.9508205097601667</v>
       </c>
       <c r="Q9">
-        <f>ABS(Q$6-Q2)</f>
+        <f t="shared" si="0"/>
         <v>0.18018042656286948</v>
       </c>
       <c r="R9">
-        <f>ABS(R$6-R2)</f>
+        <f t="shared" si="0"/>
         <v>3.8247754019912428E-2</v>
       </c>
       <c r="S9">
-        <f>ABS(S$6-S2)</f>
+        <f t="shared" si="0"/>
         <v>0.35026177440322792</v>
       </c>
       <c r="T9">
-        <f>ABS(T$6-T2)</f>
+        <f t="shared" si="0"/>
         <v>1.5546161221051302</v>
       </c>
       <c r="U9">
-        <f>ABS(U$6-U2)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="V9">
-        <f>ABS(V$6-V2)</f>
+        <f t="shared" si="0"/>
         <v>8.1494024689199307E-4</v>
       </c>
       <c r="W9">
-        <f>ABS(W$6-W2)</f>
+        <f t="shared" si="0"/>
         <v>8.1494024689199307E-4</v>
       </c>
       <c r="X9">
-        <f>ABS(X$6-X2)</f>
+        <f t="shared" si="0"/>
         <v>3.1852655542948227</v>
       </c>
       <c r="Y9">
-        <f>ABS(Y$6-Y2)</f>
+        <f t="shared" si="0"/>
         <v>1.841047142087552</v>
       </c>
       <c r="Z9">
-        <f>ABS(Z$6-Z2)</f>
+        <f t="shared" si="0"/>
         <v>8.1494024689199307E-4</v>
       </c>
       <c r="AA9">
-        <f>ABS(AA$6-AA2)</f>
+        <f t="shared" si="0"/>
         <v>2.5630090523650848</v>
       </c>
       <c r="AB9">
-        <f>ABS(AB$6-AB2)</f>
+        <f t="shared" si="0"/>
         <v>1.0383751160546257</v>
       </c>
       <c r="AC9">
-        <f>ABS(AC$6-AC2)</f>
+        <f t="shared" si="0"/>
         <v>0.40799401064938356</v>
       </c>
       <c r="AD9">
-        <f>ABS(AD$6-AD2)</f>
+        <f t="shared" si="0"/>
         <v>1.8060346372086626</v>
       </c>
     </row>
@@ -4927,119 +6371,119 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <f>ABS(B$6-B3)</f>
+        <f t="shared" ref="B10:AD10" si="1">ABS(B$6-B3)</f>
         <v>2.1188215231145975</v>
       </c>
       <c r="C10">
-        <f>ABS(C$6-C3)</f>
+        <f t="shared" si="1"/>
         <v>7.6344035669097643E-2</v>
       </c>
       <c r="D10">
-        <f>ABS(D$6-D3)</f>
+        <f t="shared" si="1"/>
         <v>0.5791607018772158</v>
       </c>
       <c r="E10">
-        <f>ABS(E$6-E3)</f>
+        <f t="shared" si="1"/>
         <v>0.40926034236418474</v>
       </c>
       <c r="F10">
-        <f>ABS(F$6-F3)</f>
+        <f t="shared" si="1"/>
         <v>0.55715002493572108</v>
       </c>
       <c r="G10">
-        <f>ABS(G$6-G3)</f>
+        <f t="shared" si="1"/>
         <v>1.9076527645132932</v>
       </c>
       <c r="H10">
-        <f>ABS(H$6-H3)</f>
+        <f t="shared" si="1"/>
         <v>0.51655793050959042</v>
       </c>
       <c r="I10">
-        <f>ABS(I$6-I3)</f>
+        <f t="shared" si="1"/>
         <v>0.81792129414357717</v>
       </c>
       <c r="J10">
-        <f>ABS(J$6-J3)</f>
+        <f t="shared" si="1"/>
         <v>3.3713713497687205</v>
       </c>
       <c r="K10">
-        <f>ABS(K$6-K3)</f>
+        <f t="shared" si="1"/>
         <v>1.2113282212169452E-3</v>
       </c>
       <c r="L10">
-        <f>ABS(L$6-L3)</f>
+        <f t="shared" si="1"/>
         <v>0.20824324672550265</v>
       </c>
       <c r="M10">
-        <f>ABS(M$6-M3)</f>
+        <f t="shared" si="1"/>
         <v>0.20395841432634576</v>
       </c>
       <c r="N10">
-        <f>ABS(N$6-N3)</f>
+        <f t="shared" si="1"/>
         <v>2.4718073027132652</v>
       </c>
       <c r="O10">
-        <f>ABS(O$6-O3)</f>
+        <f t="shared" si="1"/>
         <v>0.75503110075542867</v>
       </c>
       <c r="P10">
-        <f>ABS(P$6-P3)</f>
+        <f t="shared" si="1"/>
         <v>0.89986750787765235</v>
       </c>
       <c r="Q10">
-        <f>ABS(Q$6-Q3)</f>
+        <f t="shared" si="1"/>
         <v>0.7570405159984781</v>
       </c>
       <c r="R10">
-        <f>ABS(R$6-R3)</f>
+        <f t="shared" si="1"/>
         <v>0.20395841432634576</v>
       </c>
       <c r="S10">
-        <f>ABS(S$6-S3)</f>
+        <f t="shared" si="1"/>
         <v>1.229768634644159</v>
       </c>
       <c r="T10">
-        <f>ABS(T$6-T3)</f>
+        <f t="shared" si="1"/>
         <v>1.4877056327033773</v>
       </c>
       <c r="U10">
-        <f>ABS(U$6-U3)</f>
+        <f t="shared" si="1"/>
         <v>2.334295808241603</v>
       </c>
       <c r="V10">
-        <f>ABS(V$6-V3)</f>
+        <f t="shared" si="1"/>
         <v>1.2113282212169452E-3</v>
       </c>
       <c r="W10">
-        <f>ABS(W$6-W3)</f>
+        <f t="shared" si="1"/>
         <v>1.2113282212169452E-3</v>
       </c>
       <c r="X10">
-        <f>ABS(X$6-X3)</f>
+        <f t="shared" si="1"/>
         <v>3.0261674700654542</v>
       </c>
       <c r="Y10">
-        <f>ABS(Y$6-Y3)</f>
+        <f t="shared" si="1"/>
         <v>1.4074777665631717</v>
       </c>
       <c r="Z10">
-        <f>ABS(Z$6-Z3)</f>
+        <f t="shared" si="1"/>
         <v>1.2113282212169452E-3</v>
       </c>
       <c r="AA10">
-        <f>ABS(AA$6-AA3)</f>
+        <f t="shared" si="1"/>
         <v>2.0831944426041398</v>
       </c>
       <c r="AB10">
-        <f>ABS(AB$6-AB3)</f>
+        <f t="shared" si="1"/>
         <v>0.88270512542931767</v>
       </c>
       <c r="AC10">
-        <f>ABS(AC$6-AC3)</f>
+        <f t="shared" si="1"/>
         <v>0.85677485272304876</v>
       </c>
       <c r="AD10">
-        <f>ABS(AD$6-AD3)</f>
+        <f t="shared" si="1"/>
         <v>2.1456778132898826</v>
       </c>
     </row>
@@ -5048,119 +6492,119 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <f>ABS(B$6-B4)</f>
+        <f t="shared" ref="B11:AD11" si="2">ABS(B$6-B4)</f>
         <v>3.5</v>
       </c>
       <c r="C11">
-        <f>ABS(C$6-C4)</f>
+        <f t="shared" si="2"/>
         <v>2.1964599636899971</v>
       </c>
       <c r="D11">
-        <f>ABS(D$6-D4)</f>
+        <f t="shared" si="2"/>
         <v>0.60725634149187524</v>
       </c>
       <c r="E11">
-        <f>ABS(E$6-E4)</f>
+        <f t="shared" si="2"/>
         <v>3.2134405455551183</v>
       </c>
       <c r="F11">
-        <f>ABS(F$6-F4)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G11">
-        <f>ABS(G$6-G4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H11">
-        <f>ABS(H$6-H4)</f>
+        <f t="shared" si="2"/>
         <v>2.4927772821610024</v>
       </c>
       <c r="I11">
-        <f>ABS(I$6-I4)</f>
+        <f t="shared" si="2"/>
         <v>4.7226892399743319</v>
       </c>
       <c r="J11">
-        <f>ABS(J$6-J4)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="K11">
-        <f>ABS(K$6-K4)</f>
+        <f t="shared" si="2"/>
         <v>4.6230178156800861E-3</v>
       </c>
       <c r="L11">
-        <f>ABS(L$6-L4)</f>
+        <f t="shared" si="2"/>
         <v>0.25651080302382123</v>
       </c>
       <c r="M11">
-        <f>ABS(M$6-M4)</f>
+        <f t="shared" si="2"/>
         <v>0.266255373943177</v>
       </c>
       <c r="N11">
-        <f>ABS(N$6-N4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O11">
-        <f>ABS(O$6-O4)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="P11">
-        <f>ABS(P$6-P4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q11">
-        <f>ABS(Q$6-Q4)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="R11">
-        <f>ABS(R$6-R4)</f>
+        <f t="shared" si="2"/>
         <v>0.266255373943177</v>
       </c>
       <c r="S11">
-        <f>ABS(S$6-S4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="T11">
-        <f>ABS(T$6-T4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U11">
-        <f>ABS(U$6-U4)</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="V11">
-        <f>ABS(V$6-V4)</f>
+        <f t="shared" si="2"/>
         <v>4.6230178156800861E-3</v>
       </c>
       <c r="W11">
-        <f>ABS(W$6-W4)</f>
+        <f t="shared" si="2"/>
         <v>4.6230178156800861E-3</v>
       </c>
       <c r="X11">
-        <f>ABS(X$6-X4)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="Y11">
-        <f>ABS(Y$6-Y4)</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="Z11">
-        <f>ABS(Z$6-Z4)</f>
+        <f t="shared" si="2"/>
         <v>4.6230178156800861E-3</v>
       </c>
       <c r="AA11">
-        <f>ABS(AA$6-AA4)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB11">
-        <f>ABS(AB$6-AB4)</f>
+        <f t="shared" si="2"/>
         <v>2.5339547363055046</v>
       </c>
       <c r="AC11">
-        <f>ABS(AC$6-AC4)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AD11">
-        <f>ABS(AD$6-AD4)</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
@@ -5226,30 +6670,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6766,37 +8210,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8661,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:X46"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8675,29 +10119,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="2"/>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
       <c r="O1" s="2"/>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
       <c r="T1" s="2"/>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -8741,7 +10185,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8815,7 +10259,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8887,7 +10331,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -8959,7 +10403,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9031,7 +10475,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -9105,7 +10549,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -9177,7 +10621,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -9249,7 +10693,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -9321,7 +10765,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -9380,7 +10824,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -9437,7 +10881,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -9494,7 +10938,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -9551,7 +10995,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -9595,7 +11039,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -9637,7 +11081,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -9679,7 +11123,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -9721,7 +11165,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -9765,7 +11209,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -9807,7 +11251,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -9849,7 +11293,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +11335,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -9935,7 +11379,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -9977,7 +11421,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -10019,7 +11463,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -10061,7 +11505,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -10090,7 +11534,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -10117,7 +11561,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -10144,7 +11588,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -10171,7 +11615,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="6">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -10200,7 +11644,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -10227,7 +11671,7 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -10254,7 +11698,7 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -10281,7 +11725,7 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="6">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -10310,7 +11754,7 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
@@ -10337,7 +11781,7 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
@@ -10364,7 +11808,7 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
@@ -10391,7 +11835,7 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="6">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -10420,7 +11864,7 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -10447,7 +11891,7 @@
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -10474,7 +11918,7 @@
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -10501,7 +11945,7 @@
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="6">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -10530,7 +11974,7 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
@@ -10557,7 +12001,7 @@
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
@@ -10584,7 +12028,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -10858,10 +12302,1735 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G5),0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I5),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N5),0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G6),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I6),0)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F4">
+        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N6),0)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="I4">
+        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X6),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>IFERROR((Contigency!G3+Contigency!G4)/(Contigency!G3+Contigency!G4+Contigency!G5+Contigency!G6),0)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D5">
+        <f>IFERROR((Contigency!H3+Contigency!H4)/(Contigency!H3+Contigency!H4+Contigency!H5+Contigency!H6),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E5">
+        <f>IFERROR((Contigency!I3+Contigency!I4)/(Contigency!I3+Contigency!I4+Contigency!I5+Contigency!I6),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F5">
+        <f>IFERROR((Contigency!L3+Contigency!L4)/(Contigency!L3+Contigency!L4+Contigency!L5+Contigency!L6),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G5">
+        <f>IFERROR((Contigency!M3+Contigency!M4)/(Contigency!M3+Contigency!M4+Contigency!M5+Contigency!M6),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR((Contigency!N3+Contigency!N4)/(Contigency!N3+Contigency!N4+Contigency!N5+Contigency!N6),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I5">
+        <f>IFERROR((Contigency!Q3+Contigency!Q4)/(Contigency!Q3+Contigency!Q4+Contigency!Q5+Contigency!Q6),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J5">
+        <f>IFERROR((Contigency!R3+Contigency!R4)/(Contigency!R3+Contigency!R4+Contigency!R5+Contigency!R6),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K5">
+        <f>IFERROR((Contigency!S3+Contigency!S4)/(Contigency!S3+Contigency!S4+Contigency!S5+Contigency!S6),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR((Contigency!V3+Contigency!V4)/(Contigency!V3+Contigency!V4+Contigency!V5+Contigency!V6),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M5">
+        <f>IFERROR((Contigency!W3+Contigency!W4)/(Contigency!W3+Contigency!W4+Contigency!W5+Contigency!W6),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N5">
+        <f>IFERROR((Contigency!X3+Contigency!X4)/(Contigency!X3+Contigency!X4+Contigency!X5+Contigency!X6),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>IFERROR(2*C3*C4/(C3+C4),0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="0">IFERROR(2*D3*D4/(D3+D4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:N6" si="1">IFERROR(2*F3*F4/(F3+F4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G9),0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="D7">
+        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H9),0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E7">
+        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I9),0)</f>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="F7">
+        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L9),0)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="G7">
+        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M9),0)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="H7">
+        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X9),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G10),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H10),0)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="E8">
+        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I10),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L10),0)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G8">
+        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M10),0)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H8">
+        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X10),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <f>IFERROR((Contigency!G7+Contigency!G8)/(Contigency!G7+Contigency!G8+Contigency!G9+Contigency!G10),0)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D9">
+        <f>IFERROR((Contigency!H7+Contigency!H8)/(Contigency!H7+Contigency!H8+Contigency!H9+Contigency!H10),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E9">
+        <f>IFERROR((Contigency!I7+Contigency!I8)/(Contigency!I7+Contigency!I8+Contigency!I9+Contigency!I10),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F9">
+        <f>IFERROR((Contigency!L7+Contigency!L8)/(Contigency!L7+Contigency!L8+Contigency!L9+Contigency!L10),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G9">
+        <f>IFERROR((Contigency!M7+Contigency!M8)/(Contigency!M7+Contigency!M8+Contigency!M9+Contigency!M10),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H9">
+        <f>IFERROR((Contigency!N7+Contigency!N8)/(Contigency!N7+Contigency!N8+Contigency!N9+Contigency!N10),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I9">
+        <f>IFERROR((Contigency!Q7+Contigency!Q8)/(Contigency!Q7+Contigency!Q8+Contigency!Q9+Contigency!Q10),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J9">
+        <f>IFERROR((Contigency!R7+Contigency!R8)/(Contigency!R7+Contigency!R8+Contigency!R9+Contigency!R10),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K9">
+        <f>IFERROR((Contigency!S7+Contigency!S8)/(Contigency!S7+Contigency!S8+Contigency!S9+Contigency!S10),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L9">
+        <f>IFERROR((Contigency!V7+Contigency!V8)/(Contigency!V7+Contigency!V8+Contigency!V9+Contigency!V10),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M9">
+        <f>IFERROR((Contigency!W7+Contigency!W8)/(Contigency!W7+Contigency!W8+Contigency!W9+Contigency!W10),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N9">
+        <f>IFERROR((Contigency!X7+Contigency!X8)/(Contigency!X7+Contigency!X8+Contigency!X9+Contigency!X10),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <f>IFERROR(2*C7*C8/(C7+C8),0)</f>
+        <v>0.78260869565217384</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="2">IFERROR(2*D7*D8/(D7+D8),0)</f>
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:H10" si="3">IFERROR(2*F7*F8/(F7+F8),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:K10" si="4">IFERROR(2*I7*I8/(I7+I8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:N10" si="5">IFERROR(2*L7*L8/(L7+L8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L13),0)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G11">
+        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M13),0)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H11">
+        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N13),0)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="I11">
+        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q13),0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J11">
+        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X13),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L14),0)</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="G12">
+        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M14),0)</f>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H12">
+        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N14),0)</f>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="I12">
+        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q14),0)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J12">
+        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X14),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f>IFERROR((Contigency!L11+Contigency!L12)/(Contigency!L11+Contigency!L12+Contigency!L13+Contigency!L14),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G13">
+        <f>IFERROR((Contigency!M11+Contigency!M12)/(Contigency!M11+Contigency!M12+Contigency!M13+Contigency!M14),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H13">
+        <f>IFERROR((Contigency!N11+Contigency!N12)/(Contigency!N11+Contigency!N12+Contigency!N13+Contigency!N14),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I13">
+        <f>IFERROR((Contigency!Q11+Contigency!Q12)/(Contigency!Q11+Contigency!Q12+Contigency!Q13+Contigency!Q14),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J13">
+        <f>IFERROR((Contigency!R11+Contigency!R12)/(Contigency!R11+Contigency!R12+Contigency!R13+Contigency!R14),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K13">
+        <f>IFERROR((Contigency!S11+Contigency!S12)/(Contigency!S11+Contigency!S12+Contigency!S13+Contigency!S14),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L13">
+        <f>IFERROR((Contigency!V11+Contigency!V12)/(Contigency!V11+Contigency!V12+Contigency!V13+Contigency!V14),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M13">
+        <f>IFERROR((Contigency!W11+Contigency!W12)/(Contigency!W11+Contigency!W12+Contigency!W13+Contigency!W14),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N13">
+        <f>IFERROR((Contigency!X11+Contigency!X12)/(Contigency!X11+Contigency!X12+Contigency!X13+Contigency!X14),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:H14" si="6">IFERROR(2*F11*F12/(F11+F12),0)</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:K14" si="7">IFERROR(2*I11*I12/(I11+I12),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:N14" si="8">IFERROR(2*L11*L12/(L11+L12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q17),0)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J15">
+        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X17),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q18),0)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J16">
+        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X18),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <f>IFERROR((Contigency!Q15+Contigency!Q16)/(Contigency!Q15+Contigency!Q16+Contigency!Q17+Contigency!Q18),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J17">
+        <f>IFERROR((Contigency!R15+Contigency!R16)/(Contigency!R15+Contigency!R16+Contigency!R17+Contigency!R18),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K17">
+        <f>IFERROR((Contigency!S15+Contigency!S16)/(Contigency!S15+Contigency!S16+Contigency!S17+Contigency!S18),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L17">
+        <f>IFERROR((Contigency!V15+Contigency!V16)/(Contigency!V15+Contigency!V16+Contigency!V17+Contigency!V18),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M17">
+        <f>IFERROR((Contigency!W15+Contigency!W16)/(Contigency!W15+Contigency!W16+Contigency!W17+Contigency!W18),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N17">
+        <f>IFERROR((Contigency!X15+Contigency!X16)/(Contigency!X15+Contigency!X16+Contigency!X17+Contigency!X18),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="9">IFERROR(2*I15*I16/(I15+I16),0)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:N18" si="10">IFERROR(2*L15*L16/(L15+L16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X21),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X22),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f>IFERROR((Contigency!Q19+Contigency!Q20)/(Contigency!Q19+Contigency!Q20+Contigency!Q21+Contigency!Q22),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J21">
+        <f>IFERROR((Contigency!R19+Contigency!R20)/(Contigency!R19+Contigency!R20+Contigency!R21+Contigency!R22),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K21">
+        <f>IFERROR((Contigency!S19+Contigency!S20)/(Contigency!S19+Contigency!S20+Contigency!S21+Contigency!S22),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L21">
+        <f>IFERROR((Contigency!V19+Contigency!V20)/(Contigency!V19+Contigency!V20+Contigency!V21+Contigency!V22),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M21">
+        <f>IFERROR((Contigency!W19+Contigency!W20)/(Contigency!W19+Contigency!W20+Contigency!W21+Contigency!W22),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N21">
+        <f>IFERROR((Contigency!X19+Contigency!X20)/(Contigency!X19+Contigency!X20+Contigency!X21+Contigency!X22),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:K22" si="11">IFERROR(2*I19*I20/(I19+I20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:N22" si="12">IFERROR(2*L19*L20/(L19+L20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q25),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R25),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="K23">
+        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S25),0)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L23">
+        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X25),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q26),0)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J24">
+        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R26),0)</f>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="K24">
+        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S26),0)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="L24">
+        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X26),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <f>IFERROR((Contigency!Q23+Contigency!Q24)/(Contigency!Q23+Contigency!Q24+Contigency!Q25+Contigency!Q26),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J25">
+        <f>IFERROR((Contigency!R23+Contigency!R24)/(Contigency!R23+Contigency!R24+Contigency!R25+Contigency!R26),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K25">
+        <f>IFERROR((Contigency!S23+Contigency!S24)/(Contigency!S23+Contigency!S24+Contigency!S25+Contigency!S26),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L25">
+        <f>IFERROR((Contigency!V23+Contigency!V24)/(Contigency!V23+Contigency!V24+Contigency!V25+Contigency!V26),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M25">
+        <f>IFERROR((Contigency!W23+Contigency!W24)/(Contigency!W23+Contigency!W24+Contigency!W25+Contigency!W26),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N25">
+        <f>IFERROR((Contigency!X23+Contigency!X24)/(Contigency!X23+Contigency!X24+Contigency!X25+Contigency!X26),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="13">IFERROR(2*I23*I24/(I23+I24),0)</f>
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:N26" si="14">IFERROR(2*L23*L24/(L23+L24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X29),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X30),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <f>IFERROR((Contigency!V27+Contigency!V28)/(Contigency!V27+Contigency!V28+Contigency!V29+Contigency!V30),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M29">
+        <f>IFERROR((Contigency!W27+Contigency!W28)/(Contigency!W27+Contigency!W28+Contigency!W29+Contigency!W30),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N29">
+        <f>IFERROR((Contigency!X27+Contigency!X28)/(Contigency!X27+Contigency!X28+Contigency!X29+Contigency!X30),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:N30" si="15">IFERROR(2*L27*L28/(L27+L28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V33),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X33),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V34),0)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M32">
+        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X34),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <f>IFERROR((Contigency!V31+Contigency!V32)/(Contigency!V31+Contigency!V32+Contigency!V33+Contigency!V34),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M33">
+        <f>IFERROR((Contigency!W31+Contigency!W32)/(Contigency!W31+Contigency!W32+Contigency!W33+Contigency!W34),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N33">
+        <f>IFERROR((Contigency!X31+Contigency!X32)/(Contigency!X31+Contigency!X32+Contigency!X33+Contigency!X34),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:N34" si="16">IFERROR(2*L31*L32/(L31+L32),0)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X37),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X38),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <f>IFERROR((Contigency!V35+Contigency!V36)/(Contigency!V35+Contigency!V36+Contigency!V37+Contigency!V38),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M37">
+        <f>IFERROR((Contigency!W35+Contigency!W36)/(Contigency!W35+Contigency!W36+Contigency!W37+Contigency!W38),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N37">
+        <f>IFERROR((Contigency!X35+Contigency!X36)/(Contigency!X35+Contigency!X36+Contigency!X37+Contigency!X38),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:N38" si="17">IFERROR(2*L35*L36/(L35+L36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V41),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W41),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X41),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V42),0)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M40">
+        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X42),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41">
+        <f>IFERROR((Contigency!V39+Contigency!V40)/(Contigency!V39+Contigency!V40+Contigency!V41+Contigency!V42),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M41">
+        <f>IFERROR((Contigency!W39+Contigency!W40)/(Contigency!W39+Contigency!W40+Contigency!W41+Contigency!W42),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N41">
+        <f>IFERROR((Contigency!X39+Contigency!X40)/(Contigency!X39+Contigency!X40+Contigency!X41+Contigency!X42),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:N42" si="18">IFERROR(2*L39*L40/(L39+L40),0)</f>
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V45),0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M43">
+        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W45),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N43">
+        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X45),0)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V46),0)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M44">
+        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W46),0)</f>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="N44">
+        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X46),0)</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <f>IFERROR((Contigency!V43+Contigency!V44)/(Contigency!V43+Contigency!V44+Contigency!V45+Contigency!V46),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M45">
+        <f>IFERROR((Contigency!W43+Contigency!W44)/(Contigency!W43+Contigency!W44+Contigency!W45+Contigency!W46),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N45">
+        <f>IFERROR((Contigency!X43+Contigency!X44)/(Contigency!X43+Contigency!X44+Contigency!X45+Contigency!X46),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:N46" si="19">IFERROR(2*L43*L44/(L43+L44),0)</f>
+        <v>0.51428571428571435</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="19"/>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="19"/>
+        <v>0.24242424242424243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43)/2</f>
+        <v>0.48051948051948057</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:E50" si="20">SUM(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43)/2</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="20"/>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="F50">
+        <f>SUM(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43)/3</f>
+        <v>0.39145299145299145</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50:H50" si="21">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)/3</f>
+        <v>0.39145299145299145</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="21"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="I50">
+        <f>SUM(I3,I7,I11,I15,I19,I23,I27,I31,I35,I39,I43)/6</f>
+        <v>0.23809523809523811</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:K50" si="22">SUM(J3,J7,J11,J15,J19,J23,J27,J31,J35,J39,J43)/6</f>
+        <v>0.125</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="22"/>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="L50">
+        <f>SUM(L3,L7,L11,L15,L19,L23,L27,L31,L35,L39,L43)/11</f>
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50:N50" si="23">SUM(M3,M7,M11,M15,M19,M23,M27,M31,M35,M39,M43)/11</f>
+        <v>7.2727272727272738E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="23"/>
+        <v>3.6363636363636369E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <f>SUM(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44)/2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E51" si="24">SUM(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44)/2</f>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="24"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F51">
+        <f>SUM(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44)/3</f>
+        <v>0.37888198757763975</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:H51" si="25">SUM(G4,G8,G12,G16,G20,G24,G28,G32,G36,G40,G44)/3</f>
+        <v>0.37888198757763975</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="25"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I51">
+        <f>SUM(I4,I8,I12,I16,I20,I24,I28,I32,I36,I40,I44)/6</f>
+        <v>0.12574462574462575</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:K51" si="26">SUM(J4,J8,J12,J16,J20,J24,J28,J32,J36,J40,J44)/6</f>
+        <v>5.7692307692307689E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="26"/>
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="L51">
+        <f>SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)/11</f>
+        <v>4.7644244300591047E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51:N51" si="27">SUM(M4,M8,M12,M16,M20,M24,M28,M32,M36,M40,M44)/11</f>
+        <v>2.6936026936026935E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="27"/>
+        <v>1.5810276679841896E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <f>SUM(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)/2</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:E52" si="28">SUM(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45)/2</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="28"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F52">
+        <f>SUM(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45)/3</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:H52" si="29">SUM(G5,G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)/3</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="29"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I52">
+        <f>SUM(I5,I9,I13,I17,I21,I25,I29,I33,I37,I41,I45)/6</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:K52" si="30">SUM(J5,J9,J13,J17,J21,J25,J29,J33,J37,J41,J45)/6</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="30"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L52">
+        <f>SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)/11</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:N52" si="31">SUM(M5,M9,M13,M17,M21,M25,M29,M33,M37,M41,M45)/11</f>
+        <v>0.27586206896551729</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="31"/>
+        <v>0.13793103448275865</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46)/2</f>
+        <v>0.47463768115942023</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:E53" si="32">SUM(D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46)/2</f>
+        <v>0.35555555555555551</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="32"/>
+        <v>0.54958183990442055</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46)/3</f>
+        <v>0.36140350877192984</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:H53" si="33">SUM(G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46)/3</f>
+        <v>0.36140350877192984</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="33"/>
+        <v>0.17845117845117844</v>
+      </c>
+      <c r="I53">
+        <f>SUM(I6,I10,I14,I18,I22,I26,I30,I34,I38,I42,I46)/6</f>
+        <v>0.16313352826510721</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:K53" si="34">SUM(J6,J10,J14,J18,J22,J26,J30,J34,J38,J42,J46)/6</f>
+        <v>7.8947368421052613E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="34"/>
+        <v>6.4814814814814825E-2</v>
+      </c>
+      <c r="L53">
+        <f>SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)/11</f>
+        <v>7.3638642059694698E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:N53" si="35">SUM(M6,M10,M14,M18,M22,M26,M30,M34,M38,M42,M46)/11</f>
+        <v>3.9312039312039311E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="35"/>
+        <v>2.2038567493112948E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10873,26 +14042,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -10913,22 +14082,22 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10960,27 +14129,27 @@
         <f>Contigency!N48/(Contigency!N48+Contigency!N50)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="9">
         <f>Contigency!Q48/(Contigency!Q48+Contigency!Q50)</f>
         <v>0.51724137931034486</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="9">
         <f>Contigency!R48/(Contigency!R48+Contigency!R50)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="9">
         <f>Contigency!S48/(Contigency!S48+Contigency!S50)</f>
         <v>0.2413793103448276</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="9">
         <f>Contigency!V48/(Contigency!V48+Contigency!V50)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="9">
         <f>Contigency!W48/(Contigency!W48+Contigency!W50)</f>
         <v>0.27586206896551724</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="9">
         <f>Contigency!X48/(Contigency!X48+Contigency!X50)</f>
         <v>0.13793103448275862</v>
       </c>
@@ -11013,27 +14182,27 @@
         <f>Contigency!N48/(Contigency!N48+Contigency!N51)</f>
         <v>0.18367346938775511</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <f>Contigency!Q48/(Contigency!Q48+Contigency!Q51)</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <f>Contigency!R48/(Contigency!R48+Contigency!R51)</f>
         <v>8.2568807339449546E-2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="9">
         <f>Contigency!S48/(Contigency!S48+Contigency!S51)</f>
         <v>5.9829059829059832E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <f>Contigency!V48/(Contigency!V48+Contigency!V51)</f>
         <v>6.5934065934065936E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <f>Contigency!W48/(Contigency!W48+Contigency!W51)</f>
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="9">
         <f>Contigency!X48/(Contigency!X48+Contigency!X51)</f>
         <v>1.5748031496062992E-2</v>
       </c>
@@ -11066,27 +14235,27 @@
         <f>(Contigency!N48+Contigency!N49)/(Contigency!N48+Contigency!N49+Contigency!N50+Contigency!N51)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <f>(Contigency!Q48+Contigency!Q49)/(Contigency!Q48+Contigency!Q49+Contigency!Q50+Contigency!Q51)</f>
         <v>0.51724137931034486</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <f>(Contigency!R48+Contigency!R49)/(Contigency!R48+Contigency!R49+Contigency!R50+Contigency!R51)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="9">
         <f>(Contigency!S48+Contigency!S49)/(Contigency!S48+Contigency!S49+Contigency!S50+Contigency!S51)</f>
         <v>0.2413793103448276</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <f>(Contigency!V48+Contigency!V49)/(Contigency!V48+Contigency!V49+Contigency!V50+Contigency!V51)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="9">
         <f>(Contigency!W48+Contigency!W49)/(Contigency!W48+Contigency!W49+Contigency!W50+Contigency!W51)</f>
         <v>0.27586206896551724</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="9">
         <f>(Contigency!X48+Contigency!X49)/(Contigency!X48+Contigency!X49+Contigency!X50+Contigency!X51)</f>
         <v>0.13793103448275862</v>
       </c>
@@ -11119,27 +14288,27 @@
         <f t="shared" si="1"/>
         <v>0.23076923076923075</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <f t="shared" si="1"/>
         <v>0.13043478260869568</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <f t="shared" si="1"/>
         <v>9.5890410958904118E-2</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>0.11374407582938389</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="9">
         <f t="shared" si="1"/>
         <v>6.4777327935222673E-2</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>2.8268551236749116E-2</v>
       </c>

--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mae &amp; pearson" sheetId="1" r:id="rId1"/>
     <sheet name="round score" sheetId="3" r:id="rId2"/>
     <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
     <sheet name="Contigency" sheetId="4" r:id="rId4"/>
-    <sheet name="performa macro" sheetId="7" r:id="rId5"/>
-    <sheet name="performa micro" sheetId="2" r:id="rId6"/>
+    <sheet name="performa micro" sheetId="2" r:id="rId5"/>
+    <sheet name="performa macro" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -245,6 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,10 +258,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,7 +316,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -483,11 +482,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1671350160"/>
-        <c:axId val="-1671342000"/>
+        <c:axId val="-65043808"/>
+        <c:axId val="-65046528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1671350160"/>
+        <c:axId val="-65043808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +529,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671342000"/>
+        <c:crossAx val="-65046528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1671342000"/>
+        <c:axId val="-65046528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +588,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671350160"/>
+        <c:crossAx val="-65043808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -603,7 +602,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -671,801 +669,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Performa</a:t>
-            </a:r>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'performa macro'!$B$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'performa macro'!$C$48:$N$49</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>round_type = 2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>round_type = 3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>round_type = 6</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>round_type = 11</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'performa macro'!$C$50:$N$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.48051948051948057</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70454545454545459</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.39145299145299145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39145299145299145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51111111111111107</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23809523809523811</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.7222222222222224E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21818181818181817</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.2727272727272738E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6363636363636369E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'performa macro'!$B$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'performa macro'!$C$48:$N$49</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>round_type = 2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>round_type = 3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>round_type = 6</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>round_type = 11</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'performa macro'!$C$51:$N$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.47499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34782608695652173</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37888198757763975</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37888198757763975</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12574462574462575</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.7692307692307689E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8611111111111112E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.7644244300591047E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.6936026936026935E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5810276679841896E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'performa macro'!$B$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>accuracy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'performa macro'!$C$48:$N$49</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>round_type = 2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>round_type = 3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>round_type = 6</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>round_type = 11</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'performa macro'!$C$52:$N$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.65517241379310343</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55172413793103448</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55172413793103448</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58620689655172409</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58620689655172409</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.31034482758620691</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51724137931034486</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31034482758620691</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2413793103448276</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.41379310344827586</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27586206896551729</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13793103448275865</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'performa macro'!$B$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f_measure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'performa macro'!$C$48:$N$49</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>tf_idf</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>widf</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>midf</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>round_type = 2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>round_type = 3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>round_type = 6</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>round_type = 11</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'performa macro'!$C$53:$N$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.47463768115942023</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.35555555555555551</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54958183990442055</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.36140350877192984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36140350877192984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17845117845117844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16313352826510721</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.8947368421052613E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4814814814814825E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3638642059694698E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9312039312039311E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.2038567493112948E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1755998464"/>
-        <c:axId val="-1756000096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1755998464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1756000096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1756000096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1755998464"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2073,11 +1276,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1671345808"/>
-        <c:axId val="-1671340368"/>
+        <c:axId val="-65041088"/>
+        <c:axId val="-65043264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1671345808"/>
+        <c:axId val="-65041088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +1323,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671340368"/>
+        <c:crossAx val="-65043264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1671340368"/>
+        <c:axId val="-65043264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,7 +1382,802 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1671345808"/>
+        <c:crossAx val="-65041088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Performa</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa macro'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa macro'!$C$50:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34782608695652173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47301587301587306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53968253968253965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35087719298245612</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31209150326797386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa macro'!$B$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa macro'!$C$51:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.48051948051948057</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34379084967320256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33823529411764702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20634920634920637</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12936507936507935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2060880296174415E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5078369905956112E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2539184952978056E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa macro'!$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa macro'!$C$52:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.65517241379310343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58620689655172409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51724137931034486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31034482758620691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41379310344827586</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27586206896551729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13793103448275865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'performa macro'!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f_measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'performa macro'!$C$48:$N$49</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>tf_idf</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>widf</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>midf</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>round_type = 2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>round_type = 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>round_type = 6</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>round_type = 11</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'performa macro'!$C$53:$N$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.47463768115942023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35555555555555551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54958183990442055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36140350877192984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36140350877192984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17845117845117844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16313352826510721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8947368421052613E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4814814814814811E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.3638642059694698E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9312039312039311E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2038567493112945E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-65042176"/>
+        <c:axId val="-65055776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-65042176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-65055776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-65055776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-65042176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3930,21 +3928,19 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3967,19 +3963,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6664,36 +6662,36 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="A1:XFD1048576"/>
+      <selection activeCell="P3" sqref="P3:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8210,37 +8208,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="P1" s="5" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -10105,8 +10103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:X2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10119,29 +10117,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="2"/>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="2"/>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="2"/>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
@@ -10185,7 +10183,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -10201,65 +10199,65 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C3,'round score'!B$3:B$31,CONCATENATE($D3,$F3))</f>
         <v>1</v>
       </c>
       <c r="H3">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C3,'round score'!C$3:C$31,CONCATENATE($D3,$F3))</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C3,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D3,$F3))</f>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C3,'round score'!D$3:D$31,CONCATENATE($D3,$F3))</f>
         <v>7</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C3,'round score'!G$3:G$31,CONCATENATE($D3,$K3))</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C3,'round score'!H$3:H$31,CONCATENATE($D3,$K3))</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C3,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D3,$K3))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C3,'round score'!I$3:I$31,CONCATENATE($D3,$K3))</f>
         <v>1</v>
       </c>
       <c r="P3" s="2">
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C3,'round score'!L$3:L$31,CONCATENATE($D3,$P3))</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C3,'round score'!M$3:M$31,CONCATENATE($D3,$P3))</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C3,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D3,$P3))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C3,'round score'!N$3:N$31,CONCATENATE($D3,$P3))</f>
         <v>0</v>
       </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
       <c r="V3">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C3,'round score'!Q$3:Q$31,CONCATENATE($D3,$U3))</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C3,'round score'!R$3:R$31,CONCATENATE($D3,$U3))</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C3,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D3,$U3))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C3,'round score'!S$3:S$31,CONCATENATE($D3,$U3))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10273,65 +10271,65 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C4,'round score'!B$3:B$31,CONCATENATE($D4,$F4))</f>
         <v>18</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C4,'round score'!C$3:C$31,CONCATENATE($D4,$F4))</f>
         <v>16</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C4,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D4,$F4))</f>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C4,'round score'!D$3:D$31,CONCATENATE($D4,$F4))</f>
         <v>9</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C4,'round score'!G$3:G$31,CONCATENATE($D4,$K4))</f>
         <v>17</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C4,'round score'!H$3:H$31,CONCATENATE($D4,$K4))</f>
         <v>17</v>
       </c>
       <c r="N4">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C4,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D4,$K4))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C4,'round score'!I$3:I$31,CONCATENATE($D4,$K4))</f>
         <v>8</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C4,'round score'!L$3:L$31,CONCATENATE($D4,$P4))</f>
         <v>15</v>
       </c>
       <c r="R4">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C4,'round score'!M$3:M$31,CONCATENATE($D4,$P4))</f>
         <v>9</v>
       </c>
       <c r="S4">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C4,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D4,$P4))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C4,'round score'!N$3:N$31,CONCATENATE($D4,$P4))</f>
         <v>7</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C4,'round score'!Q$3:Q$31,CONCATENATE($D4,$U4))</f>
         <v>12</v>
       </c>
       <c r="W4">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C4,'round score'!R$3:R$31,CONCATENATE($D4,$U4))</f>
         <v>8</v>
       </c>
       <c r="X4">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C4,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D4,$U4))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C4,'round score'!S$3:S$31,CONCATENATE($D4,$U4))</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -10345,65 +10343,65 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C5,'round score'!B$3:B$31,CONCATENATE($D5,$F5))</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C5,'round score'!C$3:C$31,CONCATENATE($D5,$F5))</f>
         <v>6</v>
       </c>
-      <c r="H5">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
-        <v>7</v>
-      </c>
       <c r="I5">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C5,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D5,$F5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C5,'round score'!D$3:D$31,CONCATENATE($D5,$F5))</f>
+        <v>13</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
       <c r="L5">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C5,'round score'!G$3:G$31,CONCATENATE($D5,$K5))</f>
+        <v>3</v>
       </c>
       <c r="M5">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C5,'round score'!H$3:H$31,CONCATENATE($D5,$K5))</f>
+        <v>4</v>
       </c>
       <c r="N5">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C5,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D5,$K5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C5,'round score'!I$3:I$31,CONCATENATE($D5,$K5))</f>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C5,'round score'!L$3:L$31,CONCATENATE($D5,$P5))</f>
+        <v>2</v>
       </c>
       <c r="R5">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C5,'round score'!M$3:M$31,CONCATENATE($D5,$P5))</f>
+        <v>3</v>
       </c>
       <c r="S5">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C5,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D5,$P5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C5,'round score'!N$3:N$31,CONCATENATE($D5,$P5))</f>
+        <v>19</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C5,'round score'!Q$3:Q$31,CONCATENATE($D5,$U5))</f>
+        <v>2</v>
       </c>
       <c r="W5">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C5,'round score'!R$3:R$31,CONCATENATE($D5,$U5))</f>
+        <v>2</v>
       </c>
       <c r="X5">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C5,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D5,$U5))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C5,'round score'!S$3:S$31,CONCATENATE($D5,$U5))</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -10417,65 +10415,65 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
-        <v>4</v>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C6,'round score'!B$3:B$31,CONCATENATE($D6,$F6))</f>
+        <v>6</v>
       </c>
       <c r="H6">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C6,'round score'!C$3:C$31,CONCATENATE($D6,$F6))</f>
+        <v>7</v>
       </c>
       <c r="I6">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C6,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D6,$F6))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C6,'round score'!D$3:D$31,CONCATENATE($D6,$F6))</f>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
       </c>
       <c r="L6">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
-        <v>11</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C6,'round score'!G$3:G$31,CONCATENATE($D6,$K6))</f>
+        <v>9</v>
       </c>
       <c r="M6">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
-        <v>11</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C6,'round score'!H$3:H$31,CONCATENATE($D6,$K6))</f>
+        <v>8</v>
       </c>
       <c r="N6">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C6,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D6,$K6))</f>
-        <v>20</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C6,'round score'!I$3:I$31,CONCATENATE($D6,$K6))</f>
+        <v>2</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
-        <v>14</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C6,'round score'!L$3:L$31,CONCATENATE($D6,$P6))</f>
+        <v>12</v>
       </c>
       <c r="R6">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
-        <v>20</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C6,'round score'!M$3:M$31,CONCATENATE($D6,$P6))</f>
+        <v>17</v>
       </c>
       <c r="S6">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C6,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D6,$P6))</f>
-        <v>22</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C6,'round score'!N$3:N$31,CONCATENATE($D6,$P6))</f>
+        <v>3</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
-        <v>17</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C6,'round score'!Q$3:Q$31,CONCATENATE($D6,$U6))</f>
+        <v>15</v>
       </c>
       <c r="W6">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
-        <v>21</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C6,'round score'!R$3:R$31,CONCATENATE($D6,$U6))</f>
+        <v>19</v>
       </c>
       <c r="X6">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C6,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D6,$U6))</f>
-        <v>25</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C6,'round score'!S$3:S$31,CONCATENATE($D6,$U6))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -10491,65 +10489,65 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C7,'round score'!B$3:B$31,CONCATENATE($D7,$F7))</f>
         <v>18</v>
       </c>
       <c r="H7">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C7,'round score'!C$3:C$31,CONCATENATE($D7,$F7))</f>
         <v>16</v>
       </c>
       <c r="I7">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C7,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D7,$F7))</f>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C7,'round score'!D$3:D$31,CONCATENATE($D7,$F7))</f>
         <v>9</v>
       </c>
       <c r="K7" s="2">
         <v>2.5</v>
       </c>
       <c r="L7">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C7,'round score'!G$3:G$31,CONCATENATE($D7,$K7))</f>
         <v>4</v>
       </c>
       <c r="M7">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C7,'round score'!H$3:H$31,CONCATENATE($D7,$K7))</f>
         <v>4</v>
       </c>
       <c r="N7">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C7,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D7,$K7))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C7,'round score'!I$3:I$31,CONCATENATE($D7,$K7))</f>
         <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C7,'round score'!L$3:L$31,CONCATENATE($D7,$P7))</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C7,'round score'!M$3:M$31,CONCATENATE($D7,$P7))</f>
         <v>0</v>
       </c>
       <c r="S7">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C7,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D7,$P7))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C7,'round score'!N$3:N$31,CONCATENATE($D7,$P7))</f>
         <v>0</v>
       </c>
       <c r="U7" s="2">
         <v>0.5</v>
       </c>
       <c r="V7">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C7,'round score'!Q$3:Q$31,CONCATENATE($D7,$U7))</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C7,'round score'!R$3:R$31,CONCATENATE($D7,$U7))</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C7,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D7,$U7))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C7,'round score'!S$3:S$31,CONCATENATE($D7,$U7))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -10563,65 +10561,65 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C8,'round score'!B$3:B$31,CONCATENATE($D8,$F8))</f>
         <v>1</v>
       </c>
       <c r="H8">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C8,'round score'!C$3:C$31,CONCATENATE($D8,$F8))</f>
         <v>0</v>
       </c>
       <c r="I8">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C8,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D8,$F8))</f>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C8,'round score'!D$3:D$31,CONCATENATE($D8,$F8))</f>
         <v>7</v>
       </c>
       <c r="K8" s="2">
         <v>2.5</v>
       </c>
       <c r="L8">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C8,'round score'!G$3:G$31,CONCATENATE($D8,$K8))</f>
         <v>13</v>
       </c>
       <c r="M8">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C8,'round score'!H$3:H$31,CONCATENATE($D8,$K8))</f>
         <v>13</v>
       </c>
       <c r="N8">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C8,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D8,$K8))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C8,'round score'!I$3:I$31,CONCATENATE($D8,$K8))</f>
         <v>9</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C8,'round score'!L$3:L$31,CONCATENATE($D8,$P8))</f>
         <v>15</v>
       </c>
       <c r="R8">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C8,'round score'!M$3:M$31,CONCATENATE($D8,$P8))</f>
         <v>9</v>
       </c>
       <c r="S8">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C8,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D8,$P8))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C8,'round score'!N$3:N$31,CONCATENATE($D8,$P8))</f>
         <v>7</v>
       </c>
       <c r="U8" s="2">
         <v>0.5</v>
       </c>
       <c r="V8">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C8,'round score'!Q$3:Q$31,CONCATENATE($D8,$U8))</f>
         <v>12</v>
       </c>
       <c r="W8">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C8,'round score'!R$3:R$31,CONCATENATE($D8,$U8))</f>
         <v>8</v>
       </c>
       <c r="X8">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C8,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D8,$U8))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C8,'round score'!S$3:S$31,CONCATENATE($D8,$U8))</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -10635,65 +10633,65 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
-        <v>4</v>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C9,'round score'!B$3:B$31,CONCATENATE($D9,$F9))</f>
+        <v>6</v>
       </c>
       <c r="H9">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C9,'round score'!C$3:C$31,CONCATENATE($D9,$F9))</f>
+        <v>7</v>
       </c>
       <c r="I9">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C9,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D9,$F9))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C9,'round score'!D$3:D$31,CONCATENATE($D9,$F9))</f>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>2.5</v>
       </c>
       <c r="L9">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
-        <v>9</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C9,'round score'!G$3:G$31,CONCATENATE($D9,$K9))</f>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
-        <v>9</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C9,'round score'!H$3:H$31,CONCATENATE($D9,$K9))</f>
+        <v>0</v>
       </c>
       <c r="N9">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C9,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D9,$K9))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C9,'round score'!I$3:I$31,CONCATENATE($D9,$K9))</f>
+        <v>2</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C9,'round score'!L$3:L$31,CONCATENATE($D9,$P9))</f>
+        <v>1</v>
       </c>
       <c r="R9">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C9,'round score'!M$3:M$31,CONCATENATE($D9,$P9))</f>
+        <v>1</v>
       </c>
       <c r="S9">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C9,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D9,$P9))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C9,'round score'!N$3:N$31,CONCATENATE($D9,$P9))</f>
         <v>0</v>
       </c>
       <c r="U9" s="2">
         <v>0.5</v>
       </c>
       <c r="V9">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C9,'round score'!Q$3:Q$31,CONCATENATE($D9,$U9))</f>
+        <v>1</v>
       </c>
       <c r="W9">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C9,'round score'!R$3:R$31,CONCATENATE($D9,$U9))</f>
+        <v>1</v>
       </c>
       <c r="X9">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C9,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D9,$U9))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C9,'round score'!S$3:S$31,CONCATENATE($D9,$U9))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -10707,65 +10705,65 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
+        <f>COUNTIFS('round score (boolean)'!B$3:B$31,$C10,'round score'!B$3:B$31,CONCATENATE($D10,$F10))</f>
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C10,'round score'!C$3:C$31,CONCATENATE($D10,$F10))</f>
         <v>6</v>
       </c>
-      <c r="H10">
-        <f>COUNTIFS('round score (boolean)'!C$3:C$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
-        <v>7</v>
-      </c>
       <c r="I10">
-        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C10,'round score (boolean)'!$A$3:$A$31,CONCATENATE($D10,$F10))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!D$3:D$31,$C10,'round score'!D$3:D$31,CONCATENATE($D10,$F10))</f>
+        <v>13</v>
       </c>
       <c r="K10" s="2">
         <v>2.5</v>
       </c>
       <c r="L10">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C10,'round score'!G$3:G$31,CONCATENATE($D10,$K10))</f>
+        <v>11</v>
       </c>
       <c r="M10">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C10,'round score'!H$3:H$31,CONCATENATE($D10,$K10))</f>
+        <v>12</v>
       </c>
       <c r="N10">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C10,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D10,$K10))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C10,'round score'!I$3:I$31,CONCATENATE($D10,$K10))</f>
+        <v>18</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
-        <v>14</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C10,'round score'!L$3:L$31,CONCATENATE($D10,$P10))</f>
+        <v>13</v>
       </c>
       <c r="R10">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
-        <v>20</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C10,'round score'!M$3:M$31,CONCATENATE($D10,$P10))</f>
+        <v>19</v>
       </c>
       <c r="S10">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C10,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D10,$P10))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C10,'round score'!N$3:N$31,CONCATENATE($D10,$P10))</f>
         <v>22</v>
       </c>
       <c r="U10" s="2">
         <v>0.5</v>
       </c>
       <c r="V10">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
-        <v>17</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C10,'round score'!Q$3:Q$31,CONCATENATE($D10,$U10))</f>
+        <v>16</v>
       </c>
       <c r="W10">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
-        <v>21</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C10,'round score'!R$3:R$31,CONCATENATE($D10,$U10))</f>
+        <v>20</v>
       </c>
       <c r="X10">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C10,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D10,$U10))</f>
-        <v>25</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C10,'round score'!S$3:S$31,CONCATENATE($D10,$U10))</f>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -10781,50 +10779,50 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C11,'round score'!G$3:G$31,CONCATENATE($D11,$K11))</f>
         <v>13</v>
       </c>
       <c r="M11">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C11,'round score'!H$3:H$31,CONCATENATE($D11,$K11))</f>
         <v>13</v>
       </c>
       <c r="N11">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C11,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D11,$K11))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C11,'round score'!I$3:I$31,CONCATENATE($D11,$K11))</f>
         <v>8</v>
       </c>
       <c r="P11" s="2">
         <v>2</v>
       </c>
       <c r="Q11">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C11,'round score'!L$3:L$31,CONCATENATE($D11,$P11))</f>
         <v>1</v>
       </c>
       <c r="R11">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C11,'round score'!M$3:M$31,CONCATENATE($D11,$P11))</f>
         <v>0</v>
       </c>
       <c r="S11">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C11,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D11,$P11))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C11,'round score'!N$3:N$31,CONCATENATE($D11,$P11))</f>
         <v>0</v>
       </c>
       <c r="U11" s="2">
         <v>1</v>
       </c>
       <c r="V11">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C11,'round score'!Q$3:Q$31,CONCATENATE($D11,$U11))</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C11,'round score'!R$3:R$31,CONCATENATE($D11,$U11))</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C11,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D11,$U11))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C11,'round score'!S$3:S$31,CONCATENATE($D11,$U11))</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -10838,50 +10836,50 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C12,'round score'!G$3:G$31,CONCATENATE($D12,$K12))</f>
         <v>4</v>
       </c>
       <c r="M12">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C12,'round score'!H$3:H$31,CONCATENATE($D12,$K12))</f>
         <v>4</v>
       </c>
       <c r="N12">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C12,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D12,$K12))</f>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C12,'round score'!I$3:I$31,CONCATENATE($D12,$K12))</f>
         <v>1</v>
       </c>
       <c r="P12" s="2">
         <v>2</v>
       </c>
       <c r="Q12">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C12,'round score'!L$3:L$31,CONCATENATE($D12,$P12))</f>
         <v>14</v>
       </c>
       <c r="R12">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C12,'round score'!M$3:M$31,CONCATENATE($D12,$P12))</f>
         <v>9</v>
       </c>
       <c r="S12">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C12,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D12,$P12))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C12,'round score'!N$3:N$31,CONCATENATE($D12,$P12))</f>
         <v>7</v>
       </c>
       <c r="U12" s="2">
         <v>1</v>
       </c>
       <c r="V12">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C12,'round score'!Q$3:Q$31,CONCATENATE($D12,$U12))</f>
         <v>12</v>
       </c>
       <c r="W12">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C12,'round score'!R$3:R$31,CONCATENATE($D12,$U12))</f>
         <v>8</v>
       </c>
       <c r="X12">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C12,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D12,$U12))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C12,'round score'!S$3:S$31,CONCATENATE($D12,$U12))</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -10895,50 +10893,50 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C13,'round score'!G$3:G$31,CONCATENATE($D13,$K13))</f>
+        <v>8</v>
       </c>
       <c r="M13">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C13,'round score'!H$3:H$31,CONCATENATE($D13,$K13))</f>
+        <v>8</v>
       </c>
       <c r="N13">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C13,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D13,$K13))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C13,'round score'!I$3:I$31,CONCATENATE($D13,$K13))</f>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>2</v>
       </c>
       <c r="Q13">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C13,'round score'!L$3:L$31,CONCATENATE($D13,$P13))</f>
+        <v>1</v>
       </c>
       <c r="R13">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C13,'round score'!M$3:M$31,CONCATENATE($D13,$P13))</f>
+        <v>2</v>
       </c>
       <c r="S13">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C13,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D13,$P13))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C13,'round score'!N$3:N$31,CONCATENATE($D13,$P13))</f>
+        <v>1</v>
       </c>
       <c r="U13" s="2">
         <v>1</v>
       </c>
       <c r="V13">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C13,'round score'!Q$3:Q$31,CONCATENATE($D13,$U13))</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C13,'round score'!R$3:R$31,CONCATENATE($D13,$U13))</f>
         <v>0</v>
       </c>
       <c r="X13">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C13,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D13,$U13))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C13,'round score'!S$3:S$31,CONCATENATE($D13,$U13))</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -10952,50 +10950,50 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
-        <v>10</v>
+        <f>COUNTIFS('round score (boolean)'!G$3:G$31,$C14,'round score'!G$3:G$31,CONCATENATE($D14,$K14))</f>
+        <v>4</v>
       </c>
       <c r="M14">
-        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
-        <v>10</v>
+        <f>COUNTIFS('round score (boolean)'!H$3:H$31,$C14,'round score'!H$3:H$31,CONCATENATE($D14,$K14))</f>
+        <v>4</v>
       </c>
       <c r="N14">
-        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C14,'round score (boolean)'!$F$3:$F$31,CONCATENATE($D14,$K14))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!I$3:I$31,$C14,'round score'!I$3:I$31,CONCATENATE($D14,$K14))</f>
+        <v>20</v>
       </c>
       <c r="P14" s="2">
         <v>2</v>
       </c>
       <c r="Q14">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
-        <v>8</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C14,'round score'!L$3:L$31,CONCATENATE($D14,$P14))</f>
+        <v>13</v>
       </c>
       <c r="R14">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C14,'round score'!M$3:M$31,CONCATENATE($D14,$P14))</f>
+        <v>18</v>
       </c>
       <c r="S14">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C14,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D14,$P14))</f>
-        <v>15</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C14,'round score'!N$3:N$31,CONCATENATE($D14,$P14))</f>
+        <v>21</v>
       </c>
       <c r="U14" s="2">
         <v>1</v>
       </c>
       <c r="V14">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C14,'round score'!Q$3:Q$31,CONCATENATE($D14,$U14))</f>
         <v>17</v>
       </c>
       <c r="W14">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C14,'round score'!R$3:R$31,CONCATENATE($D14,$U14))</f>
         <v>21</v>
       </c>
       <c r="X14">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C14,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D14,$U14))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C14,'round score'!S$3:S$31,CONCATENATE($D14,$U14))</f>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -11011,35 +11009,35 @@
         <v>3</v>
       </c>
       <c r="Q15">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C15,'round score'!L$3:L$31,CONCATENATE($D15,$P15))</f>
         <v>2</v>
       </c>
       <c r="R15">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C15,'round score'!M$3:M$31,CONCATENATE($D15,$P15))</f>
         <v>0</v>
       </c>
       <c r="S15">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C15,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D15,$P15))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C15,'round score'!N$3:N$31,CONCATENATE($D15,$P15))</f>
         <v>0</v>
       </c>
       <c r="U15" s="2">
         <v>1.5</v>
       </c>
       <c r="V15">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C15,'round score'!Q$3:Q$31,CONCATENATE($D15,$U15))</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C15,'round score'!R$3:R$31,CONCATENATE($D15,$U15))</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C15,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D15,$U15))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C15,'round score'!S$3:S$31,CONCATENATE($D15,$U15))</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -11053,35 +11051,35 @@
         <v>3</v>
       </c>
       <c r="Q16">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C16,'round score'!L$3:L$31,CONCATENATE($D16,$P16))</f>
         <v>13</v>
       </c>
       <c r="R16">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C16,'round score'!M$3:M$31,CONCATENATE($D16,$P16))</f>
         <v>9</v>
       </c>
       <c r="S16">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C16,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D16,$P16))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C16,'round score'!N$3:N$31,CONCATENATE($D16,$P16))</f>
         <v>7</v>
       </c>
       <c r="U16" s="2">
         <v>1.5</v>
       </c>
       <c r="V16">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C16,'round score'!Q$3:Q$31,CONCATENATE($D16,$U16))</f>
         <v>12</v>
       </c>
       <c r="W16">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C16,'round score'!R$3:R$31,CONCATENATE($D16,$U16))</f>
         <v>8</v>
       </c>
       <c r="X16">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C16,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D16,$U16))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C16,'round score'!S$3:S$31,CONCATENATE($D16,$U16))</f>
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
@@ -11095,35 +11093,35 @@
         <v>3</v>
       </c>
       <c r="Q17">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
-        <v>5</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C17,'round score'!L$3:L$31,CONCATENATE($D17,$P17))</f>
+        <v>1</v>
       </c>
       <c r="R17">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C17,'round score'!M$3:M$31,CONCATENATE($D17,$P17))</f>
+        <v>3</v>
       </c>
       <c r="S17">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C17,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D17,$P17))</f>
-        <v>7</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C17,'round score'!N$3:N$31,CONCATENATE($D17,$P17))</f>
+        <v>1</v>
       </c>
       <c r="U17" s="2">
         <v>1.5</v>
       </c>
       <c r="V17">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C17,'round score'!Q$3:Q$31,CONCATENATE($D17,$U17))</f>
+        <v>0</v>
       </c>
       <c r="W17">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C17,'round score'!R$3:R$31,CONCATENATE($D17,$U17))</f>
         <v>1</v>
       </c>
       <c r="X17">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C17,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D17,$U17))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C17,'round score'!S$3:S$31,CONCATENATE($D17,$U17))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -11137,35 +11135,35 @@
         <v>3</v>
       </c>
       <c r="Q18">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
-        <v>9</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C18,'round score'!L$3:L$31,CONCATENATE($D18,$P18))</f>
+        <v>13</v>
       </c>
       <c r="R18">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C18,'round score'!M$3:M$31,CONCATENATE($D18,$P18))</f>
+        <v>17</v>
       </c>
       <c r="S18">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C18,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D18,$P18))</f>
-        <v>15</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C18,'round score'!N$3:N$31,CONCATENATE($D18,$P18))</f>
+        <v>21</v>
       </c>
       <c r="U18" s="2">
         <v>1.5</v>
       </c>
       <c r="V18">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
-        <v>16</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C18,'round score'!Q$3:Q$31,CONCATENATE($D18,$U18))</f>
+        <v>17</v>
       </c>
       <c r="W18">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C18,'round score'!R$3:R$31,CONCATENATE($D18,$U18))</f>
         <v>20</v>
       </c>
       <c r="X18">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C18,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D18,$U18))</f>
-        <v>24</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C18,'round score'!S$3:S$31,CONCATENATE($D18,$U18))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -11181,35 +11179,35 @@
         <v>4</v>
       </c>
       <c r="Q19">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C19,'round score'!L$3:L$31,CONCATENATE($D19,$P19))</f>
         <v>0</v>
       </c>
       <c r="R19">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C19,'round score'!M$3:M$31,CONCATENATE($D19,$P19))</f>
         <v>0</v>
       </c>
       <c r="S19">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C19,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D19,$P19))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C19,'round score'!N$3:N$31,CONCATENATE($D19,$P19))</f>
         <v>0</v>
       </c>
       <c r="U19" s="2">
         <v>2</v>
       </c>
       <c r="V19">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C19,'round score'!Q$3:Q$31,CONCATENATE($D19,$U19))</f>
         <v>0</v>
       </c>
       <c r="W19">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C19,'round score'!R$3:R$31,CONCATENATE($D19,$U19))</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C19,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D19,$U19))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C19,'round score'!S$3:S$31,CONCATENATE($D19,$U19))</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
@@ -11223,35 +11221,35 @@
         <v>4</v>
       </c>
       <c r="Q20">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C20,'round score'!L$3:L$31,CONCATENATE($D20,$P20))</f>
         <v>15</v>
       </c>
       <c r="R20">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C20,'round score'!M$3:M$31,CONCATENATE($D20,$P20))</f>
         <v>9</v>
       </c>
       <c r="S20">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C20,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D20,$P20))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C20,'round score'!N$3:N$31,CONCATENATE($D20,$P20))</f>
         <v>7</v>
       </c>
       <c r="U20" s="2">
         <v>2</v>
       </c>
       <c r="V20">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C20,'round score'!Q$3:Q$31,CONCATENATE($D20,$U20))</f>
         <v>12</v>
       </c>
       <c r="W20">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C20,'round score'!R$3:R$31,CONCATENATE($D20,$U20))</f>
         <v>8</v>
       </c>
       <c r="X20">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C20,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D20,$U20))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C20,'round score'!S$3:S$31,CONCATENATE($D20,$U20))</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -11265,35 +11263,35 @@
         <v>4</v>
       </c>
       <c r="Q21">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C21,'round score'!L$3:L$31,CONCATENATE($D21,$P21))</f>
+        <v>4</v>
       </c>
       <c r="R21">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C21,'round score'!M$3:M$31,CONCATENATE($D21,$P21))</f>
+        <v>9</v>
       </c>
       <c r="S21">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C21,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D21,$P21))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C21,'round score'!N$3:N$31,CONCATENATE($D21,$P21))</f>
+        <v>0</v>
       </c>
       <c r="U21" s="2">
         <v>2</v>
       </c>
       <c r="V21">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C21,'round score'!Q$3:Q$31,CONCATENATE($D21,$U21))</f>
+        <v>1</v>
       </c>
       <c r="W21">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C21,'round score'!R$3:R$31,CONCATENATE($D21,$U21))</f>
+        <v>2</v>
       </c>
       <c r="X21">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C21,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D21,$U21))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C21,'round score'!S$3:S$31,CONCATENATE($D21,$U21))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -11307,35 +11305,35 @@
         <v>4</v>
       </c>
       <c r="Q22">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C22,'round score'!L$3:L$31,CONCATENATE($D22,$P22))</f>
+        <v>10</v>
+      </c>
+      <c r="R22">
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C22,'round score'!M$3:M$31,CONCATENATE($D22,$P22))</f>
         <v>11</v>
       </c>
-      <c r="R22">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
-        <v>17</v>
-      </c>
       <c r="S22">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C22,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D22,$P22))</f>
-        <v>19</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C22,'round score'!N$3:N$31,CONCATENATE($D22,$P22))</f>
+        <v>22</v>
       </c>
       <c r="U22" s="2">
         <v>2</v>
       </c>
       <c r="V22">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
-        <v>11</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C22,'round score'!Q$3:Q$31,CONCATENATE($D22,$U22))</f>
+        <v>16</v>
       </c>
       <c r="W22">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
-        <v>15</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C22,'round score'!R$3:R$31,CONCATENATE($D22,$U22))</f>
+        <v>19</v>
       </c>
       <c r="X22">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C22,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D22,$U22))</f>
-        <v>19</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C22,'round score'!S$3:S$31,CONCATENATE($D22,$U22))</f>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="8">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -11351,35 +11349,35 @@
         <v>5</v>
       </c>
       <c r="Q23">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C23,'round score'!L$3:L$31,CONCATENATE($D23,$P23))</f>
         <v>12</v>
       </c>
       <c r="R23">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C23,'round score'!M$3:M$31,CONCATENATE($D23,$P23))</f>
         <v>9</v>
       </c>
       <c r="S23">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C23,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D23,$P23))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C23,'round score'!N$3:N$31,CONCATENATE($D23,$P23))</f>
         <v>7</v>
       </c>
       <c r="U23" s="2">
         <v>2.5</v>
       </c>
       <c r="V23">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C23,'round score'!Q$3:Q$31,CONCATENATE($D23,$U23))</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C23,'round score'!R$3:R$31,CONCATENATE($D23,$U23))</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C23,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D23,$U23))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C23,'round score'!S$3:S$31,CONCATENATE($D23,$U23))</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
@@ -11393,35 +11391,35 @@
         <v>5</v>
       </c>
       <c r="Q24">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C24,'round score'!L$3:L$31,CONCATENATE($D24,$P24))</f>
         <v>3</v>
       </c>
       <c r="R24">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C24,'round score'!M$3:M$31,CONCATENATE($D24,$P24))</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C24,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D24,$P24))</f>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C24,'round score'!N$3:N$31,CONCATENATE($D24,$P24))</f>
         <v>0</v>
       </c>
       <c r="U24" s="2">
         <v>2.5</v>
       </c>
       <c r="V24">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C24,'round score'!Q$3:Q$31,CONCATENATE($D24,$U24))</f>
         <v>12</v>
       </c>
       <c r="W24">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C24,'round score'!R$3:R$31,CONCATENATE($D24,$U24))</f>
         <v>8</v>
       </c>
       <c r="X24">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C24,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D24,$U24))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C24,'round score'!S$3:S$31,CONCATENATE($D24,$U24))</f>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
@@ -11435,35 +11433,35 @@
         <v>5</v>
       </c>
       <c r="Q25">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C25,'round score'!L$3:L$31,CONCATENATE($D25,$P25))</f>
+        <v>5</v>
       </c>
       <c r="R25">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C25,'round score'!M$3:M$31,CONCATENATE($D25,$P25))</f>
+        <v>2</v>
       </c>
       <c r="S25">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C25,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D25,$P25))</f>
-        <v>5</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C25,'round score'!N$3:N$31,CONCATENATE($D25,$P25))</f>
+        <v>1</v>
       </c>
       <c r="U25" s="2">
         <v>2.5</v>
       </c>
       <c r="V25">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
-        <v>4</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C25,'round score'!Q$3:Q$31,CONCATENATE($D25,$U25))</f>
+        <v>2</v>
       </c>
       <c r="W25">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
-        <v>4</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C25,'round score'!R$3:R$31,CONCATENATE($D25,$U25))</f>
+        <v>0</v>
       </c>
       <c r="X25">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C25,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D25,$U25))</f>
-        <v>4</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C25,'round score'!S$3:S$31,CONCATENATE($D25,$U25))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
@@ -11477,35 +11475,35 @@
         <v>5</v>
       </c>
       <c r="Q26">
-        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
-        <v>14</v>
+        <f>COUNTIFS('round score (boolean)'!L$3:L$31,$C26,'round score'!L$3:L$31,CONCATENATE($D26,$P26))</f>
+        <v>9</v>
       </c>
       <c r="R26">
-        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
-        <v>17</v>
+        <f>COUNTIFS('round score (boolean)'!M$3:M$31,$C26,'round score'!M$3:M$31,CONCATENATE($D26,$P26))</f>
+        <v>18</v>
       </c>
       <c r="S26">
-        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C26,'round score (boolean)'!$K$3:$K$31,CONCATENATE($D26,$P26))</f>
-        <v>17</v>
+        <f>COUNTIFS('round score (boolean)'!N$3:N$31,$C26,'round score'!N$3:N$31,CONCATENATE($D26,$P26))</f>
+        <v>21</v>
       </c>
       <c r="U26" s="2">
         <v>2.5</v>
       </c>
       <c r="V26">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
-        <v>13</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C26,'round score'!Q$3:Q$31,CONCATENATE($D26,$U26))</f>
+        <v>15</v>
       </c>
       <c r="W26">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
-        <v>17</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C26,'round score'!R$3:R$31,CONCATENATE($D26,$U26))</f>
+        <v>21</v>
       </c>
       <c r="X26">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C26,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D26,$U26))</f>
-        <v>21</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C26,'round score'!S$3:S$31,CONCATENATE($D26,$U26))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="8">
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11521,20 +11519,20 @@
         <v>3</v>
       </c>
       <c r="V27">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C27,'round score'!Q$3:Q$31,CONCATENATE($D27,$U27))</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C27,'round score'!R$3:R$31,CONCATENATE($D27,$U27))</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C27,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D27,$U27))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C27,'round score'!S$3:S$31,CONCATENATE($D27,$U27))</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
@@ -11548,20 +11546,20 @@
         <v>3</v>
       </c>
       <c r="V28">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C28,'round score'!Q$3:Q$31,CONCATENATE($D28,$U28))</f>
         <v>12</v>
       </c>
       <c r="W28">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C28,'round score'!R$3:R$31,CONCATENATE($D28,$U28))</f>
         <v>8</v>
       </c>
       <c r="X28">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C28,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D28,$U28))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C28,'round score'!S$3:S$31,CONCATENATE($D28,$U28))</f>
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -11575,20 +11573,20 @@
         <v>3</v>
       </c>
       <c r="V29">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C29,'round score'!Q$3:Q$31,CONCATENATE($D29,$U29))</f>
+        <v>1</v>
       </c>
       <c r="W29">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C29,'round score'!R$3:R$31,CONCATENATE($D29,$U29))</f>
+        <v>2</v>
       </c>
       <c r="X29">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C29,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D29,$U29))</f>
-        <v>3</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C29,'round score'!S$3:S$31,CONCATENATE($D29,$U29))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
@@ -11602,20 +11600,20 @@
         <v>3</v>
       </c>
       <c r="V30">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
-        <v>14</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C30,'round score'!Q$3:Q$31,CONCATENATE($D30,$U30))</f>
+        <v>16</v>
       </c>
       <c r="W30">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
-        <v>18</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C30,'round score'!R$3:R$31,CONCATENATE($D30,$U30))</f>
+        <v>19</v>
       </c>
       <c r="X30">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C30,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D30,$U30))</f>
-        <v>22</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C30,'round score'!S$3:S$31,CONCATENATE($D30,$U30))</f>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="8">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -11631,20 +11629,20 @@
         <v>3.5</v>
       </c>
       <c r="V31">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C31,'round score'!Q$3:Q$31,CONCATENATE($D31,$U31))</f>
         <v>1</v>
       </c>
       <c r="W31">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C31,'round score'!R$3:R$31,CONCATENATE($D31,$U31))</f>
         <v>0</v>
       </c>
       <c r="X31">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C31,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D31,$U31))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C31,'round score'!S$3:S$31,CONCATENATE($D31,$U31))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
@@ -11658,20 +11656,20 @@
         <v>3.5</v>
       </c>
       <c r="V32">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C32,'round score'!Q$3:Q$31,CONCATENATE($D32,$U32))</f>
         <v>11</v>
       </c>
       <c r="W32">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C32,'round score'!R$3:R$31,CONCATENATE($D32,$U32))</f>
         <v>8</v>
       </c>
       <c r="X32">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C32,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D32,$U32))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C32,'round score'!S$3:S$31,CONCATENATE($D32,$U32))</f>
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
@@ -11685,20 +11683,20 @@
         <v>3.5</v>
       </c>
       <c r="V33">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C33,'round score'!Q$3:Q$31,CONCATENATE($D33,$U33))</f>
         <v>1</v>
       </c>
       <c r="W33">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C33,'round score'!R$3:R$31,CONCATENATE($D33,$U33))</f>
+        <v>4</v>
       </c>
       <c r="X33">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C33,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D33,$U33))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C33,'round score'!S$3:S$31,CONCATENATE($D33,$U33))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
@@ -11712,20 +11710,20 @@
         <v>3.5</v>
       </c>
       <c r="V34">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C34,'round score'!Q$3:Q$31,CONCATENATE($D34,$U34))</f>
         <v>16</v>
       </c>
       <c r="W34">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
-        <v>19</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C34,'round score'!R$3:R$31,CONCATENATE($D34,$U34))</f>
+        <v>17</v>
       </c>
       <c r="X34">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C34,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D34,$U34))</f>
-        <v>23</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C34,'round score'!S$3:S$31,CONCATENATE($D34,$U34))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="8">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -11741,20 +11739,20 @@
         <v>4</v>
       </c>
       <c r="V35">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C35,'round score'!Q$3:Q$31,CONCATENATE($D35,$U35))</f>
         <v>0</v>
       </c>
       <c r="W35">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C35,'round score'!R$3:R$31,CONCATENATE($D35,$U35))</f>
         <v>0</v>
       </c>
       <c r="X35">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C35,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D35,$U35))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C35,'round score'!S$3:S$31,CONCATENATE($D35,$U35))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
@@ -11768,20 +11766,20 @@
         <v>4</v>
       </c>
       <c r="V36">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C36,'round score'!Q$3:Q$31,CONCATENATE($D36,$U36))</f>
         <v>12</v>
       </c>
       <c r="W36">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C36,'round score'!R$3:R$31,CONCATENATE($D36,$U36))</f>
         <v>8</v>
       </c>
       <c r="X36">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C36,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D36,$U36))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C36,'round score'!S$3:S$31,CONCATENATE($D36,$U36))</f>
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
@@ -11795,20 +11793,20 @@
         <v>4</v>
       </c>
       <c r="V37">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C37,'round score'!Q$3:Q$31,CONCATENATE($D37,$U37))</f>
+        <v>2</v>
       </c>
       <c r="W37">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C37,'round score'!R$3:R$31,CONCATENATE($D37,$U37))</f>
+        <v>5</v>
       </c>
       <c r="X37">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C37,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D37,$U37))</f>
-        <v>1</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C37,'round score'!S$3:S$31,CONCATENATE($D37,$U37))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
@@ -11822,20 +11820,20 @@
         <v>4</v>
       </c>
       <c r="V38">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C38,'round score'!Q$3:Q$31,CONCATENATE($D38,$U38))</f>
+        <v>15</v>
+      </c>
+      <c r="W38">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C38,'round score'!R$3:R$31,CONCATENATE($D38,$U38))</f>
         <v>16</v>
       </c>
-      <c r="W38">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
-        <v>20</v>
-      </c>
       <c r="X38">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C38,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D38,$U38))</f>
-        <v>24</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C38,'round score'!S$3:S$31,CONCATENATE($D38,$U38))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="8">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -11851,20 +11849,20 @@
         <v>4.5</v>
       </c>
       <c r="V39">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C39,'round score'!Q$3:Q$31,CONCATENATE($D39,$U39))</f>
         <v>2</v>
       </c>
       <c r="W39">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C39,'round score'!R$3:R$31,CONCATENATE($D39,$U39))</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C39,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D39,$U39))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C39,'round score'!S$3:S$31,CONCATENATE($D39,$U39))</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
@@ -11878,20 +11876,20 @@
         <v>4.5</v>
       </c>
       <c r="V40">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C40,'round score'!Q$3:Q$31,CONCATENATE($D40,$U40))</f>
         <v>10</v>
       </c>
       <c r="W40">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C40,'round score'!R$3:R$31,CONCATENATE($D40,$U40))</f>
         <v>8</v>
       </c>
       <c r="X40">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C40,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D40,$U40))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C40,'round score'!S$3:S$31,CONCATENATE($D40,$U40))</f>
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
@@ -11905,20 +11903,20 @@
         <v>4.5</v>
       </c>
       <c r="V41">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
-        <v>0</v>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C41,'round score'!Q$3:Q$31,CONCATENATE($D41,$U41))</f>
+        <v>6</v>
       </c>
       <c r="W41">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C41,'round score'!R$3:R$31,CONCATENATE($D41,$U41))</f>
+        <v>4</v>
       </c>
       <c r="X41">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C41,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D41,$U41))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C41,'round score'!S$3:S$31,CONCATENATE($D41,$U41))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -11932,20 +11930,20 @@
         <v>4.5</v>
       </c>
       <c r="V42">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C42,'round score'!Q$3:Q$31,CONCATENATE($D42,$U42))</f>
+        <v>11</v>
+      </c>
+      <c r="W42">
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C42,'round score'!R$3:R$31,CONCATENATE($D42,$U42))</f>
         <v>17</v>
       </c>
-      <c r="W42">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
-        <v>19</v>
-      </c>
       <c r="X42">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C42,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D42,$U42))</f>
-        <v>23</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C42,'round score'!S$3:S$31,CONCATENATE($D42,$U42))</f>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="8">
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -11961,20 +11959,20 @@
         <v>5</v>
       </c>
       <c r="V43">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C43,'round score'!Q$3:Q$31,CONCATENATE($D43,$U43))</f>
         <v>9</v>
       </c>
       <c r="W43">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C43,'round score'!R$3:R$31,CONCATENATE($D43,$U43))</f>
         <v>8</v>
       </c>
       <c r="X43">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C43,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D43,$U43))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C43,'round score'!S$3:S$31,CONCATENATE($D43,$U43))</f>
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
         <v>12</v>
       </c>
@@ -11988,20 +11986,20 @@
         <v>5</v>
       </c>
       <c r="V44">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C44,'round score'!Q$3:Q$31,CONCATENATE($D44,$U44))</f>
         <v>3</v>
       </c>
       <c r="W44">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C44,'round score'!R$3:R$31,CONCATENATE($D44,$U44))</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C44,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D44,$U44))</f>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C44,'round score'!S$3:S$31,CONCATENATE($D44,$U44))</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
@@ -12015,20 +12013,20 @@
         <v>5</v>
       </c>
       <c r="V45">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C45,'round score'!Q$3:Q$31,CONCATENATE($D45,$U45))</f>
         <v>1</v>
       </c>
       <c r="W45">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
-        <v>2</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C45,'round score'!R$3:R$31,CONCATENATE($D45,$U45))</f>
+        <v>0</v>
       </c>
       <c r="X45">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C45,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D45,$U45))</f>
-        <v>6</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C45,'round score'!S$3:S$31,CONCATENATE($D45,$U45))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
@@ -12042,16 +12040,16 @@
         <v>5</v>
       </c>
       <c r="V46">
-        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
+        <f>COUNTIFS('round score (boolean)'!Q$3:Q$31,$C46,'round score'!Q$3:Q$31,CONCATENATE($D46,$U46))</f>
         <v>16</v>
       </c>
       <c r="W46">
-        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
-        <v>19</v>
+        <f>COUNTIFS('round score (boolean)'!R$3:R$31,$C46,'round score'!R$3:R$31,CONCATENATE($D46,$U46))</f>
+        <v>21</v>
       </c>
       <c r="X46">
-        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C46,'round score (boolean)'!$P$3:$P$31,CONCATENATE($D46,$U46))</f>
-        <v>19</v>
+        <f>COUNTIFS('round score (boolean)'!S$3:S$31,$C46,'round score'!S$3:S$31,CONCATENATE($D46,$U46))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -12184,11 +12182,11 @@
       </c>
       <c r="J50" s="2"/>
       <c r="L50" s="2">
-        <f t="shared" ref="L50:X50" si="4">SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
+        <f>SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)</f>
         <v>12</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="M50:X50" si="4">SUM(M5,M9,M13,M17,M21,M25,M29,M33,M37,M41,M45)</f>
         <v>12</v>
       </c>
       <c r="N50" s="2">
@@ -12280,6 +12278,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:N1"/>
@@ -12290,11 +12293,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12302,1735 +12300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G5),0)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="D3">
-        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I5),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N5),0)</f>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W5),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X5),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G6),0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D4">
-        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I6),0)</f>
-        <v>0.35</v>
-      </c>
-      <c r="F4">
-        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N6),0)</f>
-        <v>4.7619047619047616E-2</v>
-      </c>
-      <c r="I4">
-        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W6),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X6),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <f>IFERROR((Contigency!G3+Contigency!G4)/(Contigency!G3+Contigency!G4+Contigency!G5+Contigency!G6),0)</f>
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="D5">
-        <f>IFERROR((Contigency!H3+Contigency!H4)/(Contigency!H3+Contigency!H4+Contigency!H5+Contigency!H6),0)</f>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="E5">
-        <f>IFERROR((Contigency!I3+Contigency!I4)/(Contigency!I3+Contigency!I4+Contigency!I5+Contigency!I6),0)</f>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="F5">
-        <f>IFERROR((Contigency!L3+Contigency!L4)/(Contigency!L3+Contigency!L4+Contigency!L5+Contigency!L6),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="G5">
-        <f>IFERROR((Contigency!M3+Contigency!M4)/(Contigency!M3+Contigency!M4+Contigency!M5+Contigency!M6),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="H5">
-        <f>IFERROR((Contigency!N3+Contigency!N4)/(Contigency!N3+Contigency!N4+Contigency!N5+Contigency!N6),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="I5">
-        <f>IFERROR((Contigency!Q3+Contigency!Q4)/(Contigency!Q3+Contigency!Q4+Contigency!Q5+Contigency!Q6),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J5">
-        <f>IFERROR((Contigency!R3+Contigency!R4)/(Contigency!R3+Contigency!R4+Contigency!R5+Contigency!R6),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K5">
-        <f>IFERROR((Contigency!S3+Contigency!S4)/(Contigency!S3+Contigency!S4+Contigency!S5+Contigency!S6),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L5">
-        <f>IFERROR((Contigency!V3+Contigency!V4)/(Contigency!V3+Contigency!V4+Contigency!V5+Contigency!V6),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M5">
-        <f>IFERROR((Contigency!W3+Contigency!W4)/(Contigency!W3+Contigency!W4+Contigency!W5+Contigency!W6),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N5">
-        <f>IFERROR((Contigency!X3+Contigency!X4)/(Contigency!X3+Contigency!X4+Contigency!X5+Contigency!X6),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <f>IFERROR(2*C3*C4/(C3+C4),0)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:E6" si="0">IFERROR(2*D3*D4/(D3+D4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6:N6" si="1">IFERROR(2*F3*F4/(F3+F4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G9),0)</f>
-        <v>0.81818181818181823</v>
-      </c>
-      <c r="D7">
-        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H9),0)</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="E7">
-        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I9),0)</f>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="F7">
-        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L9),0)</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="G7">
-        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M9),0)</f>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="H7">
-        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W9),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X9),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G10),0)</f>
-        <v>0.75</v>
-      </c>
-      <c r="D8">
-        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H10),0)</f>
-        <v>0.69565217391304346</v>
-      </c>
-      <c r="E8">
-        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I10),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L10),0)</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G8">
-        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M10),0)</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="H8">
-        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W10),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X10),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <f>IFERROR((Contigency!G7+Contigency!G8)/(Contigency!G7+Contigency!G8+Contigency!G9+Contigency!G10),0)</f>
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="D9">
-        <f>IFERROR((Contigency!H7+Contigency!H8)/(Contigency!H7+Contigency!H8+Contigency!H9+Contigency!H10),0)</f>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="E9">
-        <f>IFERROR((Contigency!I7+Contigency!I8)/(Contigency!I7+Contigency!I8+Contigency!I9+Contigency!I10),0)</f>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="F9">
-        <f>IFERROR((Contigency!L7+Contigency!L8)/(Contigency!L7+Contigency!L8+Contigency!L9+Contigency!L10),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="G9">
-        <f>IFERROR((Contigency!M7+Contigency!M8)/(Contigency!M7+Contigency!M8+Contigency!M9+Contigency!M10),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="H9">
-        <f>IFERROR((Contigency!N7+Contigency!N8)/(Contigency!N7+Contigency!N8+Contigency!N9+Contigency!N10),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="I9">
-        <f>IFERROR((Contigency!Q7+Contigency!Q8)/(Contigency!Q7+Contigency!Q8+Contigency!Q9+Contigency!Q10),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J9">
-        <f>IFERROR((Contigency!R7+Contigency!R8)/(Contigency!R7+Contigency!R8+Contigency!R9+Contigency!R10),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K9">
-        <f>IFERROR((Contigency!S7+Contigency!S8)/(Contigency!S7+Contigency!S8+Contigency!S9+Contigency!S10),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L9">
-        <f>IFERROR((Contigency!V7+Contigency!V8)/(Contigency!V7+Contigency!V8+Contigency!V9+Contigency!V10),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M9">
-        <f>IFERROR((Contigency!W7+Contigency!W8)/(Contigency!W7+Contigency!W8+Contigency!W9+Contigency!W10),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N9">
-        <f>IFERROR((Contigency!X7+Contigency!X8)/(Contigency!X7+Contigency!X8+Contigency!X9+Contigency!X10),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <f>IFERROR(2*C7*C8/(C7+C8),0)</f>
-        <v>0.78260869565217384</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:E10" si="2">IFERROR(2*D7*D8/(D7+D8),0)</f>
-        <v>0.71111111111111103</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>0.58064516129032262</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ref="F10:H10" si="3">IFERROR(2*F7*F8/(F7+F8),0)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:K10" si="4">IFERROR(2*I7*I8/(I7+I8),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ref="L10:N10" si="5">IFERROR(2*L7*L8/(L7+L8),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11">
-        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L13),0)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="G11">
-        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M13),0)</f>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H11">
-        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N13),0)</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="I11">
-        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q13),0)</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="J11">
-        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W13),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X13),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L14),0)</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="G12">
-        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M14),0)</f>
-        <v>0.56521739130434778</v>
-      </c>
-      <c r="H12">
-        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N14),0)</f>
-        <v>0.38095238095238093</v>
-      </c>
-      <c r="I12">
-        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q14),0)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J12">
-        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W14),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X14),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13">
-        <f>IFERROR((Contigency!L11+Contigency!L12)/(Contigency!L11+Contigency!L12+Contigency!L13+Contigency!L14),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="G13">
-        <f>IFERROR((Contigency!M11+Contigency!M12)/(Contigency!M11+Contigency!M12+Contigency!M13+Contigency!M14),0)</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="H13">
-        <f>IFERROR((Contigency!N11+Contigency!N12)/(Contigency!N11+Contigency!N12+Contigency!N13+Contigency!N14),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="I13">
-        <f>IFERROR((Contigency!Q11+Contigency!Q12)/(Contigency!Q11+Contigency!Q12+Contigency!Q13+Contigency!Q14),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J13">
-        <f>IFERROR((Contigency!R11+Contigency!R12)/(Contigency!R11+Contigency!R12+Contigency!R13+Contigency!R14),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K13">
-        <f>IFERROR((Contigency!S11+Contigency!S12)/(Contigency!S11+Contigency!S12+Contigency!S13+Contigency!S14),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L13">
-        <f>IFERROR((Contigency!V11+Contigency!V12)/(Contigency!V11+Contigency!V12+Contigency!V13+Contigency!V14),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M13">
-        <f>IFERROR((Contigency!W11+Contigency!W12)/(Contigency!W11+Contigency!W12+Contigency!W13+Contigency!W14),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N13">
-        <f>IFERROR((Contigency!X11+Contigency!X12)/(Contigency!X11+Contigency!X12+Contigency!X13+Contigency!X14),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <f t="shared" ref="F14:H14" si="6">IFERROR(2*F11*F12/(F11+F12),0)</f>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ref="I14:K14" si="7">IFERROR(2*I11*I12/(I11+I12),0)</f>
-        <v>0.125</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ref="L14:N14" si="8">IFERROR(2*L11*L12/(L11+L12),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15">
-        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q17),0)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J15">
-        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W17),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X17),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q18),0)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="J16">
-        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W18),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X18),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
-        <f>IFERROR((Contigency!Q15+Contigency!Q16)/(Contigency!Q15+Contigency!Q16+Contigency!Q17+Contigency!Q18),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J17">
-        <f>IFERROR((Contigency!R15+Contigency!R16)/(Contigency!R15+Contigency!R16+Contigency!R17+Contigency!R18),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K17">
-        <f>IFERROR((Contigency!S15+Contigency!S16)/(Contigency!S15+Contigency!S16+Contigency!S17+Contigency!S18),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L17">
-        <f>IFERROR((Contigency!V15+Contigency!V16)/(Contigency!V15+Contigency!V16+Contigency!V17+Contigency!V18),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M17">
-        <f>IFERROR((Contigency!W15+Contigency!W16)/(Contigency!W15+Contigency!W16+Contigency!W17+Contigency!W18),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N17">
-        <f>IFERROR((Contigency!X15+Contigency!X16)/(Contigency!X15+Contigency!X16+Contigency!X17+Contigency!X18),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ref="I18:K18" si="9">IFERROR(2*I15*I16/(I15+I16),0)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18:N18" si="10">IFERROR(2*L15*L16/(L15+L16),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W21),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X21),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W22),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X22),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <f>IFERROR((Contigency!Q19+Contigency!Q20)/(Contigency!Q19+Contigency!Q20+Contigency!Q21+Contigency!Q22),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J21">
-        <f>IFERROR((Contigency!R19+Contigency!R20)/(Contigency!R19+Contigency!R20+Contigency!R21+Contigency!R22),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K21">
-        <f>IFERROR((Contigency!S19+Contigency!S20)/(Contigency!S19+Contigency!S20+Contigency!S21+Contigency!S22),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L21">
-        <f>IFERROR((Contigency!V19+Contigency!V20)/(Contigency!V19+Contigency!V20+Contigency!V21+Contigency!V22),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M21">
-        <f>IFERROR((Contigency!W19+Contigency!W20)/(Contigency!W19+Contigency!W20+Contigency!W21+Contigency!W22),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N21">
-        <f>IFERROR((Contigency!X19+Contigency!X20)/(Contigency!X19+Contigency!X20+Contigency!X21+Contigency!X22),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ref="I22:K22" si="11">IFERROR(2*I19*I20/(I19+I20),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ref="L22:N22" si="12">IFERROR(2*L19*L20/(L19+L20),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23">
-        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q25),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R25),0)</f>
-        <v>0.75</v>
-      </c>
-      <c r="K23">
-        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S25),0)</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L23">
-        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W25),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X25),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24">
-        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q26),0)</f>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="J24">
-        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R26),0)</f>
-        <v>0.34615384615384615</v>
-      </c>
-      <c r="K24">
-        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S26),0)</f>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L24">
-        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V26),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W26),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X26),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25">
-        <f>IFERROR((Contigency!Q23+Contigency!Q24)/(Contigency!Q23+Contigency!Q24+Contigency!Q25+Contigency!Q26),0)</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J25">
-        <f>IFERROR((Contigency!R23+Contigency!R24)/(Contigency!R23+Contigency!R24+Contigency!R25+Contigency!R26),0)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K25">
-        <f>IFERROR((Contigency!S23+Contigency!S24)/(Contigency!S23+Contigency!S24+Contigency!S25+Contigency!S26),0)</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L25">
-        <f>IFERROR((Contigency!V23+Contigency!V24)/(Contigency!V23+Contigency!V24+Contigency!V25+Contigency!V26),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M25">
-        <f>IFERROR((Contigency!W23+Contigency!W24)/(Contigency!W23+Contigency!W24+Contigency!W25+Contigency!W26),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N25">
-        <f>IFERROR((Contigency!X23+Contigency!X24)/(Contigency!X23+Contigency!X24+Contigency!X25+Contigency!X26),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:K26" si="13">IFERROR(2*I23*I24/(I23+I24),0)</f>
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="13"/>
-        <v>0.47368421052631571</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="13"/>
-        <v>0.38888888888888895</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26:N26" si="14">IFERROR(2*L23*L24/(L23+L24),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27">
-        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W29),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X29),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28">
-        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W30),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X30),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29">
-        <f>IFERROR((Contigency!V27+Contigency!V28)/(Contigency!V27+Contigency!V28+Contigency!V29+Contigency!V30),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M29">
-        <f>IFERROR((Contigency!W27+Contigency!W28)/(Contigency!W27+Contigency!W28+Contigency!W29+Contigency!W30),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N29">
-        <f>IFERROR((Contigency!X27+Contigency!X28)/(Contigency!X27+Contigency!X28+Contigency!X29+Contigency!X30),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ref="L30:N30" si="15">IFERROR(2*L27*L28/(L27+L28),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31">
-        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V33),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M31">
-        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W33),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X33),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32">
-        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V34),0)</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="M32">
-        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W34),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X34),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="L33">
-        <f>IFERROR((Contigency!V31+Contigency!V32)/(Contigency!V31+Contigency!V32+Contigency!V33+Contigency!V34),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M33">
-        <f>IFERROR((Contigency!W31+Contigency!W32)/(Contigency!W31+Contigency!W32+Contigency!W33+Contigency!W34),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N33">
-        <f>IFERROR((Contigency!X31+Contigency!X32)/(Contigency!X31+Contigency!X32+Contigency!X33+Contigency!X34),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ref="L34:N34" si="16">IFERROR(2*L31*L32/(L31+L32),0)</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35">
-        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V37),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W37),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X37),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36">
-        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V38),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W38),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X38),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="L37">
-        <f>IFERROR((Contigency!V35+Contigency!V36)/(Contigency!V35+Contigency!V36+Contigency!V37+Contigency!V38),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M37">
-        <f>IFERROR((Contigency!W35+Contigency!W36)/(Contigency!W35+Contigency!W36+Contigency!W37+Contigency!W38),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N37">
-        <f>IFERROR((Contigency!X35+Contigency!X36)/(Contigency!X35+Contigency!X36+Contigency!X37+Contigency!X38),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <f t="shared" ref="L38:N38" si="17">IFERROR(2*L35*L36/(L35+L36),0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39">
-        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V41),0)</f>
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W41),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X41),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40">
-        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V42),0)</f>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="M40">
-        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W42),0)</f>
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X42),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41">
-        <f>IFERROR((Contigency!V39+Contigency!V40)/(Contigency!V39+Contigency!V40+Contigency!V41+Contigency!V42),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M41">
-        <f>IFERROR((Contigency!W39+Contigency!W40)/(Contigency!W39+Contigency!W40+Contigency!W41+Contigency!W42),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N41">
-        <f>IFERROR((Contigency!X39+Contigency!X40)/(Contigency!X39+Contigency!X40+Contigency!X41+Contigency!X42),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42">
-        <f t="shared" ref="L42:N42" si="18">IFERROR(2*L39*L40/(L39+L40),0)</f>
-        <v>0.19047619047619049</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43">
-        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V45),0)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M43">
-        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W45),0)</f>
-        <v>0.8</v>
-      </c>
-      <c r="N43">
-        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X45),0)</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44">
-        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V46),0)</f>
-        <v>0.36</v>
-      </c>
-      <c r="M44">
-        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W46),0)</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="N44">
-        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X46),0)</f>
-        <v>0.17391304347826086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45">
-        <f>IFERROR((Contigency!V43+Contigency!V44)/(Contigency!V43+Contigency!V44+Contigency!V45+Contigency!V46),0)</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M45">
-        <f>IFERROR((Contigency!W43+Contigency!W44)/(Contigency!W43+Contigency!W44+Contigency!W45+Contigency!W46),0)</f>
-        <v>0.27586206896551724</v>
-      </c>
-      <c r="N45">
-        <f>IFERROR((Contigency!X43+Contigency!X44)/(Contigency!X43+Contigency!X44+Contigency!X45+Contigency!X46),0)</f>
-        <v>0.13793103448275862</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46">
-        <f t="shared" ref="L46:N46" si="19">IFERROR(2*L43*L44/(L43+L44),0)</f>
-        <v>0.51428571428571435</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="19"/>
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="19"/>
-        <v>0.24242424242424243</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="C48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <f>SUM(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43)/2</f>
-        <v>0.48051948051948057</v>
-      </c>
-      <c r="D50">
-        <f t="shared" ref="D50:E50" si="20">SUM(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43)/2</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="20"/>
-        <v>0.70454545454545459</v>
-      </c>
-      <c r="F50">
-        <f>SUM(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43)/3</f>
-        <v>0.39145299145299145</v>
-      </c>
-      <c r="G50">
-        <f t="shared" ref="G50:H50" si="21">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)/3</f>
-        <v>0.39145299145299145</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="21"/>
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="I50">
-        <f>SUM(I3,I7,I11,I15,I19,I23,I27,I31,I35,I39,I43)/6</f>
-        <v>0.23809523809523811</v>
-      </c>
-      <c r="J50">
-        <f t="shared" ref="J50:K50" si="22">SUM(J3,J7,J11,J15,J19,J23,J27,J31,J35,J39,J43)/6</f>
-        <v>0.125</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="22"/>
-        <v>9.7222222222222224E-2</v>
-      </c>
-      <c r="L50">
-        <f>SUM(L3,L7,L11,L15,L19,L23,L27,L31,L35,L39,L43)/11</f>
-        <v>0.21818181818181817</v>
-      </c>
-      <c r="M50">
-        <f t="shared" ref="M50:N50" si="23">SUM(M3,M7,M11,M15,M19,M23,M27,M31,M35,M39,M43)/11</f>
-        <v>7.2727272727272738E-2</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="23"/>
-        <v>3.6363636363636369E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <f>SUM(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44)/2</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:E51" si="24">SUM(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44)/2</f>
-        <v>0.34782608695652173</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="24"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="F51">
-        <f>SUM(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44)/3</f>
-        <v>0.37888198757763975</v>
-      </c>
-      <c r="G51">
-        <f t="shared" ref="G51:H51" si="25">SUM(G4,G8,G12,G16,G20,G24,G28,G32,G36,G40,G44)/3</f>
-        <v>0.37888198757763975</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="25"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I51">
-        <f>SUM(I4,I8,I12,I16,I20,I24,I28,I32,I36,I40,I44)/6</f>
-        <v>0.12574462574462575</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ref="J51:K51" si="26">SUM(J4,J8,J12,J16,J20,J24,J28,J32,J36,J40,J44)/6</f>
-        <v>5.7692307692307689E-2</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="26"/>
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="L51">
-        <f>SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)/11</f>
-        <v>4.7644244300591047E-2</v>
-      </c>
-      <c r="M51">
-        <f t="shared" ref="M51:N51" si="27">SUM(M4,M8,M12,M16,M20,M24,M28,M32,M36,M40,M44)/11</f>
-        <v>2.6936026936026935E-2</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="27"/>
-        <v>1.5810276679841896E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <f>SUM(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)/2</f>
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ref="D52:E52" si="28">SUM(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45)/2</f>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="28"/>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="F52">
-        <f>SUM(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45)/3</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="G52">
-        <f t="shared" ref="G52:H52" si="29">SUM(G5,G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)/3</f>
-        <v>0.58620689655172409</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="29"/>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="I52">
-        <f>SUM(I5,I9,I13,I17,I21,I25,I29,I33,I37,I41,I45)/6</f>
-        <v>0.51724137931034486</v>
-      </c>
-      <c r="J52">
-        <f t="shared" ref="J52:K52" si="30">SUM(J5,J9,J13,J17,J21,J25,J29,J33,J37,J41,J45)/6</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="30"/>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L52">
-        <f>SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)/11</f>
-        <v>0.41379310344827586</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ref="M52:N52" si="31">SUM(M5,M9,M13,M17,M21,M25,M29,M33,M37,M41,M45)/11</f>
-        <v>0.27586206896551729</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="31"/>
-        <v>0.13793103448275865</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53">
-        <f>SUM(C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46)/2</f>
-        <v>0.47463768115942023</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ref="D53:E53" si="32">SUM(D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46)/2</f>
-        <v>0.35555555555555551</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="32"/>
-        <v>0.54958183990442055</v>
-      </c>
-      <c r="F53">
-        <f>SUM(F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46)/3</f>
-        <v>0.36140350877192984</v>
-      </c>
-      <c r="G53">
-        <f t="shared" ref="G53:H53" si="33">SUM(G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46)/3</f>
-        <v>0.36140350877192984</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="33"/>
-        <v>0.17845117845117844</v>
-      </c>
-      <c r="I53">
-        <f>SUM(I6,I10,I14,I18,I22,I26,I30,I34,I38,I42,I46)/6</f>
-        <v>0.16313352826510721</v>
-      </c>
-      <c r="J53">
-        <f t="shared" ref="J53:K53" si="34">SUM(J6,J10,J14,J18,J22,J26,J30,J34,J38,J42,J46)/6</f>
-        <v>7.8947368421052613E-2</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="34"/>
-        <v>6.4814814814814825E-2</v>
-      </c>
-      <c r="L53">
-        <f>SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)/11</f>
-        <v>7.3638642059694698E-2</v>
-      </c>
-      <c r="M53">
-        <f t="shared" ref="M53:N53" si="35">SUM(M6,M10,M14,M18,M22,M26,M30,M34,M38,M42,M46)/11</f>
-        <v>3.9312039312039311E-2</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="35"/>
-        <v>2.2038567493112948E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14042,26 +12315,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -14082,22 +12355,22 @@
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14129,27 +12402,27 @@
         <f>Contigency!N48/(Contigency!N48+Contigency!N50)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <f>Contigency!Q48/(Contigency!Q48+Contigency!Q50)</f>
         <v>0.51724137931034486</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <f>Contigency!R48/(Contigency!R48+Contigency!R50)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f>Contigency!S48/(Contigency!S48+Contigency!S50)</f>
         <v>0.2413793103448276</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <f>Contigency!V48/(Contigency!V48+Contigency!V50)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <f>Contigency!W48/(Contigency!W48+Contigency!W50)</f>
         <v>0.27586206896551724</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="6">
         <f>Contigency!X48/(Contigency!X48+Contigency!X50)</f>
         <v>0.13793103448275862</v>
       </c>
@@ -14182,27 +12455,27 @@
         <f>Contigency!N48/(Contigency!N48+Contigency!N51)</f>
         <v>0.18367346938775511</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <f>Contigency!Q48/(Contigency!Q48+Contigency!Q51)</f>
         <v>0.17647058823529413</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <f>Contigency!R48/(Contigency!R48+Contigency!R51)</f>
         <v>8.2568807339449546E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <f>Contigency!S48/(Contigency!S48+Contigency!S51)</f>
         <v>5.9829059829059832E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <f>Contigency!V48/(Contigency!V48+Contigency!V51)</f>
         <v>6.5934065934065936E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <f>Contigency!W48/(Contigency!W48+Contigency!W51)</f>
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <f>Contigency!X48/(Contigency!X48+Contigency!X51)</f>
         <v>1.5748031496062992E-2</v>
       </c>
@@ -14235,27 +12508,27 @@
         <f>(Contigency!N48+Contigency!N49)/(Contigency!N48+Contigency!N49+Contigency!N50+Contigency!N51)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <f>(Contigency!Q48+Contigency!Q49)/(Contigency!Q48+Contigency!Q49+Contigency!Q50+Contigency!Q51)</f>
         <v>0.51724137931034486</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <f>(Contigency!R48+Contigency!R49)/(Contigency!R48+Contigency!R49+Contigency!R50+Contigency!R51)</f>
         <v>0.31034482758620691</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f>(Contigency!S48+Contigency!S49)/(Contigency!S48+Contigency!S49+Contigency!S50+Contigency!S51)</f>
         <v>0.2413793103448276</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="6">
         <f>(Contigency!V48+Contigency!V49)/(Contigency!V48+Contigency!V49+Contigency!V50+Contigency!V51)</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="6">
         <f>(Contigency!W48+Contigency!W49)/(Contigency!W48+Contigency!W49+Contigency!W50+Contigency!W51)</f>
         <v>0.27586206896551724</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="6">
         <f>(Contigency!X48+Contigency!X49)/(Contigency!X48+Contigency!X49+Contigency!X50+Contigency!X51)</f>
         <v>0.13793103448275862</v>
       </c>
@@ -14288,27 +12561,27 @@
         <f t="shared" si="1"/>
         <v>0.23076923076923075</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>0.13043478260869568</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>9.5890410958904118E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <f t="shared" si="1"/>
         <v>0.11374407582938389</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
         <v>6.4777327935222673E-2</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
         <v>2.8268551236749116E-2</v>
       </c>
@@ -14362,4 +12635,1729 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G5),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I5),0)</f>
+        <v>0.35</v>
+      </c>
+      <c r="F3">
+        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N5),0)</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I3">
+        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G6),0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D4">
+        <f>IFERROR(Contigency!H3/(Contigency!H3+Contigency!H6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>IFERROR(Contigency!I3/(Contigency!I3+Contigency!I6),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>IFERROR(Contigency!L3/(Contigency!L3+Contigency!L6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>IFERROR(Contigency!M3/(Contigency!M3+Contigency!M6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>IFERROR(Contigency!N3/(Contigency!N3+Contigency!N6),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4">
+        <f>IFERROR(Contigency!Q3/(Contigency!Q3+Contigency!Q6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>IFERROR(Contigency!R3/(Contigency!R3+Contigency!R6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>IFERROR(Contigency!S3/(Contigency!S3+Contigency!S6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>IFERROR(Contigency!V3/(Contigency!V3+Contigency!V6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>IFERROR(Contigency!W3/(Contigency!W3+Contigency!W6),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>IFERROR(Contigency!X3/(Contigency!X3+Contigency!X6),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <f>IFERROR((Contigency!G3+Contigency!G4)/(Contigency!G3+Contigency!G4+Contigency!G5+Contigency!G6),0)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D5">
+        <f>IFERROR((Contigency!H3+Contigency!H4)/(Contigency!H3+Contigency!H4+Contigency!H5+Contigency!H6),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E5">
+        <f>IFERROR((Contigency!I3+Contigency!I4)/(Contigency!I3+Contigency!I4+Contigency!I5+Contigency!I6),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F5">
+        <f>IFERROR((Contigency!L3+Contigency!L4)/(Contigency!L3+Contigency!L4+Contigency!L5+Contigency!L6),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G5">
+        <f>IFERROR((Contigency!M3+Contigency!M4)/(Contigency!M3+Contigency!M4+Contigency!M5+Contigency!M6),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H5">
+        <f>IFERROR((Contigency!N3+Contigency!N4)/(Contigency!N3+Contigency!N4+Contigency!N5+Contigency!N6),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I5">
+        <f>IFERROR((Contigency!Q3+Contigency!Q4)/(Contigency!Q3+Contigency!Q4+Contigency!Q5+Contigency!Q6),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J5">
+        <f>IFERROR((Contigency!R3+Contigency!R4)/(Contigency!R3+Contigency!R4+Contigency!R5+Contigency!R6),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K5">
+        <f>IFERROR((Contigency!S3+Contigency!S4)/(Contigency!S3+Contigency!S4+Contigency!S5+Contigency!S6),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L5">
+        <f>IFERROR((Contigency!V3+Contigency!V4)/(Contigency!V3+Contigency!V4+Contigency!V5+Contigency!V6),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M5">
+        <f>IFERROR((Contigency!W3+Contigency!W4)/(Contigency!W3+Contigency!W4+Contigency!W5+Contigency!W6),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N5">
+        <f>IFERROR((Contigency!X3+Contigency!X4)/(Contigency!X3+Contigency!X4+Contigency!X5+Contigency!X6),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f>IFERROR(2*C3*C4/(C3+C4),0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:E6" si="0">IFERROR(2*D3*D4/(D3+D4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:N6" si="1">IFERROR(2*F3*F4/(F3+F4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G9),0)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D7">
+        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H9),0)</f>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="E7">
+        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I9),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L9),0)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M9),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X9),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G10),0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="D8">
+        <f>IFERROR(Contigency!H7/(Contigency!H7+Contigency!H10),0)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="E8">
+        <f>IFERROR(Contigency!I7/(Contigency!I7+Contigency!I10),0)</f>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="F8">
+        <f>IFERROR(Contigency!L7/(Contigency!L7+Contigency!L10),0)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="G8">
+        <f>IFERROR(Contigency!M7/(Contigency!M7+Contigency!M10),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <f>IFERROR(Contigency!N7/(Contigency!N7+Contigency!N10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IFERROR(Contigency!Q7/(Contigency!Q7+Contigency!Q10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>IFERROR(Contigency!R7/(Contigency!R7+Contigency!R10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>IFERROR(Contigency!S7/(Contigency!S7+Contigency!S10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>IFERROR(Contigency!V7/(Contigency!V7+Contigency!V10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>IFERROR(Contigency!W7/(Contigency!W7+Contigency!W10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>IFERROR(Contigency!X7/(Contigency!X7+Contigency!X10),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <f>IFERROR((Contigency!G7+Contigency!G8)/(Contigency!G7+Contigency!G8+Contigency!G9+Contigency!G10),0)</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D9">
+        <f>IFERROR((Contigency!H7+Contigency!H8)/(Contigency!H7+Contigency!H8+Contigency!H9+Contigency!H10),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E9">
+        <f>IFERROR((Contigency!I7+Contigency!I8)/(Contigency!I7+Contigency!I8+Contigency!I9+Contigency!I10),0)</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F9">
+        <f>IFERROR((Contigency!L7+Contigency!L8)/(Contigency!L7+Contigency!L8+Contigency!L9+Contigency!L10),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G9">
+        <f>IFERROR((Contigency!M7+Contigency!M8)/(Contigency!M7+Contigency!M8+Contigency!M9+Contigency!M10),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H9">
+        <f>IFERROR((Contigency!N7+Contigency!N8)/(Contigency!N7+Contigency!N8+Contigency!N9+Contigency!N10),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I9">
+        <f>IFERROR((Contigency!Q7+Contigency!Q8)/(Contigency!Q7+Contigency!Q8+Contigency!Q9+Contigency!Q10),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J9">
+        <f>IFERROR((Contigency!R7+Contigency!R8)/(Contigency!R7+Contigency!R8+Contigency!R9+Contigency!R10),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K9">
+        <f>IFERROR((Contigency!S7+Contigency!S8)/(Contigency!S7+Contigency!S8+Contigency!S9+Contigency!S10),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L9">
+        <f>IFERROR((Contigency!V7+Contigency!V8)/(Contigency!V7+Contigency!V8+Contigency!V9+Contigency!V10),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M9">
+        <f>IFERROR((Contigency!W7+Contigency!W8)/(Contigency!W7+Contigency!W8+Contigency!W9+Contigency!W10),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N9">
+        <f>IFERROR((Contigency!X7+Contigency!X8)/(Contigency!X7+Contigency!X8+Contigency!X9+Contigency!X10),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <f>IFERROR(2*C7*C8/(C7+C8),0)</f>
+        <v>0.78260869565217384</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:E10" si="2">IFERROR(2*D7*D8/(D7+D8),0)</f>
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:H10" si="3">IFERROR(2*F7*F8/(F7+F8),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:K10" si="4">IFERROR(2*I7*I8/(I7+I8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:N10" si="5">IFERROR(2*L7*L8/(L7+L8),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L13),0)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="G11">
+        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M13),0)</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H11">
+        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N13),0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q13),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X13),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L14),0)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G12">
+        <f>IFERROR(Contigency!M11/(Contigency!M11+Contigency!M14),0)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="H12">
+        <f>IFERROR(Contigency!N11/(Contigency!N11+Contigency!N14),0)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I12">
+        <f>IFERROR(Contigency!Q11/(Contigency!Q11+Contigency!Q14),0)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J12">
+        <f>IFERROR(Contigency!R11/(Contigency!R11+Contigency!R14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>IFERROR(Contigency!S11/(Contigency!S11+Contigency!S14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>IFERROR(Contigency!V11/(Contigency!V11+Contigency!V14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>IFERROR(Contigency!W11/(Contigency!W11+Contigency!W14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>IFERROR(Contigency!X11/(Contigency!X11+Contigency!X14),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f>IFERROR((Contigency!L11+Contigency!L12)/(Contigency!L11+Contigency!L12+Contigency!L13+Contigency!L14),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G13">
+        <f>IFERROR((Contigency!M11+Contigency!M12)/(Contigency!M11+Contigency!M12+Contigency!M13+Contigency!M14),0)</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H13">
+        <f>IFERROR((Contigency!N11+Contigency!N12)/(Contigency!N11+Contigency!N12+Contigency!N13+Contigency!N14),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I13">
+        <f>IFERROR((Contigency!Q11+Contigency!Q12)/(Contigency!Q11+Contigency!Q12+Contigency!Q13+Contigency!Q14),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J13">
+        <f>IFERROR((Contigency!R11+Contigency!R12)/(Contigency!R11+Contigency!R12+Contigency!R13+Contigency!R14),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K13">
+        <f>IFERROR((Contigency!S11+Contigency!S12)/(Contigency!S11+Contigency!S12+Contigency!S13+Contigency!S14),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L13">
+        <f>IFERROR((Contigency!V11+Contigency!V12)/(Contigency!V11+Contigency!V12+Contigency!V13+Contigency!V14),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M13">
+        <f>IFERROR((Contigency!W11+Contigency!W12)/(Contigency!W11+Contigency!W12+Contigency!W13+Contigency!W14),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N13">
+        <f>IFERROR((Contigency!X11+Contigency!X12)/(Contigency!X11+Contigency!X12+Contigency!X13+Contigency!X14),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:H14" si="6">IFERROR(2*F11*F12/(F11+F12),0)</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14:K14" si="7">IFERROR(2*I11*I12/(I11+I12),0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:N14" si="8">IFERROR(2*L11*L12/(L11+L12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15">
+        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q17),0)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J15">
+        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X17),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q18),0)</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J16">
+        <f>IFERROR(Contigency!R15/(Contigency!R15+Contigency!R18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IFERROR(Contigency!S15/(Contigency!S15+Contigency!S18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IFERROR(Contigency!V15/(Contigency!V15+Contigency!V18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>IFERROR(Contigency!W15/(Contigency!W15+Contigency!W18),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>IFERROR(Contigency!X15/(Contigency!X15+Contigency!X18),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <f>IFERROR((Contigency!Q15+Contigency!Q16)/(Contigency!Q15+Contigency!Q16+Contigency!Q17+Contigency!Q18),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J17">
+        <f>IFERROR((Contigency!R15+Contigency!R16)/(Contigency!R15+Contigency!R16+Contigency!R17+Contigency!R18),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K17">
+        <f>IFERROR((Contigency!S15+Contigency!S16)/(Contigency!S15+Contigency!S16+Contigency!S17+Contigency!S18),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L17">
+        <f>IFERROR((Contigency!V15+Contigency!V16)/(Contigency!V15+Contigency!V16+Contigency!V17+Contigency!V18),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M17">
+        <f>IFERROR((Contigency!W15+Contigency!W16)/(Contigency!W15+Contigency!W16+Contigency!W17+Contigency!W18),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N17">
+        <f>IFERROR((Contigency!X15+Contigency!X16)/(Contigency!X15+Contigency!X16+Contigency!X17+Contigency!X18),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:K18" si="9">IFERROR(2*I15*I16/(I15+I16),0)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:N18" si="10">IFERROR(2*L15*L16/(L15+L16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W21),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X21),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>IFERROR(Contigency!R19/(Contigency!R19+Contigency!R22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>IFERROR(Contigency!S19/(Contigency!S19+Contigency!S22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IFERROR(Contigency!V19/(Contigency!V19+Contigency!V22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>IFERROR(Contigency!W19/(Contigency!W19+Contigency!W22),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>IFERROR(Contigency!X19/(Contigency!X19+Contigency!X22),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f>IFERROR((Contigency!Q19+Contigency!Q20)/(Contigency!Q19+Contigency!Q20+Contigency!Q21+Contigency!Q22),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J21">
+        <f>IFERROR((Contigency!R19+Contigency!R20)/(Contigency!R19+Contigency!R20+Contigency!R21+Contigency!R22),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K21">
+        <f>IFERROR((Contigency!S19+Contigency!S20)/(Contigency!S19+Contigency!S20+Contigency!S21+Contigency!S22),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L21">
+        <f>IFERROR((Contigency!V19+Contigency!V20)/(Contigency!V19+Contigency!V20+Contigency!V21+Contigency!V22),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M21">
+        <f>IFERROR((Contigency!W19+Contigency!W20)/(Contigency!W19+Contigency!W20+Contigency!W21+Contigency!W22),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N21">
+        <f>IFERROR((Contigency!X19+Contigency!X20)/(Contigency!X19+Contigency!X20+Contigency!X21+Contigency!X22),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:K22" si="11">IFERROR(2*I19*I20/(I19+I20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:N22" si="12">IFERROR(2*L19*L20/(L19+L20),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q25),0)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="J23">
+        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R25),0)</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="K23">
+        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S25),0)</f>
+        <v>0.875</v>
+      </c>
+      <c r="L23">
+        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W25),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X25),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q26),0)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J24">
+        <f>IFERROR(Contigency!R23/(Contigency!R23+Contigency!R26),0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K24">
+        <f>IFERROR(Contigency!S23/(Contigency!S23+Contigency!S26),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="L24">
+        <f>IFERROR(Contigency!V23/(Contigency!V23+Contigency!V26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>IFERROR(Contigency!W23/(Contigency!W23+Contigency!W26),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>IFERROR(Contigency!X23/(Contigency!X23+Contigency!X26),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <f>IFERROR((Contigency!Q23+Contigency!Q24)/(Contigency!Q23+Contigency!Q24+Contigency!Q25+Contigency!Q26),0)</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J25">
+        <f>IFERROR((Contigency!R23+Contigency!R24)/(Contigency!R23+Contigency!R24+Contigency!R25+Contigency!R26),0)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K25">
+        <f>IFERROR((Contigency!S23+Contigency!S24)/(Contigency!S23+Contigency!S24+Contigency!S25+Contigency!S26),0)</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L25">
+        <f>IFERROR((Contigency!V23+Contigency!V24)/(Contigency!V23+Contigency!V24+Contigency!V25+Contigency!V26),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M25">
+        <f>IFERROR((Contigency!W23+Contigency!W24)/(Contigency!W23+Contigency!W24+Contigency!W25+Contigency!W26),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N25">
+        <f>IFERROR((Contigency!X23+Contigency!X24)/(Contigency!X23+Contigency!X24+Contigency!X25+Contigency!X26),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:K26" si="13">IFERROR(2*I23*I24/(I23+I24),0)</f>
+        <v>0.63157894736842113</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="13"/>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="13"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:N26" si="14">IFERROR(2*L23*L24/(L23+L24),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27">
+        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W29),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X29),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>IFERROR(Contigency!W27/(Contigency!W27+Contigency!W30),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>IFERROR(Contigency!X27/(Contigency!X27+Contigency!X30),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29">
+        <f>IFERROR((Contigency!V27+Contigency!V28)/(Contigency!V27+Contigency!V28+Contigency!V29+Contigency!V30),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M29">
+        <f>IFERROR((Contigency!W27+Contigency!W28)/(Contigency!W27+Contigency!W28+Contigency!W29+Contigency!W30),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N29">
+        <f>IFERROR((Contigency!X27+Contigency!X28)/(Contigency!X27+Contigency!X28+Contigency!X29+Contigency!X30),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:N30" si="15">IFERROR(2*L27*L28/(L27+L28),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V33),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W33),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X33),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V34),0)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M32">
+        <f>IFERROR(Contigency!W31/(Contigency!W31+Contigency!W34),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>IFERROR(Contigency!X31/(Contigency!X31+Contigency!X34),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33">
+        <f>IFERROR((Contigency!V31+Contigency!V32)/(Contigency!V31+Contigency!V32+Contigency!V33+Contigency!V34),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M33">
+        <f>IFERROR((Contigency!W31+Contigency!W32)/(Contigency!W31+Contigency!W32+Contigency!W33+Contigency!W34),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N33">
+        <f>IFERROR((Contigency!X31+Contigency!X32)/(Contigency!X31+Contigency!X32+Contigency!X33+Contigency!X34),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:N34" si="16">IFERROR(2*L31*L32/(L31+L32),0)</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35">
+        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W37),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X37),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>IFERROR(Contigency!W35/(Contigency!W35+Contigency!W38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f>IFERROR(Contigency!X35/(Contigency!X35+Contigency!X38),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37">
+        <f>IFERROR((Contigency!V35+Contigency!V36)/(Contigency!V35+Contigency!V36+Contigency!V37+Contigency!V38),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M37">
+        <f>IFERROR((Contigency!W35+Contigency!W36)/(Contigency!W35+Contigency!W36+Contigency!W37+Contigency!W38),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N37">
+        <f>IFERROR((Contigency!X35+Contigency!X36)/(Contigency!X35+Contigency!X36+Contigency!X37+Contigency!X38),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:N38" si="17">IFERROR(2*L35*L36/(L35+L36),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V41),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="M39">
+        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W41),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X41),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40">
+        <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V42),0)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="M40">
+        <f>IFERROR(Contigency!W39/(Contigency!W39+Contigency!W42),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f>IFERROR(Contigency!X39/(Contigency!X39+Contigency!X42),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41">
+        <f>IFERROR((Contigency!V39+Contigency!V40)/(Contigency!V39+Contigency!V40+Contigency!V41+Contigency!V42),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M41">
+        <f>IFERROR((Contigency!W39+Contigency!W40)/(Contigency!W39+Contigency!W40+Contigency!W41+Contigency!W42),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N41">
+        <f>IFERROR((Contigency!X39+Contigency!X40)/(Contigency!X39+Contigency!X40+Contigency!X41+Contigency!X42),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:N42" si="18">IFERROR(2*L39*L40/(L39+L40),0)</f>
+        <v>0.19047619047619049</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V45),0)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M43">
+        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W45),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X45),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44">
+        <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V46),0)</f>
+        <v>0.36</v>
+      </c>
+      <c r="M44">
+        <f>IFERROR(Contigency!W43/(Contigency!W43+Contigency!W46),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N44">
+        <f>IFERROR(Contigency!X43/(Contigency!X43+Contigency!X46),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45">
+        <f>IFERROR((Contigency!V43+Contigency!V44)/(Contigency!V43+Contigency!V44+Contigency!V45+Contigency!V46),0)</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M45">
+        <f>IFERROR((Contigency!W43+Contigency!W44)/(Contigency!W43+Contigency!W44+Contigency!W45+Contigency!W46),0)</f>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="N45">
+        <f>IFERROR((Contigency!X43+Contigency!X44)/(Contigency!X43+Contigency!X44+Contigency!X45+Contigency!X46),0)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46:N46" si="19">IFERROR(2*L43*L44/(L43+L44),0)</f>
+        <v>0.51428571428571435</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="19"/>
+        <v>0.4324324324324324</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="19"/>
+        <v>0.2424242424242424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43)/2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:E50" si="20">SUM(D3,D7,D11,D15,D19,D23,D27,D31,D35,D39,D43)/2</f>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="20"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F50">
+        <f>SUM(F3,F7,F11,F15,F19,F23,F27,F31,F35,F39,F43)/3</f>
+        <v>0.47301587301587306</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50:H50" si="21">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)/3</f>
+        <v>0.53968253968253965</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="21"/>
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="I50">
+        <f>SUM(I3,I7,I11,I15,I19,I23,I27,I31,I35,I39,I43)/6</f>
+        <v>0.31209150326797386</v>
+      </c>
+      <c r="J50">
+        <f t="shared" ref="J50:K50" si="22">SUM(J3,J7,J11,J15,J19,J23,J27,J31,J35,J39,J43)/6</f>
+        <v>0.13636363636363638</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="22"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="L50">
+        <f>SUM(L3,L7,L11,L15,L19,L23,L27,L31,L35,L39,L43)/11</f>
+        <v>0.15</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50:N50" si="23">SUM(M3,M7,M11,M15,M19,M23,M27,M31,M35,M39,M43)/11</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="23"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <f>SUM(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44)/2</f>
+        <v>0.48051948051948057</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:E51" si="24">SUM(D4,D8,D12,D16,D20,D24,D28,D32,D36,D40,D44)/2</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="24"/>
+        <v>0.70454545454545459</v>
+      </c>
+      <c r="F51">
+        <f>SUM(F4,F8,F12,F16,F20,F24,F28,F32,F36,F40,F44)/3</f>
+        <v>0.34379084967320256</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:H51" si="25">SUM(G4,G8,G12,G16,G20,G24,G28,G32,G36,G40,G44)/3</f>
+        <v>0.33823529411764702</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="25"/>
+        <v>0.20634920634920637</v>
+      </c>
+      <c r="I51">
+        <f>SUM(I4,I8,I12,I16,I20,I24,I28,I32,I36,I40,I44)/6</f>
+        <v>0.12936507936507935</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:K51" si="26">SUM(J4,J8,J12,J16,J20,J24,J28,J32,J36,J40,J44)/6</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="26"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L51">
+        <f>SUM(L4,L8,L12,L16,L20,L24,L28,L32,L36,L40,L44)/11</f>
+        <v>5.2060880296174415E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51:N51" si="27">SUM(M4,M8,M12,M16,M20,M24,M28,M32,M36,M40,M44)/11</f>
+        <v>2.5078369905956112E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="27"/>
+        <v>1.2539184952978056E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <f>SUM(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)/2</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:E52" si="28">SUM(D5,D9,D13,D17,D21,D25,D29,D33,D37,D41,D45)/2</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="28"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F52">
+        <f>SUM(F5,F9,F13,F17,F21,F25,F29,F33,F37,F41,F45)/3</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="G52">
+        <f t="shared" ref="G52:H52" si="29">SUM(G5,G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)/3</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="29"/>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I52">
+        <f>SUM(I5,I9,I13,I17,I21,I25,I29,I33,I37,I41,I45)/6</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:K52" si="30">SUM(J5,J9,J13,J17,J21,J25,J29,J33,J37,J41,J45)/6</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="30"/>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L52">
+        <f>SUM(L5,L9,L13,L17,L21,L25,L29,L33,L37,L41,L45)/11</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:N52" si="31">SUM(M5,M9,M13,M17,M21,M25,M29,M33,M37,M41,M45)/11</f>
+        <v>0.27586206896551729</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="31"/>
+        <v>0.13793103448275865</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46)/2</f>
+        <v>0.47463768115942023</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:E53" si="32">SUM(D6,D10,D14,D18,D22,D26,D30,D34,D38,D42,D46)/2</f>
+        <v>0.35555555555555551</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="32"/>
+        <v>0.54958183990442055</v>
+      </c>
+      <c r="F53">
+        <f>SUM(F6,F10,F14,F18,F22,F26,F30,F34,F38,F42,F46)/3</f>
+        <v>0.36140350877192984</v>
+      </c>
+      <c r="G53">
+        <f t="shared" ref="G53:H53" si="33">SUM(G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46)/3</f>
+        <v>0.36140350877192984</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="33"/>
+        <v>0.17845117845117844</v>
+      </c>
+      <c r="I53">
+        <f>SUM(I6,I10,I14,I18,I22,I26,I30,I34,I38,I42,I46)/6</f>
+        <v>0.16313352826510721</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:K53" si="34">SUM(J6,J10,J14,J18,J22,J26,J30,J34,J38,J42,J46)/6</f>
+        <v>7.8947368421052613E-2</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="34"/>
+        <v>6.4814814814814811E-2</v>
+      </c>
+      <c r="L53">
+        <f>SUM(L6,L10,L14,L18,L22,L26,L30,L34,L38,L42,L46)/11</f>
+        <v>7.3638642059694698E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:N53" si="35">SUM(M6,M10,M14,M18,M22,M26,M30,M34,M38,M42,M46)/11</f>
+        <v>3.9312039312039311E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="35"/>
+        <v>2.2038567493112945E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mae &amp; pearson" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
     <sheet name="Contigency" sheetId="4" r:id="rId4"/>
     <sheet name="performa micro" sheetId="2" r:id="rId5"/>
-    <sheet name="performa macro" sheetId="7" r:id="rId6"/>
+    <sheet name="performa macro" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -316,6 +316,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -482,11 +483,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-65043808"/>
-        <c:axId val="-65046528"/>
+        <c:axId val="-140038528"/>
+        <c:axId val="-140034720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-65043808"/>
+        <c:axId val="-140038528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +530,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65046528"/>
+        <c:crossAx val="-140034720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65046528"/>
+        <c:axId val="-140034720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -588,7 +589,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65043808"/>
+        <c:crossAx val="-140038528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,6 +603,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1276,11 +1278,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-65041088"/>
-        <c:axId val="-65043264"/>
+        <c:axId val="-140037440"/>
+        <c:axId val="-140030368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-65041088"/>
+        <c:axId val="-140037440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,7 +1325,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65043264"/>
+        <c:crossAx val="-140030368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +1333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65043264"/>
+        <c:axId val="-140030368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,7 +1384,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65041088"/>
+        <c:crossAx val="-140037440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2071,11 +2073,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-65042176"/>
-        <c:axId val="-65055776"/>
+        <c:axId val="-140031456"/>
+        <c:axId val="-140030912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-65042176"/>
+        <c:axId val="-140031456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,7 +2120,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65055776"/>
+        <c:crossAx val="-140030912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2126,7 +2128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65055776"/>
+        <c:axId val="-140030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2179,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65042176"/>
+        <c:crossAx val="-140031456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5686,7 +5688,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10103,7 +10105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -12278,11 +12280,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:N1"/>
@@ -12293,6 +12290,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12302,8 +12304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14336,13 +14338,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
@@ -14351,11 +14351,13 @@
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mae &amp; pearson" sheetId="1" r:id="rId1"/>
+    <sheet name="mae" sheetId="1" r:id="rId1"/>
     <sheet name="round score" sheetId="3" r:id="rId2"/>
     <sheet name="round score (boolean)" sheetId="6" r:id="rId3"/>
     <sheet name="Contigency" sheetId="4" r:id="rId4"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
-  <si>
-    <t>pearson</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="55">
   <si>
     <t>mae</t>
   </si>
@@ -358,7 +355,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'mae &amp; pearson'!$A$14</c:f>
+              <c:f>mae!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -379,7 +376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'mae &amp; pearson'!$B$13:$D$13</c:f>
+              <c:f>mae!$B$13:$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -396,7 +393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'mae &amp; pearson'!$B$14:$D$14</c:f>
+              <c:f>mae!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -413,66 +410,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'mae &amp; pearson'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pearson</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'mae &amp; pearson'!$B$13:$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>tf_idf</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>widf</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>midf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'mae &amp; pearson'!$B$15:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.44368813562740628</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45822152253047965</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74952560700115645</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -483,11 +420,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-140038528"/>
-        <c:axId val="-140034720"/>
+        <c:axId val="-1131174192"/>
+        <c:axId val="-1131160048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-140038528"/>
+        <c:axId val="-1131174192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +467,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140034720"/>
+        <c:crossAx val="-1131160048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140034720"/>
+        <c:axId val="-1131160048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +526,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140038528"/>
+        <c:crossAx val="-1131174192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -711,7 +648,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1278,11 +1214,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-140037440"/>
-        <c:axId val="-140030368"/>
+        <c:axId val="-1131173648"/>
+        <c:axId val="-1131167664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-140037440"/>
+        <c:axId val="-1131173648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,7 +1261,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140030368"/>
+        <c:crossAx val="-1131167664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1333,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140030368"/>
+        <c:axId val="-1131167664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,7 +1320,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140037440"/>
+        <c:crossAx val="-1131173648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1334,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1506,7 +1441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2073,11 +2007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-140031456"/>
-        <c:axId val="-140030912"/>
+        <c:axId val="-1131173104"/>
+        <c:axId val="-1131164400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-140031456"/>
+        <c:axId val="-1131173104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2054,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140030912"/>
+        <c:crossAx val="-1131164400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +2062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140030912"/>
+        <c:axId val="-1131164400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,7 +2113,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140031456"/>
+        <c:crossAx val="-1131173104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2193,7 +2127,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3901,7 +3834,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5685,109 +5618,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>46</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>47</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>53</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f>IF(SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!B3:B7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!B3:B7)))*5&gt;0,SUMPRODUCT([1]vk!$A$3:$A$7,[1]vk!B3:B7)/(SQRT(SUMSQ([1]vk!$A$3:$A$7))*SQRT(SUMSQ([1]vk!B3:B7)))*5,0)</f>
@@ -5908,7 +5841,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f>IF(SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!B11:B15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!B11:B15)))*5&gt;0,SUMPRODUCT([1]vk!$A$11:$A$15,[1]vk!B11:B15)/(SQRT(SUMSQ([1]vk!$A$11:$A$15))*SQRT(SUMSQ([1]vk!B11:B15)))*5,0)</f>
@@ -6029,7 +5962,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f>IF(SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!B19:B23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!B19:B23)))*5&gt;0,SUMPRODUCT([1]vk!$A$19:$A$23,[1]vk!B19:B23)/(SQRT(SUMSQ([1]vk!$A$19:$A$23))*SQRT(SUMSQ([1]vk!B19:B23)))*5,0)</f>
@@ -6150,7 +6083,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3.5</v>
@@ -6242,12 +6175,12 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <f t="shared" ref="B9:AD9" si="0">ABS(B$6-B2)</f>
@@ -6368,7 +6301,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:AD10" si="1">ABS(B$6-B3)</f>
@@ -6489,7 +6422,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <f t="shared" ref="B11:AD11" si="2">ABS(B$6-B4)</f>
@@ -6610,18 +6543,18 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <f>AVERAGE(B9:AD9)</f>
@@ -6634,23 +6567,6 @@
       <c r="D14">
         <f>AVERAGE(B11:AD11)</f>
         <v>2.0542790252189906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <f>PEARSON(B6:AD6,B2:AD2)</f>
-        <v>0.44368813562740628</v>
-      </c>
-      <c r="C15">
-        <f>PEARSON(B6:AD6,B3:AD3)</f>
-        <v>0.45822152253047965</v>
-      </c>
-      <c r="D15">
-        <f>PEARSON(B6:AD6,B4:AD4)</f>
-        <v>0.74952560700115645</v>
       </c>
     </row>
   </sheetData>
@@ -6671,25 +6587,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="K1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="P1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -6697,52 +6613,52 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -8218,25 +8134,25 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="K1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="P1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -8244,52 +8160,52 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -10120,68 +10036,68 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="2"/>
       <c r="L1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="2"/>
       <c r="Q1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
       <c r="T1" s="2"/>
       <c r="V1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="Q2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="2"/>
       <c r="V2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -10189,13 +10105,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -10261,13 +10177,13 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -10333,13 +10249,13 @@
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -10405,13 +10321,13 @@
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -10479,13 +10395,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
@@ -10551,13 +10467,13 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>5</v>
@@ -10623,13 +10539,13 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>5</v>
@@ -10695,13 +10611,13 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2">
         <v>5</v>
@@ -10769,13 +10685,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" s="2">
         <v>5</v>
@@ -10826,13 +10742,13 @@
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2">
         <v>5</v>
@@ -10883,13 +10799,13 @@
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" s="2">
         <v>5</v>
@@ -10940,13 +10856,13 @@
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2">
         <v>5</v>
@@ -10999,13 +10915,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="2">
         <v>3</v>
@@ -11041,13 +10957,13 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P16" s="2">
         <v>3</v>
@@ -11083,13 +10999,13 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P17" s="2">
         <v>3</v>
@@ -11125,13 +11041,13 @@
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P18" s="2">
         <v>3</v>
@@ -11169,13 +11085,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="2">
         <v>4</v>
@@ -11211,13 +11127,13 @@
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P20" s="2">
         <v>4</v>
@@ -11253,13 +11169,13 @@
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P21" s="2">
         <v>4</v>
@@ -11295,13 +11211,13 @@
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P22" s="2">
         <v>4</v>
@@ -11339,13 +11255,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P23" s="2">
         <v>5</v>
@@ -11381,13 +11297,13 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P24" s="2">
         <v>5</v>
@@ -11423,13 +11339,13 @@
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P25" s="2">
         <v>5</v>
@@ -11465,13 +11381,13 @@
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P26" s="2">
         <v>5</v>
@@ -11509,13 +11425,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U27" s="2">
         <v>3</v>
@@ -11536,13 +11452,13 @@
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U28" s="2">
         <v>3</v>
@@ -11563,13 +11479,13 @@
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U29" s="2">
         <v>3</v>
@@ -11590,13 +11506,13 @@
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U30" s="2">
         <v>3</v>
@@ -11619,13 +11535,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U31" s="2">
         <v>3.5</v>
@@ -11646,13 +11562,13 @@
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U32" s="2">
         <v>3.5</v>
@@ -11673,13 +11589,13 @@
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U33" s="2">
         <v>3.5</v>
@@ -11700,13 +11616,13 @@
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U34" s="2">
         <v>3.5</v>
@@ -11729,13 +11645,13 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U35" s="2">
         <v>4</v>
@@ -11756,13 +11672,13 @@
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U36" s="2">
         <v>4</v>
@@ -11783,13 +11699,13 @@
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U37" s="2">
         <v>4</v>
@@ -11810,13 +11726,13 @@
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U38" s="2">
         <v>4</v>
@@ -11839,13 +11755,13 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U39" s="2">
         <v>4.5</v>
@@ -11866,13 +11782,13 @@
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U40" s="2">
         <v>4.5</v>
@@ -11893,13 +11809,13 @@
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U41" s="2">
         <v>4.5</v>
@@ -11920,13 +11836,13 @@
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U42" s="2">
         <v>4.5</v>
@@ -11949,13 +11865,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U43" s="2">
         <v>5</v>
@@ -11976,13 +11892,13 @@
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U44" s="2">
         <v>5</v>
@@ -12003,13 +11919,13 @@
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U45" s="2">
         <v>5</v>
@@ -12030,13 +11946,13 @@
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U46" s="2">
         <v>5</v>
@@ -12056,7 +11972,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ref="G48:S49" si="0">SUM(G3,G7,G11,G15,G19,G23,G27,G31,G35,G39,G43)</f>
@@ -12112,7 +12028,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" si="0"/>
@@ -12168,7 +12084,7 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ref="G50:I50" si="3">SUM(G5,G9,G13,G17,G21,G25,G29,G33,G37,G41,G45)</f>
@@ -12224,7 +12140,7 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ref="G51:I51" si="5">SUM(G6,G10,G14,G18,G22,G26,G30,G34,G38,G42,G46)</f>
@@ -12304,7 +12220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -12318,67 +12234,67 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <f>Contigency!G48/(Contigency!G48+Contigency!G50)</f>
@@ -12431,7 +12347,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <f>Contigency!G48/(Contigency!G48+Contigency!G51)</f>
@@ -12484,7 +12400,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f>(Contigency!G48+Contigency!G49)/(Contigency!G48+Contigency!G49+Contigency!G50+Contigency!G51)</f>
@@ -12537,7 +12453,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <f>2*B3*B4/(B3+B4)</f>
@@ -12654,62 +12570,62 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -12717,7 +12633,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G5),0)</f>
@@ -12771,7 +12687,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <f>IFERROR(Contigency!G3/(Contigency!G3+Contigency!G6),0)</f>
@@ -12825,7 +12741,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <f>IFERROR((Contigency!G3+Contigency!G4)/(Contigency!G3+Contigency!G4+Contigency!G5+Contigency!G6),0)</f>
@@ -12879,7 +12795,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <f>IFERROR(2*C3*C4/(C3+C4),0)</f>
@@ -12935,7 +12851,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G9),0)</f>
@@ -12989,7 +12905,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <f>IFERROR(Contigency!G7/(Contigency!G7+Contigency!G10),0)</f>
@@ -13043,7 +12959,7 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <f>IFERROR((Contigency!G7+Contigency!G8)/(Contigency!G7+Contigency!G8+Contigency!G9+Contigency!G10),0)</f>
@@ -13097,7 +13013,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <f>IFERROR(2*C7*C8/(C7+C8),0)</f>
@@ -13153,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L13),0)</f>
@@ -13195,7 +13111,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <f>IFERROR(Contigency!L11/(Contigency!L11+Contigency!L14),0)</f>
@@ -13237,7 +13153,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <f>IFERROR((Contigency!L11+Contigency!L12)/(Contigency!L11+Contigency!L12+Contigency!L13+Contigency!L14),0)</f>
@@ -13279,7 +13195,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:H14" si="6">IFERROR(2*F11*F12/(F11+F12),0)</f>
@@ -13323,7 +13239,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15">
         <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q17),0)</f>
@@ -13353,7 +13269,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16">
         <f>IFERROR(Contigency!Q15/(Contigency!Q15+Contigency!Q18),0)</f>
@@ -13383,7 +13299,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <f>IFERROR((Contigency!Q15+Contigency!Q16)/(Contigency!Q15+Contigency!Q16+Contigency!Q17+Contigency!Q18),0)</f>
@@ -13413,7 +13329,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:K18" si="9">IFERROR(2*I15*I16/(I15+I16),0)</f>
@@ -13445,7 +13361,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19">
         <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q21),0)</f>
@@ -13475,7 +13391,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <f>IFERROR(Contigency!Q19/(Contigency!Q19+Contigency!Q22),0)</f>
@@ -13505,7 +13421,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <f>IFERROR((Contigency!Q19+Contigency!Q20)/(Contigency!Q19+Contigency!Q20+Contigency!Q21+Contigency!Q22),0)</f>
@@ -13535,7 +13451,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22">
         <f t="shared" ref="I22:K22" si="11">IFERROR(2*I19*I20/(I19+I20),0)</f>
@@ -13567,7 +13483,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I23">
         <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q25),0)</f>
@@ -13597,7 +13513,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24">
         <f>IFERROR(Contigency!Q23/(Contigency!Q23+Contigency!Q26),0)</f>
@@ -13627,7 +13543,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I25">
         <f>IFERROR((Contigency!Q23+Contigency!Q24)/(Contigency!Q23+Contigency!Q24+Contigency!Q25+Contigency!Q26),0)</f>
@@ -13657,7 +13573,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:K26" si="13">IFERROR(2*I23*I24/(I23+I24),0)</f>
@@ -13689,7 +13605,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L27">
         <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V29),0)</f>
@@ -13707,7 +13623,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28">
         <f>IFERROR(Contigency!V27/(Contigency!V27+Contigency!V30),0)</f>
@@ -13725,7 +13641,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29">
         <f>IFERROR((Contigency!V27+Contigency!V28)/(Contigency!V27+Contigency!V28+Contigency!V29+Contigency!V30),0)</f>
@@ -13743,7 +13659,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30">
         <f t="shared" ref="L30:N30" si="15">IFERROR(2*L27*L28/(L27+L28),0)</f>
@@ -13763,7 +13679,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L31">
         <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V33),0)</f>
@@ -13781,7 +13697,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32">
         <f>IFERROR(Contigency!V31/(Contigency!V31+Contigency!V34),0)</f>
@@ -13799,7 +13715,7 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33">
         <f>IFERROR((Contigency!V31+Contigency!V32)/(Contigency!V31+Contigency!V32+Contigency!V33+Contigency!V34),0)</f>
@@ -13817,7 +13733,7 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:N34" si="16">IFERROR(2*L31*L32/(L31+L32),0)</f>
@@ -13837,7 +13753,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35">
         <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V37),0)</f>
@@ -13855,7 +13771,7 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36">
         <f>IFERROR(Contigency!V35/(Contigency!V35+Contigency!V38),0)</f>
@@ -13873,7 +13789,7 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37">
         <f>IFERROR((Contigency!V35+Contigency!V36)/(Contigency!V35+Contigency!V36+Contigency!V37+Contigency!V38),0)</f>
@@ -13891,7 +13807,7 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38">
         <f t="shared" ref="L38:N38" si="17">IFERROR(2*L35*L36/(L35+L36),0)</f>
@@ -13911,7 +13827,7 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L39">
         <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V41),0)</f>
@@ -13929,7 +13845,7 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40">
         <f>IFERROR(Contigency!V39/(Contigency!V39+Contigency!V42),0)</f>
@@ -13947,7 +13863,7 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L41">
         <f>IFERROR((Contigency!V39+Contigency!V40)/(Contigency!V39+Contigency!V40+Contigency!V41+Contigency!V42),0)</f>
@@ -13965,7 +13881,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L42">
         <f t="shared" ref="L42:N42" si="18">IFERROR(2*L39*L40/(L39+L40),0)</f>
@@ -13985,7 +13901,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L43">
         <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V45),0)</f>
@@ -14003,7 +13919,7 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44">
         <f>IFERROR(Contigency!V43/(Contigency!V43+Contigency!V46),0)</f>
@@ -14021,7 +13937,7 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L45">
         <f>IFERROR((Contigency!V43+Contigency!V44)/(Contigency!V43+Contigency!V44+Contigency!V45+Contigency!V46),0)</f>
@@ -14039,7 +13955,7 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46:N46" si="19">IFERROR(2*L43*L44/(L43+L44),0)</f>
@@ -14060,70 +13976,70 @@
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="C48" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C49" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50">
         <f>SUM(C3,C7,C11,C15,C19,C23,C27,C31,C35,C39,C43)/2</f>
@@ -14177,7 +14093,7 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <f>SUM(C4,C8,C12,C16,C20,C24,C28,C32,C36,C40,C44)/2</f>
@@ -14231,7 +14147,7 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <f>SUM(C5,C9,C13,C17,C21,C25,C29,C33,C37,C41,C45)/2</f>
@@ -14285,7 +14201,7 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53">
         <f>SUM(C6,C10,C14,C18,C22,C26,C30,C34,C38,C42,C46)/2</f>

--- a/excel/4. evaluation.xlsx
+++ b/excel/4. evaluation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="56">
   <si>
     <t>mae</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>pearson</t>
   </si>
 </sst>
 </file>
@@ -410,6 +413,66 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mae!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pearson</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>mae!$B$13:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>tf_idf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>widf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>midf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mae!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.44368813562740628</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45822152253047965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74952560700115645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -420,11 +483,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131174192"/>
-        <c:axId val="-1131160048"/>
+        <c:axId val="-1933199744"/>
+        <c:axId val="-1933203008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131174192"/>
+        <c:axId val="-1933199744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,7 +530,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131160048"/>
+        <c:crossAx val="-1933203008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -475,7 +538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131160048"/>
+        <c:axId val="-1933203008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +589,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131174192"/>
+        <c:crossAx val="-1933199744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1214,11 +1277,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131173648"/>
-        <c:axId val="-1131167664"/>
+        <c:axId val="-1933206272"/>
+        <c:axId val="-1933207360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131173648"/>
+        <c:axId val="-1933206272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1324,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131167664"/>
+        <c:crossAx val="-1933207360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131167664"/>
+        <c:axId val="-1933207360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1383,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131173648"/>
+        <c:crossAx val="-1933206272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2007,11 +2070,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131173104"/>
-        <c:axId val="-1131164400"/>
+        <c:axId val="-1933199200"/>
+        <c:axId val="-1933205728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131173104"/>
+        <c:axId val="-1933199200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2054,7 +2117,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131164400"/>
+        <c:crossAx val="-1933205728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2062,7 +2125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131164400"/>
+        <c:axId val="-1933205728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2176,7 @@
             <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131173104"/>
+        <c:crossAx val="-1933199200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,10 +5681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6567,6 +6630,23 @@
       <c r="D14">
         <f>AVERAGE(B11:AD11)</f>
         <v>2.0542790252189906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <f>PEARSON(B2:AD2,B6:AD6)</f>
+        <v>0.44368813562740628</v>
+      </c>
+      <c r="C15">
+        <f>PEARSON(B3:AD3,B6:AD6)</f>
+        <v>0.45822152253047965</v>
+      </c>
+      <c r="D15">
+        <f>PEARSON(B4:AD4,B6:AD6)</f>
+        <v>0.74952560700115645</v>
       </c>
     </row>
   </sheetData>
@@ -12196,6 +12276,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="L1:N1"/>
@@ -12206,11 +12291,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14254,11 +14334,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
@@ -14267,13 +14349,11 @@
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
